--- a/Personal Finances.xlsx
+++ b/Personal Finances.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gugulethu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gugulethu/Projects/Programming/push/personal-finances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0507FA-B708-064B-BC69-FC4DABACF1A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CCC452-5734-274C-8895-6EF33419DB2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="220" windowWidth="36980" windowHeight="21080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -635,9 +635,6 @@
     <t>Sum of Field3</t>
   </si>
   <si>
-    <t>Common Task</t>
-  </si>
-  <si>
     <t>How to add a transaction</t>
   </si>
   <si>
@@ -657,9 +654,6 @@
   </si>
   <si>
     <t>About</t>
-  </si>
-  <si>
-    <t>Version 20201031b</t>
   </si>
   <si>
     <t>Project page</t>
@@ -685,6 +679,12 @@
   <si>
     <t>(blank)</t>
   </si>
+  <si>
+    <t>Version 20201102m</t>
+  </si>
+  <si>
+    <t>Common Tasks</t>
+  </si>
 </sst>
 </file>
 
@@ -699,7 +699,7 @@
     <numFmt numFmtId="169" formatCode="mmmm\ yyyy"/>
     <numFmt numFmtId="170" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="53">
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -975,6 +975,11 @@
       <sz val="12"/>
       <color theme="2" tint="-0.749992370372631"/>
       <name val="Roboto Black"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Roboto Medium"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1817,9 +1822,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="19" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="19" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -2075,150 +2077,11 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="32" fillId="10" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="39" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="25" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="37" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="39" fillId="10" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="34" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="38" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="28" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="37" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="42" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="42" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="42" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="42" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="42" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="42" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="42" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="42" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="42" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="42" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="25" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" pivotButton="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="40" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2246,6 +2109,36 @@
     <xf numFmtId="169" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="42" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="42" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="42" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="42" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="42" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="42" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2264,16 +2157,145 @@
     <xf numFmtId="168" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="38" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="28" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="37" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="39" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="25" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="37" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="39" fillId="10" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="32" fillId="10" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="49" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="49" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="49" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2282,29 +2304,12 @@
     <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="49" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="49" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="49" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" pivotButton="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" pivotButton="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Accent" xfId="14" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
@@ -5004,7 +5009,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Finances | Personal.xlsx]Accounts | Income!Accounts</c:name>
+    <c:name>[Personal Finances.xlsx]Accounts | Income!Accounts</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -6247,7 +6252,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Finances | Personal.xlsx]Accounts | Income!Income</c:name>
+    <c:name>[Personal Finances.xlsx]Accounts | Income!Income</c:name>
     <c:fmtId val="9"/>
   </c:pivotSource>
   <c:chart>
@@ -9278,7 +9283,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Finances | Personal.xlsx]Categories | Subcategories!PivotTable4</c:name>
+    <c:name>[Personal Finances.xlsx]Categories | Subcategories!PivotTable4</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -10735,7 +10740,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Finances | Personal.xlsx]Categories | Subcategories!PivotTable6</c:name>
+    <c:name>[Personal Finances.xlsx]Categories | Subcategories!PivotTable6</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -13728,6 +13733,9 @@
       <c:pivotFmt>
         <c:idx val="52"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
           <a:ln w="31750" cap="rnd" cmpd="sng">
             <a:solidFill>
               <a:srgbClr val="FF4C41"/>
@@ -13982,7 +13990,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Finances | Personal.xlsx]Categories | Subcategories!PivotTable7</c:name>
+    <c:name>[Personal Finances.xlsx]Categories | Subcategories!PivotTable7</c:name>
     <c:fmtId val="6"/>
   </c:pivotSource>
   <c:chart>
@@ -14524,7 +14532,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Finances | Personal.xlsx]Investment!Net Worth</c:name>
+    <c:name>[Personal Finances.xlsx]Investment!Net Worth</c:name>
     <c:fmtId val="12"/>
   </c:pivotSource>
   <c:chart>
@@ -15315,7 +15323,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Finances | Personal.xlsx]Investment!Asset Allocation</c:name>
+    <c:name>[Personal Finances.xlsx]Investment!Asset Allocation</c:name>
     <c:fmtId val="10"/>
   </c:pivotSource>
   <c:chart>
@@ -16562,6 +16570,38 @@
           <a:effectLst/>
         </c:spPr>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="69"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="70"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="71"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout>
@@ -17244,7 +17284,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Finances | Personal.xlsx]Investment!PivotTable2</c:name>
+    <c:name>[Personal Finances.xlsx]Investment!PivotTable2</c:name>
     <c:fmtId val="19"/>
   </c:pivotSource>
   <c:chart>
@@ -24410,13 +24450,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>431800</xdr:colOff>
       <xdr:row>252</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>256</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -24441,7 +24481,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8661400" y="53721000"/>
+          <a:off x="8826500" y="53721000"/>
           <a:ext cx="812800" cy="812800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -25115,84 +25155,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="gugulethu" refreshedDate="44135.103572222222" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="6" xr:uid="{3057F8A1-70B4-9941-9CF3-61F9C1AADD8E}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="Transactions"/>
-  </cacheSource>
-  <cacheFields count="18">
-    <cacheField name="ACCOUNT" numFmtId="49">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="DATE" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2005-01-01T00:00:00" maxDate="2005-01-02T00:00:00" count="1">
-        <d v="2005-01-01T00:00:00"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="BRAND" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="ITEM" numFmtId="0">
-      <sharedItems count="1">
-        <s v="Starting Balance"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="QUANTITY" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="UNIT" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="CATEGORY" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="SUB-CATEGORY" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="NOTE" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="OUTFLOW" numFmtId="165">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="INFLOW" numFmtId="165">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="DEBIT" numFmtId="165">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="CASH" numFmtId="165">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="SAVINGS" numFmtId="165">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="CREDIT" numFmtId="165">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="BALANCE" numFmtId="165">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="ERROR" numFmtId="165">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Net" numFmtId="0" formula="OUTFLOW-INFLOW" databaseField="0"/>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="1388460348"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="gugulethu" refreshedDate="44135.103576157409" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{8BE470CC-507A-B54B-AFB1-A34AB7702099}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="gugulethu" refreshedDate="44137.131071296295" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{8BE470CC-507A-B54B-AFB1-A34AB7702099}">
   <cacheSource type="worksheet">
     <worksheetSource name="Investment"/>
   </cacheSource>
@@ -25268,6 +25231,83 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
       <x14:pivotCacheDefinition pivotCacheId="737421175"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="gugulethu" refreshedDate="44137.131074189812" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="6" xr:uid="{3057F8A1-70B4-9941-9CF3-61F9C1AADD8E}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Transactions"/>
+  </cacheSource>
+  <cacheFields count="18">
+    <cacheField name="ACCOUNT" numFmtId="49">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="DATE" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2005-01-01T00:00:00" maxDate="2005-01-02T00:00:00" count="1">
+        <d v="2005-01-01T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="BRAND" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ITEM" numFmtId="0">
+      <sharedItems count="1">
+        <s v="Starting Balance"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="QUANTITY" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="UNIT" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="CATEGORY" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="SUB-CATEGORY" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="NOTE" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="OUTFLOW" numFmtId="165">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="INFLOW" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="DEBIT" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="CASH" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="SAVINGS" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="CREDIT" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="BALANCE" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="ERROR" numFmtId="165">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Net" numFmtId="0" formula="OUTFLOW-INFLOW" databaseField="0"/>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1388460348"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -26449,6 +26489,49 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="2">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Fixed Deposit"/>
+    <x v="0"/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="●"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Investment"/>
+    <x v="1"/>
+    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="●"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
   <r>
     <s v="Cash"/>
@@ -26567,51 +26650,8 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="2">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Fixed Deposit"/>
-    <x v="0"/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <s v="●"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Investment"/>
-    <x v="1"/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <s v="●"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{61631065-8F6F-BD45-AD2C-95ABAFD5AD56}" name="Accounts" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showMissing="0" updatedVersion="6" minRefreshableVersion="5" showDrill="0" showDataTips="0" enableDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{61631065-8F6F-BD45-AD2C-95ABAFD5AD56}" name="Accounts" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showMissing="0" updatedVersion="6" minRefreshableVersion="5" showDrill="0" showDataTips="0" enableDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A1:E1" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -26704,7 +26744,7 @@
   </chartFormats>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="1" type="dateBetween" evalOrder="-1" id="1532" name="DATE">
+    <filter fld="1" type="dateBetween" evalOrder="-1" id="1533" name="DATE">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters and="1">
@@ -26732,7 +26772,193 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B574EDC-E3D4-F047-815E-CC468D0F90C0}" name="Net Worth" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{21F1766E-C9E6-8748-B281-E60B8928B596}" name="PivotTable7" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="N3:P6" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="21">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" numFmtId="14" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="3"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of INFLOW" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Sum of OUTFLOW" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="1" type="dateBetween" evalOrder="-1" id="219" name="DATE">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="42005"/>
+            <customFilter operator="lessThanOrEqual" val="44196"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6FAC897D-DCBB-0245-A11E-84DBD248DA5E}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
+  <location ref="F1:G1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="21">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="14" showAll="0" sortType="ascending">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" sortType="ascending"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" sortType="descending"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="BALANCE " fld="15" subtotal="max" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="18" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="1" type="dateBetween" evalOrder="-1" id="302" name="DATE">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="42005"/>
+            <customFilter operator="lessThanOrEqual" val="44196"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B574EDC-E3D4-F047-815E-CC468D0F90C0}" name="Net Worth" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
   <location ref="A3:C4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -26822,7 +27048,7 @@
   </chartFormats>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="1" type="dateBetween" evalOrder="-1" id="301" name="DATE">
+    <filter fld="1" type="dateBetween" evalOrder="-1" id="302" name="DATE">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters and="1">
@@ -26849,8 +27075,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{715A92F7-4E82-E146-8AD2-76E57B2303A5}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{715A92F7-4E82-E146-8AD2-76E57B2303A5}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="Z3:AC4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -26918,7 +27144,7 @@
   </dataFields>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="1" type="dateBetween" evalOrder="-1" id="218" name="DATE">
+    <filter fld="1" type="dateBetween" evalOrder="-1" id="219" name="DATE">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters and="1">
@@ -26945,8 +27171,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1E62F7AD-AEF5-9F47-8A7E-4CCC0630E560}" name="Asset Allocation" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1E62F7AD-AEF5-9F47-8A7E-4CCC0630E560}" name="Asset Allocation" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="I1:L2" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField axis="axisRow" showAll="0">
@@ -27009,7 +27235,7 @@
     <dataField name="Sum of INFLOW" fld="7" baseField="6" baseItem="0" numFmtId="165"/>
     <dataField name="Sum of VALUE" fld="18" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="28">
+  <chartFormats count="31">
     <chartFormat chart="2" format="40" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -27313,175 +27539,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="1" type="dateBetween" evalOrder="-1" id="382" name="DATE">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="42005"/>
-            <customFilter operator="lessThanOrEqual" val="44196"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{21F1766E-C9E6-8748-B281-E60B8928B596}" name="PivotTable7" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="N3:P6" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="21">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" numFmtId="14" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="3"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i t="grand">
-      <x/>
-    </i>
-    <i t="grand" i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of INFLOW" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of OUTFLOW" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="1" type="dateBetween" evalOrder="-1" id="218" name="DATE">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="42005"/>
-            <customFilter operator="lessThanOrEqual" val="44196"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6FAC897D-DCBB-0245-A11E-84DBD248DA5E}" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
-  <location ref="F1:G1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="21">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="14" showAll="0" sortType="ascending">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" sortType="ascending"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" sortType="descending"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="BALANCE " fld="15" subtotal="max" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="18" format="1" series="1">
+    <chartFormat chart="10" format="69">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -27490,11 +27548,20 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="19" format="2" series="1">
+    <chartFormat chart="10" format="70">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="71">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -27502,7 +27569,7 @@
   </chartFormats>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="1" type="dateBetween" evalOrder="-1" id="301" name="DATE">
+    <filter fld="1" type="dateBetween" evalOrder="-1" id="384" name="DATE">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters and="1">
@@ -27985,7 +28052,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A364BE6-C0A8-9F4B-BD67-0C1E76166EC4}" name="Income" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A364BE6-C0A8-9F4B-BD67-0C1E76166EC4}" name="Income" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="H3:I4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -28061,7 +28128,7 @@
   </chartFormats>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="1" type="dateBetween" evalOrder="-1" id="1646" name="DATE">
+    <filter fld="1" type="dateBetween" evalOrder="-1" id="1648" name="DATE">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters and="1">
@@ -28089,389 +28156,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BAA3B62-1E53-4440-AAF9-27C2A2197D34}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="O3:P5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="18">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" sortType="ascending">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="5"/>
-  </colFields>
-  <colItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="6" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of QUANTITY" fld="4" baseField="0" baseItem="0" numFmtId="1"/>
-  </dataFields>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="1" type="dateBetween" evalOrder="-1" id="1545" name="DATE">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="44105"/>
-            <customFilter operator="lessThanOrEqual" val="44196"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FF6024C-BBAF-364E-B31A-C47A53E3AA07}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB4:AE5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="18">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="3">
-    <dataField name="Sum of OUTFLOW" fld="9" baseField="0" baseItem="0"/>
-    <dataField name="Sum of INFLOW" fld="10" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Net" fld="17" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="1" type="dateBetween" evalOrder="-1" id="340" name="DATE">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="44105"/>
-            <customFilter operator="lessThanOrEqual" val="44196"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B1B91A8-7B97-5E46-823E-50B6C2D01E7B}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AG4:AJ5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="18">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="3">
-    <dataField name="Sum of OUTFLOW" fld="9" baseField="0" baseItem="0"/>
-    <dataField name="Sum of INFLOW" fld="10" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Net" fld="17" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="1" type="dateBetween" evalOrder="-1" id="340" name="DATE">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="44105"/>
-            <customFilter operator="lessThanOrEqual" val="44196"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B43FE1E6-AB4D-8043-9AD1-7BAE537CFB7C}" name="PivotTable7" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="K3:L4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="18">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" sortType="ascending">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="6" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Outflow" fld="9" baseField="0" baseItem="0" numFmtId="165"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="4" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="17" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="1" type="dateBetween" evalOrder="-1" id="1545" name="DATE">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="44105"/>
-            <customFilter operator="lessThanOrEqual" val="44196"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F90F253-8212-7C49-A927-49B79DDE78DC}" name="PivotTable4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F90F253-8212-7C49-A927-49B79DDE78DC}" name="PivotTable4" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A1:B2" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -28539,7 +28224,7 @@
   </chartFormats>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="1" type="dateBetween" evalOrder="-1" id="1646" name="DATE">
+    <filter fld="1" type="dateBetween" evalOrder="-1" id="1648" name="DATE">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters and="1">
@@ -28566,8 +28251,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F6CBA312-09A5-AF4E-AB16-D51034061FF6}" name="PivotTable6" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F6CBA312-09A5-AF4E-AB16-D51034061FF6}" name="PivotTable6" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="G3:H3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -28651,7 +28336,7 @@
   </chartFormats>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="1" type="dateBetween" evalOrder="-1" id="1520" name="DATE">
+    <filter fld="1" type="dateBetween" evalOrder="-1" id="1521" name="DATE">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters and="1">
@@ -28678,8 +28363,194 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5AAF7A1D-8C94-8947-B66F-C11F775F2E28}" name="PivotTable5" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BAA3B62-1E53-4440-AAF9-27C2A2197D34}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="O3:P5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" sortType="ascending">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="5"/>
+  </colFields>
+  <colItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of QUANTITY" fld="4" baseField="0" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="1" type="dateBetween" evalOrder="-1" id="1547" name="DATE">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="44105"/>
+            <customFilter operator="lessThanOrEqual" val="44196"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FF6024C-BBAF-364E-B31A-C47A53E3AA07}" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB4:AE5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="3">
+    <dataField name="Sum of OUTFLOW" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="Sum of INFLOW" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Net" fld="17" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="1" type="dateBetween" evalOrder="-1" id="341" name="DATE">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="44105"/>
+            <customFilter operator="lessThanOrEqual" val="44196"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5AAF7A1D-8C94-8947-B66F-C11F775F2E28}" name="PivotTable5" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="D1:D2" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -28737,7 +28608,203 @@
   </chartFormats>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="1" type="dateBetween" evalOrder="-1" id="1646" name="DATE">
+    <filter fld="1" type="dateBetween" evalOrder="-1" id="1648" name="DATE">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="44105"/>
+            <customFilter operator="lessThanOrEqual" val="44196"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B1B91A8-7B97-5E46-823E-50B6C2D01E7B}" name="PivotTable3" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AG4:AJ5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="3">
+    <dataField name="Sum of OUTFLOW" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="Sum of INFLOW" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Net" fld="17" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="1" type="dateBetween" evalOrder="-1" id="341" name="DATE">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="44105"/>
+            <customFilter operator="lessThanOrEqual" val="44196"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B43FE1E6-AB4D-8043-9AD1-7BAE537CFB7C}" name="PivotTable7" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="K3:L4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" sortType="ascending">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Outflow" fld="9" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="1" type="dateBetween" evalOrder="-1" id="1547" name="DATE">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters and="1">
@@ -29254,51 +29321,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:113" s="34" customFormat="1" ht="13" customHeight="1">
-      <c r="L1" s="230"/>
-      <c r="M1" s="230"/>
-      <c r="N1" s="230"/>
-      <c r="O1" s="231"/>
-      <c r="P1" s="231"/>
-      <c r="Q1" s="231"/>
+      <c r="L1" s="276"/>
+      <c r="M1" s="276"/>
+      <c r="N1" s="276"/>
+      <c r="O1" s="277"/>
+      <c r="P1" s="277"/>
+      <c r="Q1" s="277"/>
     </row>
     <row r="2" spans="1:113" s="34" customFormat="1" ht="18">
-      <c r="K2" s="236" t="s">
+      <c r="K2" s="285" t="s">
         <v>92</v>
       </c>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="236"/>
-      <c r="P2" s="236"/>
-      <c r="Q2" s="236"/>
-      <c r="R2" s="236"/>
+      <c r="L2" s="285"/>
+      <c r="M2" s="285"/>
+      <c r="N2" s="285"/>
+      <c r="O2" s="285"/>
+      <c r="P2" s="285"/>
+      <c r="Q2" s="285"/>
+      <c r="R2" s="285"/>
     </row>
     <row r="3" spans="1:113" s="34" customFormat="1" ht="18">
-      <c r="K3" s="236"/>
-      <c r="L3" s="236"/>
-      <c r="M3" s="236"/>
-      <c r="N3" s="236"/>
-      <c r="O3" s="236"/>
-      <c r="P3" s="236"/>
-      <c r="Q3" s="236"/>
-      <c r="R3" s="236"/>
+      <c r="K3" s="285"/>
+      <c r="L3" s="285"/>
+      <c r="M3" s="285"/>
+      <c r="N3" s="285"/>
+      <c r="O3" s="285"/>
+      <c r="P3" s="285"/>
+      <c r="Q3" s="285"/>
+      <c r="R3" s="285"/>
     </row>
     <row r="4" spans="1:113" s="34" customFormat="1" ht="18">
-      <c r="K4" s="236"/>
-      <c r="L4" s="236"/>
-      <c r="M4" s="236"/>
-      <c r="N4" s="236"/>
-      <c r="O4" s="236"/>
-      <c r="P4" s="236"/>
-      <c r="Q4" s="236"/>
-      <c r="R4" s="236"/>
+      <c r="K4" s="285"/>
+      <c r="L4" s="285"/>
+      <c r="M4" s="285"/>
+      <c r="N4" s="285"/>
+      <c r="O4" s="285"/>
+      <c r="P4" s="285"/>
+      <c r="Q4" s="285"/>
+      <c r="R4" s="285"/>
     </row>
     <row r="5" spans="1:113" s="34" customFormat="1" ht="18">
-      <c r="N5" s="232">
+      <c r="N5" s="278">
         <f ca="1">TODAY()</f>
-        <v>44135</v>
-      </c>
-      <c r="O5" s="233"/>
+        <v>44137</v>
+      </c>
+      <c r="O5" s="279"/>
     </row>
     <row r="6" spans="1:113" s="34" customFormat="1" ht="18">
       <c r="N6" s="40"/>
@@ -29329,11 +29396,11 @@
       <c r="O10" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="222" cm="1">
+      <c r="P10" s="287" cm="1">
         <f t="array" aca="1" ref="P10" ca="1">IFERROR(LOOKUP(2,1/('× Investment'!P:P&lt;&gt;""),'× Investment'!P:P)+LOOKUP(2,1/('− Debt'!L:L&lt;&gt;""),'− Debt'!L:L)+LOOKUP(2,1/('+ Assets'!L:L&lt;&gt;""),'+ Assets'!L:L)+N10,"NA")</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="222"/>
+      <c r="Q10" s="287"/>
       <c r="R10" s="36"/>
     </row>
     <row r="11" spans="1:113" s="35" customFormat="1" ht="34" customHeight="1">
@@ -29348,46 +29415,46 @@
     </row>
     <row r="12" spans="1:113" s="48" customFormat="1" ht="19" customHeight="1">
       <c r="A12" s="44"/>
-      <c r="B12" s="238">
+      <c r="B12" s="272">
         <f>'∷ Settings'!L15</f>
         <v>0.4</v>
       </c>
-      <c r="C12" s="239"/>
+      <c r="C12" s="273"/>
       <c r="D12" s="45"/>
       <c r="E12" s="45"/>
       <c r="F12" s="45"/>
       <c r="G12" s="44"/>
-      <c r="H12" s="229" t="str">
+      <c r="H12" s="274" t="str">
         <f>'∷ Settings'!L17</f>
         <v>R30k</v>
       </c>
-      <c r="I12" s="229"/>
+      <c r="I12" s="274"/>
       <c r="J12" s="45"/>
       <c r="K12" s="45"/>
       <c r="L12" s="45"/>
-      <c r="M12" s="229" t="str">
+      <c r="M12" s="274" t="str">
         <f>'∷ Settings'!L19</f>
         <v>R400k</v>
       </c>
-      <c r="N12" s="229"/>
-      <c r="O12" s="229"/>
+      <c r="N12" s="274"/>
+      <c r="O12" s="274"/>
       <c r="P12" s="45"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
-      <c r="S12" s="229" t="str">
+      <c r="S12" s="274" t="str">
         <f>'∷ Settings'!L21</f>
         <v>R25k</v>
       </c>
-      <c r="T12" s="229"/>
-      <c r="U12" s="229"/>
+      <c r="T12" s="274"/>
+      <c r="U12" s="274"/>
       <c r="V12" s="46"/>
       <c r="W12" s="46"/>
       <c r="X12" s="46"/>
-      <c r="Y12" s="229" t="str">
+      <c r="Y12" s="274" t="str">
         <f>'∷ Settings'!L23</f>
         <v>3.5 yrs</v>
       </c>
-      <c r="Z12" s="229"/>
+      <c r="Z12" s="274"/>
       <c r="AA12" s="46"/>
       <c r="AB12" s="47"/>
       <c r="AC12" s="47"/>
@@ -29477,31 +29544,31 @@
     </row>
     <row r="13" spans="1:113" s="48" customFormat="1" ht="19" customHeight="1">
       <c r="A13" s="44"/>
-      <c r="B13" s="239"/>
-      <c r="C13" s="239"/>
+      <c r="B13" s="273"/>
+      <c r="C13" s="273"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
       <c r="G13" s="44"/>
-      <c r="H13" s="229"/>
-      <c r="I13" s="229"/>
+      <c r="H13" s="274"/>
+      <c r="I13" s="274"/>
       <c r="J13" s="45"/>
       <c r="K13" s="45"/>
       <c r="L13" s="45"/>
-      <c r="M13" s="229"/>
-      <c r="N13" s="229"/>
-      <c r="O13" s="229"/>
+      <c r="M13" s="274"/>
+      <c r="N13" s="274"/>
+      <c r="O13" s="274"/>
       <c r="P13" s="45"/>
       <c r="Q13" s="44"/>
       <c r="R13" s="44"/>
-      <c r="S13" s="229"/>
-      <c r="T13" s="229"/>
-      <c r="U13" s="229"/>
+      <c r="S13" s="274"/>
+      <c r="T13" s="274"/>
+      <c r="U13" s="274"/>
       <c r="V13" s="46"/>
       <c r="W13" s="46"/>
       <c r="X13" s="46"/>
-      <c r="Y13" s="229"/>
-      <c r="Z13" s="229"/>
+      <c r="Y13" s="274"/>
+      <c r="Z13" s="274"/>
       <c r="AA13" s="46"/>
       <c r="AB13" s="47"/>
       <c r="AC13" s="47"/>
@@ -29591,31 +29658,31 @@
     </row>
     <row r="14" spans="1:113" s="48" customFormat="1" ht="19" customHeight="1">
       <c r="A14" s="44"/>
-      <c r="B14" s="239"/>
-      <c r="C14" s="239"/>
+      <c r="B14" s="273"/>
+      <c r="C14" s="273"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
       <c r="G14" s="44"/>
-      <c r="H14" s="229"/>
-      <c r="I14" s="229"/>
+      <c r="H14" s="274"/>
+      <c r="I14" s="274"/>
       <c r="J14" s="45"/>
       <c r="K14" s="45"/>
       <c r="L14" s="45"/>
-      <c r="M14" s="229"/>
-      <c r="N14" s="229"/>
-      <c r="O14" s="229"/>
+      <c r="M14" s="274"/>
+      <c r="N14" s="274"/>
+      <c r="O14" s="274"/>
       <c r="P14" s="45"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
-      <c r="S14" s="229"/>
-      <c r="T14" s="229"/>
-      <c r="U14" s="229"/>
+      <c r="S14" s="274"/>
+      <c r="T14" s="274"/>
+      <c r="U14" s="274"/>
       <c r="V14" s="46"/>
       <c r="W14" s="46"/>
       <c r="X14" s="46"/>
-      <c r="Y14" s="229"/>
-      <c r="Z14" s="229"/>
+      <c r="Y14" s="274"/>
+      <c r="Z14" s="274"/>
       <c r="AA14" s="46"/>
       <c r="AB14" s="47"/>
       <c r="AC14" s="47"/>
@@ -29705,39 +29772,39 @@
     </row>
     <row r="15" spans="1:113" s="51" customFormat="1" ht="18">
       <c r="A15" s="50"/>
-      <c r="B15" s="235" t="str">
+      <c r="B15" s="284" t="str">
         <f>'∷ Settings'!M15</f>
         <v>non-salary income</v>
       </c>
-      <c r="C15" s="235"/>
+      <c r="C15" s="284"/>
       <c r="G15" s="50"/>
-      <c r="H15" s="240" t="str">
+      <c r="H15" s="275" t="str">
         <f>'∷ Settings'!M17</f>
         <v>emergency savings</v>
       </c>
-      <c r="I15" s="240"/>
-      <c r="M15" s="240" t="str">
+      <c r="I15" s="275"/>
+      <c r="M15" s="275" t="str">
         <f>'∷ Settings'!M19</f>
         <v>bond deposit</v>
       </c>
-      <c r="N15" s="240"/>
-      <c r="O15" s="240"/>
-      <c r="Q15" s="240"/>
-      <c r="R15" s="240"/>
-      <c r="S15" s="240" t="str">
+      <c r="N15" s="275"/>
+      <c r="O15" s="275"/>
+      <c r="Q15" s="275"/>
+      <c r="R15" s="275"/>
+      <c r="S15" s="275" t="str">
         <f>'∷ Settings'!M21</f>
         <v>annual travel allowance</v>
       </c>
-      <c r="T15" s="240"/>
-      <c r="U15" s="240"/>
+      <c r="T15" s="275"/>
+      <c r="U15" s="275"/>
       <c r="V15" s="52"/>
       <c r="W15" s="52"/>
       <c r="X15" s="52"/>
-      <c r="Y15" s="240" t="str">
+      <c r="Y15" s="275" t="str">
         <f>'∷ Settings'!M23</f>
         <v>average asset age</v>
       </c>
-      <c r="Z15" s="240"/>
+      <c r="Z15" s="275"/>
       <c r="AA15" s="52"/>
       <c r="AB15" s="52"/>
       <c r="AC15" s="52"/>
@@ -29827,44 +29894,44 @@
     </row>
     <row r="16" spans="1:113" s="55" customFormat="1" ht="19" customHeight="1">
       <c r="A16" s="54"/>
-      <c r="B16" s="234">
+      <c r="B16" s="283">
         <f ca="1">'∷ Settings'!Q15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="234"/>
-      <c r="D16" s="234"/>
+      <c r="C16" s="283"/>
+      <c r="D16" s="283"/>
       <c r="G16" s="56"/>
-      <c r="H16" s="243">
+      <c r="H16" s="271">
         <f>'∷ Settings'!Q17</f>
         <v>-30000</v>
       </c>
-      <c r="I16" s="243"/>
-      <c r="J16" s="218"/>
-      <c r="K16" s="218"/>
-      <c r="L16" s="218"/>
-      <c r="M16" s="243">
+      <c r="I16" s="271"/>
+      <c r="J16" s="217"/>
+      <c r="K16" s="217"/>
+      <c r="L16" s="217"/>
+      <c r="M16" s="271">
         <f>'∷ Settings'!Q19</f>
         <v>-400000</v>
       </c>
-      <c r="N16" s="243"/>
-      <c r="O16" s="243"/>
-      <c r="P16" s="218"/>
-      <c r="Q16" s="242"/>
-      <c r="R16" s="242"/>
-      <c r="S16" s="243">
+      <c r="N16" s="271"/>
+      <c r="O16" s="271"/>
+      <c r="P16" s="217"/>
+      <c r="Q16" s="270"/>
+      <c r="R16" s="270"/>
+      <c r="S16" s="271">
         <f>'∷ Settings'!Q21</f>
         <v>-25000</v>
       </c>
-      <c r="T16" s="243"/>
-      <c r="U16" s="243"/>
+      <c r="T16" s="271"/>
+      <c r="U16" s="271"/>
       <c r="V16" s="57"/>
       <c r="W16" s="57"/>
       <c r="X16" s="57"/>
-      <c r="Y16" s="241">
+      <c r="Y16" s="269">
         <f ca="1">'∷ Settings'!Q23</f>
-        <v>15.841095890410958</v>
-      </c>
-      <c r="Z16" s="241"/>
+        <v>15.846575342465753</v>
+      </c>
+      <c r="Z16" s="269"/>
       <c r="AA16" s="57"/>
       <c r="AB16" s="57"/>
       <c r="AC16" s="57"/>
@@ -29954,29 +30021,29 @@
     </row>
     <row r="17" spans="1:113" s="55" customFormat="1" ht="19" customHeight="1">
       <c r="A17" s="54"/>
-      <c r="B17" s="234"/>
-      <c r="C17" s="234"/>
-      <c r="D17" s="234"/>
+      <c r="B17" s="283"/>
+      <c r="C17" s="283"/>
+      <c r="D17" s="283"/>
       <c r="G17" s="56"/>
-      <c r="H17" s="243"/>
-      <c r="I17" s="243"/>
-      <c r="J17" s="218"/>
-      <c r="K17" s="218"/>
-      <c r="L17" s="218"/>
-      <c r="M17" s="243"/>
-      <c r="N17" s="243"/>
-      <c r="O17" s="243"/>
-      <c r="P17" s="218"/>
-      <c r="Q17" s="242"/>
-      <c r="R17" s="242"/>
-      <c r="S17" s="243"/>
-      <c r="T17" s="243"/>
-      <c r="U17" s="243"/>
+      <c r="H17" s="271"/>
+      <c r="I17" s="271"/>
+      <c r="J17" s="217"/>
+      <c r="K17" s="217"/>
+      <c r="L17" s="217"/>
+      <c r="M17" s="271"/>
+      <c r="N17" s="271"/>
+      <c r="O17" s="271"/>
+      <c r="P17" s="217"/>
+      <c r="Q17" s="270"/>
+      <c r="R17" s="270"/>
+      <c r="S17" s="271"/>
+      <c r="T17" s="271"/>
+      <c r="U17" s="271"/>
       <c r="V17" s="57"/>
       <c r="W17" s="57"/>
       <c r="X17" s="57"/>
-      <c r="Y17" s="241"/>
-      <c r="Z17" s="241"/>
+      <c r="Y17" s="269"/>
+      <c r="Z17" s="269"/>
       <c r="AA17" s="57"/>
       <c r="AB17" s="57"/>
       <c r="AC17" s="57"/>
@@ -30066,29 +30133,29 @@
     </row>
     <row r="18" spans="1:113" s="55" customFormat="1" ht="19" customHeight="1">
       <c r="A18" s="54"/>
-      <c r="B18" s="234"/>
-      <c r="C18" s="234"/>
-      <c r="D18" s="234"/>
+      <c r="B18" s="283"/>
+      <c r="C18" s="283"/>
+      <c r="D18" s="283"/>
       <c r="G18" s="56"/>
-      <c r="H18" s="243"/>
-      <c r="I18" s="243"/>
-      <c r="J18" s="218"/>
-      <c r="K18" s="218"/>
-      <c r="L18" s="218"/>
-      <c r="M18" s="243"/>
-      <c r="N18" s="243"/>
-      <c r="O18" s="243"/>
-      <c r="P18" s="218"/>
-      <c r="Q18" s="242"/>
-      <c r="R18" s="242"/>
-      <c r="S18" s="243"/>
-      <c r="T18" s="243"/>
-      <c r="U18" s="243"/>
+      <c r="H18" s="271"/>
+      <c r="I18" s="271"/>
+      <c r="J18" s="217"/>
+      <c r="K18" s="217"/>
+      <c r="L18" s="217"/>
+      <c r="M18" s="271"/>
+      <c r="N18" s="271"/>
+      <c r="O18" s="271"/>
+      <c r="P18" s="217"/>
+      <c r="Q18" s="270"/>
+      <c r="R18" s="270"/>
+      <c r="S18" s="271"/>
+      <c r="T18" s="271"/>
+      <c r="U18" s="271"/>
       <c r="V18" s="57"/>
       <c r="W18" s="57"/>
       <c r="X18" s="57"/>
-      <c r="Y18" s="241"/>
-      <c r="Z18" s="241"/>
+      <c r="Y18" s="269"/>
+      <c r="Z18" s="269"/>
       <c r="AA18" s="57"/>
       <c r="AB18" s="57"/>
       <c r="AC18" s="57"/>
@@ -30205,141 +30272,141 @@
         <f ca="1">Data!Z24-F22</f>
         <v>0</v>
       </c>
-      <c r="I21" s="227">
+      <c r="I21" s="281">
         <f ca="1">Data!Z14-I22</f>
         <v>0</v>
       </c>
-      <c r="J21" s="227"/>
-      <c r="L21" s="228">
+      <c r="J21" s="281"/>
+      <c r="L21" s="282">
         <f ca="1">Data!Z18-L22</f>
         <v>0</v>
       </c>
-      <c r="M21" s="228"/>
-      <c r="O21" s="228">
+      <c r="M21" s="282"/>
+      <c r="O21" s="282">
         <f ca="1">Data!Z26-O22</f>
         <v>0</v>
       </c>
-      <c r="P21" s="228"/>
-      <c r="R21" s="228">
+      <c r="P21" s="282"/>
+      <c r="R21" s="282">
         <f ca="1">Data!Z31-R22</f>
         <v>0</v>
       </c>
-      <c r="S21" s="228"/>
-      <c r="U21" s="228">
+      <c r="S21" s="282"/>
+      <c r="U21" s="282">
         <f ca="1">Data!Z13-U22</f>
         <v>0</v>
       </c>
-      <c r="V21" s="228"/>
-      <c r="X21" s="227">
+      <c r="V21" s="282"/>
+      <c r="X21" s="281">
         <f ca="1">Data!Z27-X22</f>
         <v>0</v>
       </c>
-      <c r="Y21" s="227"/>
-      <c r="AA21" s="227">
+      <c r="Y21" s="281"/>
+      <c r="AA21" s="281">
         <f ca="1">Data!Z11-AA22</f>
         <v>0</v>
       </c>
-      <c r="AB21" s="227"/>
+      <c r="AB21" s="281"/>
     </row>
     <row r="22" spans="1:113" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
-      <c r="C22" s="225">
+      <c r="C22" s="280">
         <f ca="1">Data!U17</f>
         <v>0</v>
       </c>
       <c r="D22" s="39"/>
       <c r="E22" s="39"/>
-      <c r="F22" s="225">
+      <c r="F22" s="280">
         <f ca="1">Data!U24</f>
         <v>0</v>
       </c>
       <c r="G22" s="39"/>
       <c r="H22" s="39"/>
-      <c r="I22" s="225">
+      <c r="I22" s="280">
         <f ca="1">Data!U14</f>
         <v>0</v>
       </c>
-      <c r="J22" s="225"/>
+      <c r="J22" s="280"/>
       <c r="K22" s="39"/>
-      <c r="L22" s="225">
+      <c r="L22" s="280">
         <f ca="1">Data!U18</f>
         <v>0</v>
       </c>
-      <c r="M22" s="225"/>
+      <c r="M22" s="280"/>
       <c r="N22" s="39"/>
-      <c r="O22" s="225">
+      <c r="O22" s="280">
         <f ca="1">Data!U26</f>
         <v>0</v>
       </c>
-      <c r="P22" s="225"/>
+      <c r="P22" s="280"/>
       <c r="Q22" s="39"/>
-      <c r="R22" s="237">
+      <c r="R22" s="286">
         <f ca="1">Data!U31</f>
         <v>0</v>
       </c>
-      <c r="S22" s="237"/>
+      <c r="S22" s="286"/>
       <c r="T22" s="39"/>
-      <c r="U22" s="225">
+      <c r="U22" s="280">
         <f ca="1">Data!U13</f>
         <v>0</v>
       </c>
-      <c r="V22" s="225"/>
+      <c r="V22" s="280"/>
       <c r="W22" s="39"/>
-      <c r="X22" s="225">
+      <c r="X22" s="280">
         <f ca="1">Data!U27</f>
         <v>0</v>
       </c>
-      <c r="Y22" s="225"/>
+      <c r="Y22" s="280"/>
       <c r="Z22" s="39"/>
-      <c r="AA22" s="225">
+      <c r="AA22" s="280">
         <f ca="1">Data!U11</f>
         <v>0</v>
       </c>
-      <c r="AB22" s="225"/>
+      <c r="AB22" s="280"/>
       <c r="AC22" s="39"/>
     </row>
     <row r="23" spans="1:113" s="38" customFormat="1" ht="18" customHeight="1">
-      <c r="C23" s="225"/>
-      <c r="F23" s="225"/>
-      <c r="I23" s="225"/>
-      <c r="J23" s="225"/>
-      <c r="L23" s="225"/>
-      <c r="M23" s="225"/>
-      <c r="O23" s="225"/>
-      <c r="P23" s="225"/>
-      <c r="R23" s="237"/>
-      <c r="S23" s="237"/>
-      <c r="U23" s="225"/>
-      <c r="V23" s="225"/>
-      <c r="X23" s="225"/>
-      <c r="Y23" s="225"/>
-      <c r="AA23" s="225"/>
-      <c r="AB23" s="225"/>
+      <c r="C23" s="280"/>
+      <c r="F23" s="280"/>
+      <c r="I23" s="280"/>
+      <c r="J23" s="280"/>
+      <c r="L23" s="280"/>
+      <c r="M23" s="280"/>
+      <c r="O23" s="280"/>
+      <c r="P23" s="280"/>
+      <c r="R23" s="286"/>
+      <c r="S23" s="286"/>
+      <c r="U23" s="280"/>
+      <c r="V23" s="280"/>
+      <c r="X23" s="280"/>
+      <c r="Y23" s="280"/>
+      <c r="AA23" s="280"/>
+      <c r="AB23" s="280"/>
     </row>
     <row r="24" spans="1:113" s="38" customFormat="1" ht="18" customHeight="1">
-      <c r="C24" s="225"/>
-      <c r="F24" s="225"/>
-      <c r="I24" s="225"/>
-      <c r="J24" s="225"/>
-      <c r="L24" s="225"/>
-      <c r="M24" s="225"/>
-      <c r="O24" s="225"/>
-      <c r="P24" s="225"/>
-      <c r="R24" s="237"/>
-      <c r="S24" s="237"/>
-      <c r="U24" s="226" t="s">
+      <c r="C24" s="280"/>
+      <c r="F24" s="280"/>
+      <c r="I24" s="280"/>
+      <c r="J24" s="280"/>
+      <c r="L24" s="280"/>
+      <c r="M24" s="280"/>
+      <c r="O24" s="280"/>
+      <c r="P24" s="280"/>
+      <c r="R24" s="286"/>
+      <c r="S24" s="286"/>
+      <c r="U24" s="288" t="s">
         <v>126</v>
       </c>
-      <c r="V24" s="226"/>
-      <c r="X24" s="226" t="s">
+      <c r="V24" s="288"/>
+      <c r="X24" s="288" t="s">
         <v>127</v>
       </c>
-      <c r="Y24" s="226"/>
-      <c r="AA24" s="226" t="s">
+      <c r="Y24" s="288"/>
+      <c r="AA24" s="288" t="s">
         <v>127</v>
       </c>
-      <c r="AB24" s="226"/>
+      <c r="AB24" s="288"/>
     </row>
     <row r="25" spans="1:113" s="38" customFormat="1"/>
     <row r="26" spans="1:113" s="38" customFormat="1"/>
@@ -30349,19 +30416,19 @@
     <row r="30" spans="1:113"/>
     <row r="31" spans="1:113"/>
     <row r="32" spans="1:113">
-      <c r="N32" s="223"/>
-      <c r="O32" s="224"/>
+      <c r="N32" s="251"/>
+      <c r="O32" s="252"/>
     </row>
     <row r="33" spans="14:30"/>
     <row r="34" spans="14:30">
-      <c r="N34" s="223" t="s">
+      <c r="N34" s="251" t="s">
         <v>68</v>
       </c>
-      <c r="O34" s="224"/>
-      <c r="Y34" s="223" t="s">
+      <c r="O34" s="252"/>
+      <c r="Y34" s="251" t="s">
         <v>134</v>
       </c>
-      <c r="Z34" s="224"/>
+      <c r="Z34" s="252"/>
     </row>
     <row r="35" spans="14:30" s="7" customFormat="1">
       <c r="N35" s="80"/>
@@ -30500,17 +30567,17 @@
     </row>
     <row r="68" spans="2:27"/>
     <row r="69" spans="2:27">
-      <c r="N69" s="223"/>
-      <c r="O69" s="224"/>
+      <c r="N69" s="251"/>
+      <c r="O69" s="252"/>
     </row>
     <row r="70" spans="2:27"/>
     <row r="71" spans="2:27"/>
     <row r="72" spans="2:27"/>
     <row r="73" spans="2:27">
-      <c r="N73" s="223" t="s">
+      <c r="N73" s="251" t="s">
         <v>136</v>
       </c>
-      <c r="O73" s="224"/>
+      <c r="O73" s="252"/>
     </row>
     <row r="74" spans="2:27"/>
     <row r="75" spans="2:27"/>
@@ -30575,43 +30642,43 @@
       <c r="AG108" s="12"/>
     </row>
     <row r="109" spans="2:41">
-      <c r="B109" s="244" t="s">
+      <c r="B109" s="265" t="s">
         <v>147</v>
       </c>
-      <c r="C109" s="245"/>
-      <c r="E109" s="244" t="s">
+      <c r="C109" s="266"/>
+      <c r="E109" s="265" t="s">
         <v>43</v>
       </c>
-      <c r="F109" s="245"/>
-      <c r="H109" s="244" t="s">
+      <c r="F109" s="266"/>
+      <c r="H109" s="265" t="s">
         <v>76</v>
       </c>
-      <c r="I109" s="245"/>
-      <c r="K109" s="244" t="s">
+      <c r="I109" s="266"/>
+      <c r="K109" s="265" t="s">
         <v>143</v>
       </c>
-      <c r="L109" s="245"/>
-      <c r="N109" s="244" t="s">
+      <c r="L109" s="266"/>
+      <c r="N109" s="265" t="s">
         <v>5</v>
       </c>
-      <c r="O109" s="245"/>
+      <c r="O109" s="266"/>
       <c r="P109" s="66"/>
-      <c r="Q109" s="244" t="s">
+      <c r="Q109" s="265" t="s">
         <v>40</v>
       </c>
-      <c r="R109" s="245"/>
-      <c r="T109" s="244" t="s">
+      <c r="R109" s="266"/>
+      <c r="T109" s="265" t="s">
         <v>137</v>
       </c>
-      <c r="U109" s="245"/>
-      <c r="W109" s="244" t="s">
+      <c r="U109" s="266"/>
+      <c r="W109" s="265" t="s">
         <v>24</v>
       </c>
-      <c r="X109" s="245"/>
-      <c r="Z109" s="244" t="s">
+      <c r="X109" s="266"/>
+      <c r="Z109" s="265" t="s">
         <v>138</v>
       </c>
-      <c r="AA109" s="245"/>
+      <c r="AA109" s="266"/>
       <c r="AB109" s="10"/>
       <c r="AC109" s="10"/>
       <c r="AD109" s="10"/>
@@ -30620,157 +30687,157 @@
       <c r="AO109" s="12"/>
     </row>
     <row r="110" spans="2:41" s="67" customFormat="1" ht="23">
-      <c r="B110" s="248" t="str" cm="1">
+      <c r="B110" s="253" t="str" cm="1">
         <f t="array" ref="B110">IFERROR(GETPIVOTDATA("OUTFLOW",'Categories | Subcategories'!$A$1)/(_xlfn.DAYS(LOOKUP(2,1/('Categories | Subcategories'!G:G&lt;&gt;""),'Categories | Subcategories'!G:G),'Categories | Subcategories'!G4)+2),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="C110" s="249"/>
-      <c r="E110" s="248" t="str" cm="1">
+      <c r="C110" s="254"/>
+      <c r="E110" s="253" t="str" cm="1">
         <f t="array" ref="E110">IFERROR(GETPIVOTDATA("OUTFLOW",'Categories | Subcategories'!$A$1,"CATEGORY","Food")/((_xlfn.DAYS(LOOKUP(2,1/('Categories | Subcategories'!G:G&lt;&gt;""),'Categories | Subcategories'!G:G),'Categories | Subcategories'!G4)+2)*4),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="F110" s="249"/>
+      <c r="F110" s="254"/>
       <c r="G110" s="74"/>
-      <c r="H110" s="248" t="str" cm="1">
+      <c r="H110" s="253" t="str" cm="1">
         <f t="array" ref="H110">IFERROR(SUM(SUMIFS('Categories | Subcategories'!L:L,'Categories | Subcategories'!K:K,{"Beef","Chicken","Fish","Pork"}))/(SUM(SUMIFS('Categories | Subcategories'!P:P,'Categories | Subcategories'!O:O,{"Beef","Chicken","Fish","Pork"}))/1000+SUM(SUMIFS('Categories | Subcategories'!R:R,'Categories | Subcategories'!O:O,{"Beef","Chicken","Fish","Pork"}))),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="I110" s="249"/>
+      <c r="I110" s="254"/>
       <c r="J110" s="74"/>
-      <c r="K110" s="248" t="str" cm="1">
+      <c r="K110" s="253" t="str" cm="1">
         <f t="array" ref="K110">IFERROR(SUM(SUMIFS('Categories | Subcategories'!L:L,'Categories | Subcategories'!K:K,{"Fruit","Vegetables"}))/((GETPIVOTDATA("QUANTITY",'Categories | Subcategories'!$O$3,"UNIT","g","SUB-CATEGORY","Fruit")+GETPIVOTDATA("QUANTITY",'Categories | Subcategories'!$O$3,"UNIT","g","SUB-CATEGORY","Vegetables"))/1000+(GETPIVOTDATA("QUANTITY",'Categories | Subcategories'!$O$3,"UNIT","kg","SUB-CATEGORY","Fruit")+GETPIVOTDATA("QUANTITY",'Categories | Subcategories'!$O$3,"UNIT","kg","SUB-CATEGORY","Vegetables"))),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="L110" s="249"/>
+      <c r="L110" s="254"/>
       <c r="M110" s="74"/>
-      <c r="N110" s="248" t="str">
+      <c r="N110" s="253" t="str">
         <f>IFERROR(SUMIF('Categories | Subcategories'!K:K,"Data",'Categories | Subcategories'!L:L)/GETPIVOTDATA("QUANTITY",'Categories | Subcategories'!$O$3,"SUB-CATEGORY","Data"),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="O110" s="249"/>
+      <c r="O110" s="254"/>
       <c r="P110" s="74"/>
-      <c r="Q110" s="248" t="str">
+      <c r="Q110" s="253" t="str">
         <f>IFERROR(SUMIF('Categories | Subcategories'!K:K,"Utilities",'Categories | Subcategories'!L:L)/GETPIVOTDATA("QUANTITY",'Categories | Subcategories'!$O$3,"SUB-CATEGORY","Utilities"),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="R110" s="249"/>
-      <c r="T110" s="248" cm="1">
+      <c r="R110" s="254"/>
+      <c r="T110" s="253" cm="1">
         <f t="array" ref="T110">SUM(SUMIFS('Categories | Subcategories'!B:B,'Categories | Subcategories'!A:A,{"Fees","Food","Health","Property","Tax"}))</f>
         <v>0</v>
       </c>
-      <c r="U110" s="249"/>
-      <c r="W110" s="248" cm="1">
+      <c r="U110" s="254"/>
+      <c r="W110" s="253" cm="1">
         <f t="array" ref="W110">_xlfn.IFNA(MAX(LOOKUP(2,1/('Categories | Subcategories'!AE:AE&lt;&gt;""),'Categories | Subcategories'!AE:AE),0),0)</f>
         <v>0</v>
       </c>
-      <c r="X110" s="249"/>
-      <c r="Z110" s="248" t="e" cm="1">
-        <f t="array" ref="Z110">LOOKUP(2,1/('Categories | Subcategories'!B:B&lt;&gt;""),'Categories | Subcategories'!B:B)-T110</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA110" s="249"/>
+      <c r="X110" s="254"/>
+      <c r="Z110" s="253" cm="1">
+        <f t="array" ref="Z110">IFERROR(LOOKUP(2,1/('Categories | Subcategories'!B:B&lt;&gt;""),'Categories | Subcategories'!B:B)-T110,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA110" s="254"/>
       <c r="AM110" s="68"/>
       <c r="AN110" s="68"/>
       <c r="AO110" s="69"/>
     </row>
     <row r="111" spans="2:41" s="67" customFormat="1" ht="23">
-      <c r="B111" s="250"/>
-      <c r="C111" s="251"/>
-      <c r="E111" s="250"/>
-      <c r="F111" s="251"/>
+      <c r="B111" s="255"/>
+      <c r="C111" s="256"/>
+      <c r="E111" s="255"/>
+      <c r="F111" s="256"/>
       <c r="G111" s="75"/>
-      <c r="H111" s="250"/>
-      <c r="I111" s="251"/>
+      <c r="H111" s="255"/>
+      <c r="I111" s="256"/>
       <c r="J111" s="75"/>
-      <c r="K111" s="250"/>
-      <c r="L111" s="251"/>
+      <c r="K111" s="255"/>
+      <c r="L111" s="256"/>
       <c r="M111" s="77"/>
-      <c r="N111" s="250"/>
-      <c r="O111" s="251"/>
+      <c r="N111" s="255"/>
+      <c r="O111" s="256"/>
       <c r="P111" s="75"/>
-      <c r="Q111" s="250"/>
-      <c r="R111" s="251"/>
-      <c r="T111" s="250"/>
-      <c r="U111" s="251"/>
-      <c r="W111" s="250"/>
-      <c r="X111" s="251"/>
-      <c r="Z111" s="250"/>
-      <c r="AA111" s="251"/>
+      <c r="Q111" s="255"/>
+      <c r="R111" s="256"/>
+      <c r="T111" s="255"/>
+      <c r="U111" s="256"/>
+      <c r="W111" s="255"/>
+      <c r="X111" s="256"/>
+      <c r="Z111" s="255"/>
+      <c r="AA111" s="256"/>
       <c r="AM111" s="68"/>
       <c r="AN111" s="68"/>
       <c r="AO111" s="69"/>
     </row>
     <row r="112" spans="2:41" s="67" customFormat="1" ht="23">
-      <c r="B112" s="252"/>
-      <c r="C112" s="253"/>
-      <c r="E112" s="252"/>
-      <c r="F112" s="253"/>
+      <c r="B112" s="257"/>
+      <c r="C112" s="258"/>
+      <c r="E112" s="257"/>
+      <c r="F112" s="258"/>
       <c r="G112" s="76"/>
-      <c r="H112" s="252"/>
-      <c r="I112" s="253"/>
+      <c r="H112" s="257"/>
+      <c r="I112" s="258"/>
       <c r="J112" s="76"/>
-      <c r="K112" s="252"/>
-      <c r="L112" s="253"/>
+      <c r="K112" s="257"/>
+      <c r="L112" s="258"/>
       <c r="M112" s="76"/>
-      <c r="N112" s="252"/>
-      <c r="O112" s="253"/>
+      <c r="N112" s="257"/>
+      <c r="O112" s="258"/>
       <c r="P112" s="76"/>
-      <c r="Q112" s="252"/>
-      <c r="R112" s="253"/>
-      <c r="T112" s="252"/>
-      <c r="U112" s="253"/>
-      <c r="W112" s="252"/>
-      <c r="X112" s="253"/>
-      <c r="Z112" s="252"/>
-      <c r="AA112" s="253"/>
+      <c r="Q112" s="257"/>
+      <c r="R112" s="258"/>
+      <c r="T112" s="257"/>
+      <c r="U112" s="258"/>
+      <c r="W112" s="257"/>
+      <c r="X112" s="258"/>
+      <c r="Z112" s="257"/>
+      <c r="AA112" s="258"/>
       <c r="AM112" s="68"/>
       <c r="AN112" s="68"/>
       <c r="AO112" s="69"/>
     </row>
     <row r="113" spans="2:41" s="70" customFormat="1" ht="13">
-      <c r="B113" s="246" t="s">
+      <c r="B113" s="235" t="s">
         <v>127</v>
       </c>
-      <c r="C113" s="247"/>
-      <c r="E113" s="246" t="s">
+      <c r="C113" s="236"/>
+      <c r="E113" s="235" t="s">
         <v>126</v>
       </c>
-      <c r="F113" s="247"/>
+      <c r="F113" s="236"/>
       <c r="G113" s="73"/>
-      <c r="H113" s="246" t="s">
+      <c r="H113" s="235" t="s">
         <v>141</v>
       </c>
-      <c r="I113" s="247"/>
+      <c r="I113" s="236"/>
       <c r="J113" s="73"/>
-      <c r="K113" s="246" t="s">
+      <c r="K113" s="235" t="s">
         <v>141</v>
       </c>
-      <c r="L113" s="247"/>
+      <c r="L113" s="236"/>
       <c r="M113" s="73"/>
-      <c r="N113" s="246" t="s">
+      <c r="N113" s="235" t="s">
         <v>145</v>
       </c>
-      <c r="O113" s="247"/>
+      <c r="O113" s="236"/>
       <c r="P113" s="73"/>
-      <c r="Q113" s="246" t="s">
+      <c r="Q113" s="235" t="s">
         <v>146</v>
       </c>
-      <c r="R113" s="247"/>
-      <c r="T113" s="262" t="e" cm="1">
-        <f t="array" ref="T113">T110/(LOOKUP(2,1/('Categories | Subcategories'!$B:$B&lt;&gt;""),'Categories | Subcategories'!$B:$B)+W110)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U113" s="263"/>
-      <c r="W113" s="262" t="e" cm="1">
-        <f t="array" ref="W113">W110/(LOOKUP(2,1/('Categories | Subcategories'!$B:$B&lt;&gt;""),'Categories | Subcategories'!$B:$B)+W110)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X113" s="263"/>
-      <c r="Z113" s="262" t="e" cm="1">
-        <f t="array" ref="Z113">Z110/(LOOKUP(2,1/('Categories | Subcategories'!$B:$B&lt;&gt;""),'Categories | Subcategories'!$B:$B)+W110)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA113" s="263"/>
+      <c r="R113" s="236"/>
+      <c r="T113" s="267" t="str" cm="1">
+        <f t="array" ref="T113">IFERROR(T110/(LOOKUP(2,1/('Categories | Subcategories'!$B:$B&lt;&gt;""),'Categories | Subcategories'!$B:$B)+W110),"NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="U113" s="268"/>
+      <c r="W113" s="267" t="str" cm="1">
+        <f t="array" ref="W113">IFERROR(W110/(LOOKUP(2,1/('Categories | Subcategories'!$B:$B&lt;&gt;""),'Categories | Subcategories'!$B:$B)+W110),"NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="X113" s="268"/>
+      <c r="Z113" s="267" t="str" cm="1">
+        <f t="array" ref="Z113">IFERROR(Z110/(LOOKUP(2,1/('Categories | Subcategories'!$B:$B&lt;&gt;""),'Categories | Subcategories'!$B:$B)+W110),"NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="AA113" s="268"/>
       <c r="AM113" s="71"/>
       <c r="AN113" s="71"/>
       <c r="AO113" s="72"/>
@@ -30877,10 +30944,10 @@
     <row r="151" spans="14:15"/>
     <row r="152" spans="14:15"/>
     <row r="153" spans="14:15">
-      <c r="N153" s="223" t="s">
+      <c r="N153" s="251" t="s">
         <v>86</v>
       </c>
-      <c r="O153" s="224"/>
+      <c r="O153" s="252"/>
     </row>
     <row r="154" spans="14:15"/>
     <row r="155" spans="14:15"/>
@@ -31525,234 +31592,234 @@
       <c r="AZ194" s="30"/>
       <c r="BA194" s="30"/>
     </row>
-    <row r="195" spans="2:53" s="150" customFormat="1" ht="23" customHeight="1">
-      <c r="B195" s="256" t="str" cm="1">
+    <row r="195" spans="2:53" s="149" customFormat="1" ht="23" customHeight="1">
+      <c r="B195" s="237" t="str" cm="1">
         <f t="array" ref="B195">IFERROR(SUM(SUMIFS(Investment!AC:AC,Investment!Z:Z,{"Allan Gray Bond","Allan Gray Stable","FNB Deposit","ABSA 12-Month","Nedgroup Core Guarded","Stanlib Income"}))/LOOKUP(2,1/(Investment!G:G&lt;&gt;""),Investment!G:G),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="C195" s="257"/>
-      <c r="E195" s="256" t="str" cm="1">
+      <c r="C195" s="238"/>
+      <c r="E195" s="237" t="str" cm="1">
         <f t="array" ref="E195">IFERROR(SUMIF(Investment!Z:Z,"402 Parkwood",Investment!AC:AC)/LOOKUP(2,1/(Investment!G:G&lt;&gt;""),Investment!G:G),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="F195" s="257"/>
-      <c r="H195" s="256" t="str" cm="1">
+      <c r="F195" s="238"/>
+      <c r="H195" s="237" t="str" cm="1">
         <f t="array" ref="H195">IFERROR(SUM(SUMIFS(Investment!AC:AC,Investment!Z:Z,{"Nedgroup Property","Prudential Property"}))/LOOKUP(2,1/(Investment!G:G&lt;&gt;""),Investment!G:G),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="I195" s="257"/>
-      <c r="K195" s="256" t="str" cm="1">
+      <c r="I195" s="238"/>
+      <c r="K195" s="237" t="str" cm="1">
         <f t="array" ref="K195">IFERROR(SUM(SUMIFS(Investment!AC:AC,Investment!Z:Z,{"Allan Gray Equity","Allan Gray-Orbis Global Equity","Coronation Emerging Markets","Coronation Global Managed","Coronation Resources","Coronation Smaller Companies","Coronation Top 20","Nedgroup Global Equity","Satrix World Equity","Stanlib High Equity Fund Of Funds"}))/LOOKUP(2,1/(Investment!G:G&lt;&gt;""),Investment!G:G),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="L195" s="257"/>
-      <c r="N195" s="256" t="str" cm="1">
+      <c r="L195" s="238"/>
+      <c r="N195" s="237" t="str" cm="1">
         <f t="array" ref="N195">IFERROR(SUM(SUMIFS(Investment!AC:AC,Investment!Z:Z,{"Allan Gray Proprietary","Yoco Technologies"}))/LOOKUP(2,1/(Investment!G:G&lt;&gt;""),Investment!G:G),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="O195" s="257"/>
-      <c r="Q195" s="264" t="str" cm="1">
+      <c r="O195" s="238"/>
+      <c r="Q195" s="259" t="str" cm="1">
         <f t="array" ref="Q195">IFERROR(SUM(SUMIFS(Investment!AC:AC,Investment!Z:Z,{"Allan Gray-Orbis Global Equity","Coronation Emerging Markets","Coronation Global Managed","Nedgroup Global Equity","Satrix World Equity"}))/LOOKUP(2,1/(Investment!G:G&lt;&gt;""),Investment!G:G),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="R195" s="265"/>
-      <c r="T195" s="248">
+      <c r="R195" s="260"/>
+      <c r="T195" s="253">
         <f>SUMIF(Investment!A:A,"Management Fee",Investment!B:B)</f>
         <v>0</v>
       </c>
-      <c r="U195" s="249"/>
-      <c r="W195" s="256" t="str" cm="1">
+      <c r="U195" s="254"/>
+      <c r="W195" s="237" t="str" cm="1">
         <f t="array" ref="W195">IFERROR(Z195/LOOKUP(2,1/(Investment!G:G&lt;&gt;""),Investment!G:G),"NA")</f>
         <v>NA</v>
       </c>
-      <c r="X195" s="257"/>
-      <c r="Z195" s="248">
+      <c r="X195" s="238"/>
+      <c r="Z195" s="253">
         <f>SUMIF(Investment!A:A,"Growth",Investment!C:C)-SUMIF(Investment!A:A,"Loss",Investment!B:B)</f>
         <v>0</v>
       </c>
-      <c r="AA195" s="249"/>
-      <c r="AB195" s="151"/>
-      <c r="AC195" s="152"/>
-      <c r="AD195" s="153"/>
-      <c r="AE195" s="153"/>
-      <c r="AF195" s="153"/>
-      <c r="AG195" s="153"/>
-      <c r="AH195" s="153"/>
-      <c r="AI195" s="153"/>
-      <c r="AJ195" s="153"/>
-      <c r="AK195" s="153"/>
-      <c r="AL195" s="153"/>
-      <c r="AM195" s="153"/>
-      <c r="AN195" s="153"/>
-      <c r="AO195" s="153"/>
-      <c r="AP195" s="153"/>
-      <c r="AQ195" s="154"/>
-      <c r="AR195" s="153"/>
-      <c r="AS195" s="153"/>
-      <c r="AT195" s="153"/>
-      <c r="AU195" s="153"/>
-      <c r="AV195" s="153"/>
-      <c r="AW195" s="153"/>
-      <c r="AX195" s="153"/>
-      <c r="AY195" s="153"/>
-      <c r="AZ195" s="153"/>
-      <c r="BA195" s="153"/>
-    </row>
-    <row r="196" spans="2:53" s="150" customFormat="1" ht="23" customHeight="1">
-      <c r="B196" s="258"/>
-      <c r="C196" s="259"/>
-      <c r="E196" s="258"/>
-      <c r="F196" s="259"/>
-      <c r="H196" s="258"/>
-      <c r="I196" s="259"/>
-      <c r="K196" s="258"/>
-      <c r="L196" s="259"/>
-      <c r="N196" s="258"/>
-      <c r="O196" s="259"/>
-      <c r="Q196" s="266"/>
-      <c r="R196" s="267"/>
-      <c r="T196" s="250"/>
-      <c r="U196" s="251"/>
-      <c r="W196" s="258"/>
-      <c r="X196" s="259"/>
-      <c r="Z196" s="250"/>
-      <c r="AA196" s="251"/>
-      <c r="AB196" s="151"/>
-      <c r="AC196" s="152"/>
-      <c r="AD196" s="153"/>
-      <c r="AE196" s="153"/>
-      <c r="AF196" s="153"/>
-      <c r="AG196" s="153"/>
-      <c r="AH196" s="153"/>
-      <c r="AI196" s="153"/>
-      <c r="AJ196" s="153"/>
-      <c r="AK196" s="153"/>
-      <c r="AL196" s="153"/>
-      <c r="AM196" s="153"/>
-      <c r="AN196" s="153"/>
-      <c r="AO196" s="153"/>
-      <c r="AP196" s="153"/>
-      <c r="AQ196" s="154"/>
-      <c r="AR196" s="153"/>
-      <c r="AS196" s="153"/>
-      <c r="AT196" s="153"/>
-      <c r="AU196" s="153"/>
-      <c r="AV196" s="153"/>
-      <c r="AW196" s="153"/>
-      <c r="AX196" s="153"/>
-      <c r="AY196" s="153"/>
-      <c r="AZ196" s="153"/>
-      <c r="BA196" s="153"/>
-    </row>
-    <row r="197" spans="2:53" s="150" customFormat="1" ht="23" customHeight="1">
-      <c r="B197" s="260"/>
-      <c r="C197" s="261"/>
-      <c r="E197" s="260"/>
-      <c r="F197" s="261"/>
-      <c r="H197" s="260"/>
-      <c r="I197" s="261"/>
-      <c r="K197" s="260"/>
-      <c r="L197" s="261"/>
-      <c r="N197" s="260"/>
-      <c r="O197" s="261"/>
-      <c r="Q197" s="268"/>
-      <c r="R197" s="269"/>
-      <c r="T197" s="252"/>
-      <c r="U197" s="253"/>
-      <c r="W197" s="260"/>
-      <c r="X197" s="261"/>
-      <c r="Z197" s="252"/>
-      <c r="AA197" s="253"/>
-      <c r="AB197" s="151"/>
-      <c r="AC197" s="152"/>
-      <c r="AD197" s="153"/>
-      <c r="AE197" s="153"/>
-      <c r="AF197" s="153"/>
-      <c r="AG197" s="153"/>
-      <c r="AH197" s="153"/>
-      <c r="AI197" s="153"/>
-      <c r="AJ197" s="153"/>
-      <c r="AK197" s="153"/>
-      <c r="AL197" s="153"/>
-      <c r="AM197" s="153"/>
-      <c r="AN197" s="153"/>
-      <c r="AO197" s="153"/>
-      <c r="AP197" s="153"/>
-      <c r="AQ197" s="154"/>
-      <c r="AR197" s="153"/>
-      <c r="AS197" s="153"/>
-      <c r="AT197" s="153"/>
-      <c r="AU197" s="153"/>
-      <c r="AV197" s="153"/>
-      <c r="AW197" s="153"/>
-      <c r="AX197" s="153"/>
-      <c r="AY197" s="153"/>
-      <c r="AZ197" s="153"/>
-      <c r="BA197" s="153"/>
-    </row>
-    <row r="198" spans="2:53" s="145" customFormat="1" ht="13">
-      <c r="B198" s="254" t="s">
+      <c r="AA195" s="254"/>
+      <c r="AB195" s="150"/>
+      <c r="AC195" s="151"/>
+      <c r="AD195" s="152"/>
+      <c r="AE195" s="152"/>
+      <c r="AF195" s="152"/>
+      <c r="AG195" s="152"/>
+      <c r="AH195" s="152"/>
+      <c r="AI195" s="152"/>
+      <c r="AJ195" s="152"/>
+      <c r="AK195" s="152"/>
+      <c r="AL195" s="152"/>
+      <c r="AM195" s="152"/>
+      <c r="AN195" s="152"/>
+      <c r="AO195" s="152"/>
+      <c r="AP195" s="152"/>
+      <c r="AQ195" s="153"/>
+      <c r="AR195" s="152"/>
+      <c r="AS195" s="152"/>
+      <c r="AT195" s="152"/>
+      <c r="AU195" s="152"/>
+      <c r="AV195" s="152"/>
+      <c r="AW195" s="152"/>
+      <c r="AX195" s="152"/>
+      <c r="AY195" s="152"/>
+      <c r="AZ195" s="152"/>
+      <c r="BA195" s="152"/>
+    </row>
+    <row r="196" spans="2:53" s="149" customFormat="1" ht="23" customHeight="1">
+      <c r="B196" s="239"/>
+      <c r="C196" s="240"/>
+      <c r="E196" s="239"/>
+      <c r="F196" s="240"/>
+      <c r="H196" s="239"/>
+      <c r="I196" s="240"/>
+      <c r="K196" s="239"/>
+      <c r="L196" s="240"/>
+      <c r="N196" s="239"/>
+      <c r="O196" s="240"/>
+      <c r="Q196" s="261"/>
+      <c r="R196" s="262"/>
+      <c r="T196" s="255"/>
+      <c r="U196" s="256"/>
+      <c r="W196" s="239"/>
+      <c r="X196" s="240"/>
+      <c r="Z196" s="255"/>
+      <c r="AA196" s="256"/>
+      <c r="AB196" s="150"/>
+      <c r="AC196" s="151"/>
+      <c r="AD196" s="152"/>
+      <c r="AE196" s="152"/>
+      <c r="AF196" s="152"/>
+      <c r="AG196" s="152"/>
+      <c r="AH196" s="152"/>
+      <c r="AI196" s="152"/>
+      <c r="AJ196" s="152"/>
+      <c r="AK196" s="152"/>
+      <c r="AL196" s="152"/>
+      <c r="AM196" s="152"/>
+      <c r="AN196" s="152"/>
+      <c r="AO196" s="152"/>
+      <c r="AP196" s="152"/>
+      <c r="AQ196" s="153"/>
+      <c r="AR196" s="152"/>
+      <c r="AS196" s="152"/>
+      <c r="AT196" s="152"/>
+      <c r="AU196" s="152"/>
+      <c r="AV196" s="152"/>
+      <c r="AW196" s="152"/>
+      <c r="AX196" s="152"/>
+      <c r="AY196" s="152"/>
+      <c r="AZ196" s="152"/>
+      <c r="BA196" s="152"/>
+    </row>
+    <row r="197" spans="2:53" s="149" customFormat="1" ht="23" customHeight="1">
+      <c r="B197" s="241"/>
+      <c r="C197" s="242"/>
+      <c r="E197" s="241"/>
+      <c r="F197" s="242"/>
+      <c r="H197" s="241"/>
+      <c r="I197" s="242"/>
+      <c r="K197" s="241"/>
+      <c r="L197" s="242"/>
+      <c r="N197" s="241"/>
+      <c r="O197" s="242"/>
+      <c r="Q197" s="263"/>
+      <c r="R197" s="264"/>
+      <c r="T197" s="257"/>
+      <c r="U197" s="258"/>
+      <c r="W197" s="241"/>
+      <c r="X197" s="242"/>
+      <c r="Z197" s="257"/>
+      <c r="AA197" s="258"/>
+      <c r="AB197" s="150"/>
+      <c r="AC197" s="151"/>
+      <c r="AD197" s="152"/>
+      <c r="AE197" s="152"/>
+      <c r="AF197" s="152"/>
+      <c r="AG197" s="152"/>
+      <c r="AH197" s="152"/>
+      <c r="AI197" s="152"/>
+      <c r="AJ197" s="152"/>
+      <c r="AK197" s="152"/>
+      <c r="AL197" s="152"/>
+      <c r="AM197" s="152"/>
+      <c r="AN197" s="152"/>
+      <c r="AO197" s="152"/>
+      <c r="AP197" s="152"/>
+      <c r="AQ197" s="153"/>
+      <c r="AR197" s="152"/>
+      <c r="AS197" s="152"/>
+      <c r="AT197" s="152"/>
+      <c r="AU197" s="152"/>
+      <c r="AV197" s="152"/>
+      <c r="AW197" s="152"/>
+      <c r="AX197" s="152"/>
+      <c r="AY197" s="152"/>
+      <c r="AZ197" s="152"/>
+      <c r="BA197" s="152"/>
+    </row>
+    <row r="198" spans="2:53" s="144" customFormat="1" ht="13">
+      <c r="B198" s="243" t="s">
         <v>169</v>
       </c>
-      <c r="C198" s="255"/>
-      <c r="E198" s="254" t="s">
+      <c r="C198" s="244"/>
+      <c r="E198" s="243" t="s">
         <v>168</v>
       </c>
-      <c r="F198" s="255"/>
-      <c r="H198" s="254" t="s">
+      <c r="F198" s="244"/>
+      <c r="H198" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="I198" s="255"/>
-      <c r="K198" s="254" t="s">
+      <c r="I198" s="244"/>
+      <c r="K198" s="243" t="s">
         <v>166</v>
       </c>
-      <c r="L198" s="255"/>
-      <c r="N198" s="254" t="s">
+      <c r="L198" s="244"/>
+      <c r="N198" s="243" t="s">
         <v>165</v>
       </c>
-      <c r="O198" s="255"/>
-      <c r="Q198" s="254" t="s">
+      <c r="O198" s="244"/>
+      <c r="Q198" s="243" t="s">
         <v>162</v>
       </c>
-      <c r="R198" s="255"/>
-      <c r="T198" s="254" t="s">
+      <c r="R198" s="244"/>
+      <c r="T198" s="243" t="s">
         <v>164</v>
       </c>
-      <c r="U198" s="255"/>
-      <c r="W198" s="254" t="s">
+      <c r="U198" s="244"/>
+      <c r="W198" s="243" t="s">
         <v>161</v>
       </c>
-      <c r="X198" s="255"/>
-      <c r="Z198" s="254" t="s">
+      <c r="X198" s="244"/>
+      <c r="Z198" s="243" t="s">
         <v>161</v>
       </c>
-      <c r="AA198" s="255"/>
-      <c r="AB198" s="146"/>
-      <c r="AC198" s="147"/>
-      <c r="AD198" s="148"/>
-      <c r="AE198" s="148"/>
-      <c r="AF198" s="148"/>
-      <c r="AG198" s="148"/>
-      <c r="AH198" s="148"/>
-      <c r="AI198" s="148"/>
-      <c r="AJ198" s="148"/>
-      <c r="AK198" s="148"/>
-      <c r="AL198" s="148"/>
-      <c r="AM198" s="148"/>
-      <c r="AN198" s="148"/>
-      <c r="AO198" s="148"/>
-      <c r="AP198" s="148"/>
-      <c r="AQ198" s="149"/>
-      <c r="AR198" s="148"/>
-      <c r="AS198" s="148"/>
-      <c r="AT198" s="148"/>
-      <c r="AU198" s="148"/>
-      <c r="AV198" s="148"/>
-      <c r="AW198" s="148"/>
-      <c r="AX198" s="148"/>
-      <c r="AY198" s="148"/>
-      <c r="AZ198" s="148"/>
-      <c r="BA198" s="148"/>
+      <c r="AA198" s="244"/>
+      <c r="AB198" s="145"/>
+      <c r="AC198" s="146"/>
+      <c r="AD198" s="147"/>
+      <c r="AE198" s="147"/>
+      <c r="AF198" s="147"/>
+      <c r="AG198" s="147"/>
+      <c r="AH198" s="147"/>
+      <c r="AI198" s="147"/>
+      <c r="AJ198" s="147"/>
+      <c r="AK198" s="147"/>
+      <c r="AL198" s="147"/>
+      <c r="AM198" s="147"/>
+      <c r="AN198" s="147"/>
+      <c r="AO198" s="147"/>
+      <c r="AP198" s="147"/>
+      <c r="AQ198" s="148"/>
+      <c r="AR198" s="147"/>
+      <c r="AS198" s="147"/>
+      <c r="AT198" s="147"/>
+      <c r="AU198" s="147"/>
+      <c r="AV198" s="147"/>
+      <c r="AW198" s="147"/>
+      <c r="AX198" s="147"/>
+      <c r="AY198" s="147"/>
+      <c r="AZ198" s="147"/>
+      <c r="BA198" s="147"/>
     </row>
     <row r="199" spans="2:53">
       <c r="AB199" s="31"/>
@@ -32374,10 +32441,10 @@
     <row r="249" spans="2:27"/>
     <row r="250" spans="2:27"/>
     <row r="251" spans="2:27">
-      <c r="N251" s="223" t="s">
+      <c r="N251" s="251" t="s">
         <v>152</v>
       </c>
-      <c r="O251" s="224"/>
+      <c r="O251" s="252"/>
     </row>
     <row r="252" spans="2:27"/>
     <row r="253" spans="2:27"/>
@@ -32387,62 +32454,62 @@
       <c r="N256" s="14"/>
       <c r="O256" s="15"/>
     </row>
-    <row r="257" spans="1:30" s="156" customFormat="1" ht="23" customHeight="1">
-      <c r="K257" s="279" cm="1">
+    <row r="257" spans="1:30" s="155" customFormat="1" ht="23" customHeight="1">
+      <c r="K257" s="245" cm="1">
         <f t="array" ref="K257">LOOKUP(2,1/('− Debt'!L:L&lt;&gt;""),'− Debt'!L:L)</f>
         <v>0</v>
       </c>
-      <c r="L257" s="280"/>
-      <c r="N257" s="258" cm="1">
+      <c r="L257" s="246"/>
+      <c r="N257" s="239" cm="1">
         <f t="array" ref="N257">LOOKUP(2,1/(Debt!N:N&lt;&gt;""),Debt!N:N)*3</f>
         <v>0.10632010806194168</v>
       </c>
-      <c r="O257" s="259"/>
-      <c r="Q257" s="273" cm="1">
-        <f t="array" aca="1" ref="Q257" ca="1">EDATE(TODAY(),ABS(K257)/((ABS(GETPIVOTDATA("Max. of BALANCE",Debt!$K$3,"DATE",DATE(2016,12,24),"SUB-CATEGORY","Interest"))-ABS(LOOKUP(2,1/(Debt!M:M&lt;&gt;""),Debt!M:M)))/DATEDIF(Debt!K6,TODAY(),"m")))</f>
-        <v>44135</v>
-      </c>
-      <c r="R257" s="274"/>
-      <c r="S257" s="166"/>
-      <c r="AB257" s="157"/>
-      <c r="AC257" s="157"/>
-      <c r="AD257" s="158"/>
-    </row>
-    <row r="258" spans="1:30" s="156" customFormat="1" ht="23" customHeight="1">
-      <c r="K258" s="281"/>
-      <c r="L258" s="282"/>
-      <c r="N258" s="258"/>
-      <c r="O258" s="259"/>
-      <c r="Q258" s="275"/>
-      <c r="R258" s="276"/>
-      <c r="AB258" s="157"/>
-      <c r="AC258" s="157"/>
-      <c r="AD258" s="158"/>
-    </row>
-    <row r="259" spans="1:30" s="156" customFormat="1" ht="23" customHeight="1">
-      <c r="K259" s="283"/>
-      <c r="L259" s="284"/>
-      <c r="N259" s="260"/>
-      <c r="O259" s="261"/>
-      <c r="Q259" s="277"/>
-      <c r="R259" s="278"/>
-      <c r="AB259" s="157"/>
-      <c r="AC259" s="157"/>
-      <c r="AD259" s="158"/>
+      <c r="O257" s="240"/>
+      <c r="Q257" s="229" cm="1">
+        <f t="array" aca="1" ref="Q257" ca="1">IFERROR(EDATE(TODAY(),ABS(K257)/((ABS(GETPIVOTDATA("Max. of BALANCE",Debt!$K$3,"DATE",DATE(2016,12,24),"SUB-CATEGORY","Interest"))-ABS(LOOKUP(2,1/(Debt!M:M&lt;&gt;""),Debt!M:M)))/DATEDIF(Debt!K6,TODAY(),"m"))),"NA")</f>
+        <v>44137</v>
+      </c>
+      <c r="R257" s="230"/>
+      <c r="S257" s="165"/>
+      <c r="AB257" s="156"/>
+      <c r="AC257" s="156"/>
+      <c r="AD257" s="157"/>
+    </row>
+    <row r="258" spans="1:30" s="155" customFormat="1" ht="23" customHeight="1">
+      <c r="K258" s="247"/>
+      <c r="L258" s="248"/>
+      <c r="N258" s="239"/>
+      <c r="O258" s="240"/>
+      <c r="Q258" s="231"/>
+      <c r="R258" s="232"/>
+      <c r="AB258" s="156"/>
+      <c r="AC258" s="156"/>
+      <c r="AD258" s="157"/>
+    </row>
+    <row r="259" spans="1:30" s="155" customFormat="1" ht="23" customHeight="1">
+      <c r="K259" s="249"/>
+      <c r="L259" s="250"/>
+      <c r="N259" s="241"/>
+      <c r="O259" s="242"/>
+      <c r="Q259" s="233"/>
+      <c r="R259" s="234"/>
+      <c r="AB259" s="156"/>
+      <c r="AC259" s="156"/>
+      <c r="AD259" s="157"/>
     </row>
     <row r="260" spans="1:30" s="70" customFormat="1" ht="13">
-      <c r="K260" s="246" t="s">
+      <c r="K260" s="235" t="s">
         <v>170</v>
       </c>
-      <c r="L260" s="247"/>
-      <c r="N260" s="246" t="s">
+      <c r="L260" s="236"/>
+      <c r="N260" s="235" t="s">
         <v>171</v>
       </c>
-      <c r="O260" s="247"/>
-      <c r="Q260" s="246" t="s">
+      <c r="O260" s="236"/>
+      <c r="Q260" s="235" t="s">
         <v>172</v>
       </c>
-      <c r="R260" s="247"/>
+      <c r="R260" s="236"/>
       <c r="AB260" s="71"/>
       <c r="AC260" s="71"/>
       <c r="AD260" s="72"/>
@@ -32506,7 +32573,7 @@
       <c r="Y265" s="65"/>
       <c r="Z265" s="65"/>
       <c r="AA265" s="65"/>
-      <c r="AB265" s="203"/>
+      <c r="AB265" s="202"/>
     </row>
     <row r="266" spans="1:30" ht="50" customHeight="1">
       <c r="B266" s="7"/>
@@ -32520,12 +32587,12 @@
       <c r="J266" s="7"/>
       <c r="K266" s="7"/>
       <c r="L266" s="7"/>
-      <c r="M266" s="270" t="s">
+      <c r="M266" s="226" t="s">
         <v>176</v>
       </c>
-      <c r="N266" s="271"/>
-      <c r="O266" s="271"/>
-      <c r="P266" s="272"/>
+      <c r="N266" s="227"/>
+      <c r="O266" s="227"/>
+      <c r="P266" s="228"/>
       <c r="Q266" s="7"/>
       <c r="R266" s="7"/>
       <c r="S266" s="7"/>
@@ -32540,8 +32607,92 @@
     </row>
     <row r="267" spans="1:30"/>
   </sheetData>
-  <sheetProtection sheet="1" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="100">
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="AA22:AB23"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="U22:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="X22:Y23"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Y12:Z14"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="I22:J24"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="L22:M24"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="O22:P24"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="B16:D18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="K2:R4"/>
+    <mergeCell ref="R22:S24"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="H12:I14"/>
+    <mergeCell ref="M12:O14"/>
+    <mergeCell ref="S12:U14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="Y16:Z18"/>
+    <mergeCell ref="Q16:R18"/>
+    <mergeCell ref="H16:I18"/>
+    <mergeCell ref="M16:O18"/>
+    <mergeCell ref="S16:U18"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="Q109:R109"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="N110:O112"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="Q110:R112"/>
+    <mergeCell ref="Q113:R113"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="K110:L112"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="B110:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="E110:F112"/>
+    <mergeCell ref="Z198:AA198"/>
+    <mergeCell ref="Z195:AA197"/>
+    <mergeCell ref="W195:X197"/>
+    <mergeCell ref="W198:X198"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="W110:X112"/>
+    <mergeCell ref="W113:X113"/>
+    <mergeCell ref="Z110:AA112"/>
+    <mergeCell ref="Z113:AA113"/>
+    <mergeCell ref="T109:U109"/>
+    <mergeCell ref="W109:X109"/>
+    <mergeCell ref="Z109:AA109"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="T110:U112"/>
+    <mergeCell ref="T113:U113"/>
+    <mergeCell ref="H110:I112"/>
+    <mergeCell ref="T195:U197"/>
+    <mergeCell ref="T198:U198"/>
+    <mergeCell ref="Q195:R197"/>
+    <mergeCell ref="Q198:R198"/>
+    <mergeCell ref="N195:O197"/>
+    <mergeCell ref="N198:O198"/>
     <mergeCell ref="M266:P266"/>
     <mergeCell ref="Q257:R259"/>
     <mergeCell ref="Q260:R260"/>
@@ -32558,90 +32709,6 @@
     <mergeCell ref="E195:F197"/>
     <mergeCell ref="E198:F198"/>
     <mergeCell ref="N251:O251"/>
-    <mergeCell ref="T195:U197"/>
-    <mergeCell ref="T198:U198"/>
-    <mergeCell ref="Q195:R197"/>
-    <mergeCell ref="Q198:R198"/>
-    <mergeCell ref="N195:O197"/>
-    <mergeCell ref="N198:O198"/>
-    <mergeCell ref="Z198:AA198"/>
-    <mergeCell ref="Z195:AA197"/>
-    <mergeCell ref="W195:X197"/>
-    <mergeCell ref="W198:X198"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="W110:X112"/>
-    <mergeCell ref="W113:X113"/>
-    <mergeCell ref="Z110:AA112"/>
-    <mergeCell ref="Z113:AA113"/>
-    <mergeCell ref="T109:U109"/>
-    <mergeCell ref="W109:X109"/>
-    <mergeCell ref="Z109:AA109"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="T110:U112"/>
-    <mergeCell ref="T113:U113"/>
-    <mergeCell ref="H110:I112"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="Q109:R109"/>
-    <mergeCell ref="K113:L113"/>
-    <mergeCell ref="N110:O112"/>
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="Q110:R112"/>
-    <mergeCell ref="Q113:R113"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="K110:L112"/>
-    <mergeCell ref="N109:O109"/>
-    <mergeCell ref="B110:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="E110:F112"/>
-    <mergeCell ref="Y16:Z18"/>
-    <mergeCell ref="Q16:R18"/>
-    <mergeCell ref="H16:I18"/>
-    <mergeCell ref="M16:O18"/>
-    <mergeCell ref="S16:U18"/>
-    <mergeCell ref="B12:C14"/>
-    <mergeCell ref="H12:I14"/>
-    <mergeCell ref="M12:O14"/>
-    <mergeCell ref="S12:U14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="I22:J24"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="L22:M24"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="O22:P24"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="B16:D18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="K2:R4"/>
-    <mergeCell ref="R22:S24"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="AA22:AB23"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="U22:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="X22:Y23"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Y12:Z14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M266:P266" r:id="rId1" display="gugulet.hu" xr:uid="{885D7698-82FB-DD49-A2D8-779B53BF5D57}"/>
@@ -32683,7 +32750,7 @@
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" style="159" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" style="158" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
@@ -32692,526 +32759,526 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="110"/>
-      <c r="B1" s="109" t="s">
+      <c r="A1" s="109"/>
+      <c r="B1" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="134"/>
-      <c r="K1" s="126" t="s">
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="133"/>
+      <c r="K1" s="125" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="127" t="s">
+      <c r="L1" s="126" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="139"/>
-      <c r="B2" s="110" t="s">
+      <c r="A2" s="138"/>
+      <c r="B2" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="110" t="s">
+      <c r="C2" s="132"/>
+      <c r="D2" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="133"/>
-      <c r="F2" s="110" t="s">
+      <c r="E2" s="132"/>
+      <c r="F2" s="109" t="s">
         <v>155</v>
       </c>
-      <c r="G2" s="133"/>
-      <c r="H2" s="110" t="s">
+      <c r="G2" s="132"/>
+      <c r="H2" s="109" t="s">
         <v>159</v>
       </c>
-      <c r="I2" s="122" t="s">
+      <c r="I2" s="121" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="110" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="110" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="110" t="s">
+      <c r="F3" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="G3" s="111" t="s">
+      <c r="G3" s="110" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="109" t="s">
+      <c r="H3" s="138"/>
+      <c r="I3" s="139"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="M3" s="133"/>
-      <c r="N3" s="160"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="159"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="114">
+      <c r="B4" s="113">
         <v>202383.81</v>
       </c>
-      <c r="C4" s="115">
+      <c r="C4" s="114">
         <v>102360</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115">
+      <c r="D4" s="113"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="114">
         <v>235100</v>
       </c>
-      <c r="H4" s="114">
+      <c r="H4" s="113">
         <v>202383.81</v>
       </c>
-      <c r="I4" s="136">
+      <c r="I4" s="135">
         <v>337460</v>
       </c>
-      <c r="K4" s="139"/>
-      <c r="L4" s="164" t="s">
+      <c r="K4" s="138"/>
+      <c r="L4" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="165"/>
-      <c r="N4" s="160"/>
+      <c r="M4" s="164"/>
+      <c r="N4" s="159"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="123" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="118">
+      <c r="B5" s="116"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117">
         <v>17150</v>
       </c>
-      <c r="F5" s="117"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="137">
+      <c r="F5" s="116"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="136">
         <v>17150</v>
       </c>
-      <c r="K5" s="109" t="s">
+      <c r="K5" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="L5" s="110" t="s">
+      <c r="L5" s="109" t="s">
         <v>173</v>
       </c>
-      <c r="M5" s="111" t="s">
+      <c r="M5" s="110" t="s">
         <v>174</v>
       </c>
-      <c r="N5" s="161" t="s">
+      <c r="N5" s="160" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="129">
+      <c r="B6" s="128">
         <v>202383.81</v>
       </c>
-      <c r="C6" s="130">
+      <c r="C6" s="129">
         <v>102360</v>
       </c>
-      <c r="D6" s="129"/>
-      <c r="E6" s="130">
+      <c r="D6" s="128"/>
+      <c r="E6" s="129">
         <v>17150</v>
       </c>
-      <c r="F6" s="129"/>
-      <c r="G6" s="130">
+      <c r="F6" s="128"/>
+      <c r="G6" s="129">
         <v>235100</v>
       </c>
-      <c r="H6" s="129">
+      <c r="H6" s="128">
         <v>202383.81</v>
       </c>
-      <c r="I6" s="138">
+      <c r="I6" s="137">
         <v>354610</v>
       </c>
-      <c r="K6" s="113">
+      <c r="K6" s="112">
         <v>42728</v>
       </c>
-      <c r="L6" s="114"/>
-      <c r="M6" s="115">
+      <c r="L6" s="113"/>
+      <c r="M6" s="114">
         <v>-502713.33</v>
       </c>
-      <c r="N6" s="161">
+      <c r="N6" s="160">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="K7" s="116">
+      <c r="K7" s="115">
         <v>42763</v>
       </c>
-      <c r="L7" s="117"/>
-      <c r="M7" s="118">
+      <c r="L7" s="116"/>
+      <c r="M7" s="117">
         <v>-497093.33</v>
       </c>
-      <c r="N7" s="162">
+      <c r="N7" s="161">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="K8" s="116">
+      <c r="K8" s="115">
         <v>42793</v>
       </c>
-      <c r="L8" s="117"/>
-      <c r="M8" s="118">
+      <c r="L8" s="116"/>
+      <c r="M8" s="117">
         <v>-491473.33</v>
       </c>
-      <c r="N8" s="162">
+      <c r="N8" s="161">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="K9" s="116">
+      <c r="K9" s="115">
         <v>42821</v>
       </c>
-      <c r="L9" s="117"/>
-      <c r="M9" s="118">
+      <c r="L9" s="116"/>
+      <c r="M9" s="117">
         <v>-485473.33</v>
       </c>
-      <c r="N9" s="162">
+      <c r="N9" s="161">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="K10" s="116">
+      <c r="K10" s="115">
         <v>42851</v>
       </c>
-      <c r="L10" s="117"/>
-      <c r="M10" s="118">
+      <c r="L10" s="116"/>
+      <c r="M10" s="117">
         <v>-478473.33</v>
       </c>
-      <c r="N10" s="162">
+      <c r="N10" s="161">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="K11" s="116">
+      <c r="K11" s="115">
         <v>42881</v>
       </c>
-      <c r="L11" s="117"/>
-      <c r="M11" s="118">
+      <c r="L11" s="116"/>
+      <c r="M11" s="117">
         <v>-472473.33</v>
       </c>
-      <c r="N11" s="162">
+      <c r="N11" s="161">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="K12" s="116">
+      <c r="K12" s="115">
         <v>42886</v>
       </c>
-      <c r="L12" s="117">
+      <c r="L12" s="116">
         <v>14964.99</v>
       </c>
-      <c r="M12" s="118">
+      <c r="M12" s="117">
         <v>-487438.32</v>
       </c>
-      <c r="N12" s="162">
+      <c r="N12" s="161">
         <v>3.070129980753257E-2</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="K13" s="116">
+      <c r="K13" s="115">
         <v>42913</v>
       </c>
-      <c r="L13" s="117"/>
-      <c r="M13" s="118">
+      <c r="L13" s="116"/>
+      <c r="M13" s="117">
         <v>-481438.32</v>
       </c>
-      <c r="N13" s="162">
+      <c r="N13" s="161">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="K14" s="116">
+      <c r="K14" s="115">
         <v>42943</v>
       </c>
-      <c r="L14" s="117"/>
-      <c r="M14" s="118">
+      <c r="L14" s="116"/>
+      <c r="M14" s="117">
         <v>-475438.32</v>
       </c>
-      <c r="N14" s="162">
+      <c r="N14" s="161">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="K15" s="116">
+      <c r="K15" s="115">
         <v>42968</v>
       </c>
-      <c r="L15" s="117">
+      <c r="L15" s="116">
         <v>4667.6499999999996</v>
       </c>
-      <c r="M15" s="118">
+      <c r="M15" s="117">
         <v>-480105.97000000003</v>
       </c>
-      <c r="N15" s="162">
+      <c r="N15" s="161">
         <v>9.7221244718119198E-3</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="K16" s="116">
+      <c r="K16" s="115">
         <v>42972</v>
       </c>
-      <c r="L16" s="117"/>
-      <c r="M16" s="118">
+      <c r="L16" s="116"/>
+      <c r="M16" s="117">
         <v>-474105.97000000003</v>
       </c>
-      <c r="N16" s="162">
+      <c r="N16" s="161">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="11:14">
-      <c r="K17" s="116">
+      <c r="K17" s="115">
         <v>43005</v>
       </c>
-      <c r="L17" s="117"/>
-      <c r="M17" s="118">
+      <c r="L17" s="116"/>
+      <c r="M17" s="117">
         <v>-468105.97000000003</v>
       </c>
-      <c r="N17" s="162">
+      <c r="N17" s="161">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="11:14">
-      <c r="K18" s="116">
+      <c r="K18" s="115">
         <v>43035</v>
       </c>
-      <c r="L18" s="117"/>
-      <c r="M18" s="118">
+      <c r="L18" s="116"/>
+      <c r="M18" s="117">
         <v>-462105.97000000003</v>
       </c>
-      <c r="N18" s="162">
+      <c r="N18" s="161">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="11:14">
-      <c r="K19" s="116">
+      <c r="K19" s="115">
         <v>43060</v>
       </c>
-      <c r="L19" s="117">
+      <c r="L19" s="116">
         <v>12925.03</v>
       </c>
-      <c r="M19" s="118">
+      <c r="M19" s="117">
         <v>-475031.00000000006</v>
       </c>
-      <c r="N19" s="162">
+      <c r="N19" s="161">
         <v>2.7208813740576928E-2</v>
       </c>
     </row>
     <row r="20" spans="11:14">
-      <c r="K20" s="116">
+      <c r="K20" s="115">
         <v>43081</v>
       </c>
-      <c r="L20" s="117"/>
-      <c r="M20" s="118">
+      <c r="L20" s="116"/>
+      <c r="M20" s="117">
         <v>-465031.00000000006</v>
       </c>
-      <c r="N20" s="162">
+      <c r="N20" s="161">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="11:14">
-      <c r="K21" s="116">
+      <c r="K21" s="115">
         <v>43090</v>
       </c>
-      <c r="L21" s="117"/>
-      <c r="M21" s="118">
+      <c r="L21" s="116"/>
+      <c r="M21" s="117">
         <v>-462531.00000000006</v>
       </c>
-      <c r="N21" s="162">
+      <c r="N21" s="161">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="11:14">
-      <c r="K22" s="116">
+      <c r="K22" s="115">
         <v>43126</v>
       </c>
-      <c r="L22" s="117"/>
-      <c r="M22" s="118">
+      <c r="L22" s="116"/>
+      <c r="M22" s="117">
         <v>-456531.00000000006</v>
       </c>
-      <c r="N22" s="162">
+      <c r="N22" s="161">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="11:14">
-      <c r="K23" s="116">
+      <c r="K23" s="115">
         <v>43146</v>
       </c>
-      <c r="L23" s="117">
+      <c r="L23" s="116">
         <v>12224.8</v>
       </c>
-      <c r="M23" s="118">
+      <c r="M23" s="117">
         <v>-468755.80000000005</v>
       </c>
-      <c r="N23" s="162">
+      <c r="N23" s="161">
         <v>2.6079250646072003E-2</v>
       </c>
     </row>
     <row r="24" spans="11:14">
-      <c r="K24" s="116">
+      <c r="K24" s="115">
         <v>43158</v>
       </c>
-      <c r="L24" s="117"/>
-      <c r="M24" s="118">
+      <c r="L24" s="116"/>
+      <c r="M24" s="117">
         <v>-462755.80000000005</v>
       </c>
-      <c r="N24" s="162">
+      <c r="N24" s="161">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="11:14">
-      <c r="K25" s="116">
+      <c r="K25" s="115">
         <v>43186</v>
       </c>
-      <c r="L25" s="117"/>
-      <c r="M25" s="118">
+      <c r="L25" s="116"/>
+      <c r="M25" s="117">
         <v>-456755.80000000005</v>
       </c>
-      <c r="N25" s="162">
+      <c r="N25" s="161">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="11:14">
-      <c r="K26" s="116">
+      <c r="K26" s="115">
         <v>43216</v>
       </c>
-      <c r="L26" s="117"/>
-      <c r="M26" s="118">
+      <c r="L26" s="116"/>
+      <c r="M26" s="117">
         <v>-450755.80000000005</v>
       </c>
-      <c r="N26" s="162">
+      <c r="N26" s="161">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="11:14">
-      <c r="K27" s="116">
+      <c r="K27" s="115">
         <v>43241</v>
       </c>
-      <c r="L27" s="117">
+      <c r="L27" s="116">
         <v>6801.4</v>
       </c>
-      <c r="M27" s="118">
+      <c r="M27" s="117">
         <v>-457557.20000000007</v>
       </c>
-      <c r="N27" s="162">
+      <c r="N27" s="161">
         <v>1.4864589607594413E-2</v>
       </c>
     </row>
     <row r="28" spans="11:14">
-      <c r="K28" s="116">
+      <c r="K28" s="115">
         <v>43333</v>
       </c>
-      <c r="L28" s="117">
+      <c r="L28" s="116">
         <v>12430.8</v>
       </c>
-      <c r="M28" s="118">
+      <c r="M28" s="117">
         <v>-451988.00000000006</v>
       </c>
-      <c r="N28" s="162">
+      <c r="N28" s="161">
         <v>2.7502500066373437E-2</v>
       </c>
     </row>
     <row r="29" spans="11:14">
-      <c r="K29" s="116">
+      <c r="K29" s="115">
         <v>43419</v>
       </c>
-      <c r="L29" s="117">
+      <c r="L29" s="116">
         <v>12768.4</v>
       </c>
-      <c r="M29" s="118">
+      <c r="M29" s="117">
         <v>-446756.40000000008</v>
       </c>
-      <c r="N29" s="162">
+      <c r="N29" s="161">
         <v>2.8580228509317376E-2</v>
       </c>
     </row>
     <row r="30" spans="11:14">
-      <c r="K30" s="116">
+      <c r="K30" s="115">
         <v>43517</v>
       </c>
-      <c r="L30" s="117">
+      <c r="L30" s="116">
         <v>20798.3</v>
       </c>
-      <c r="M30" s="118">
+      <c r="M30" s="117">
         <v>-430554.70000000007</v>
       </c>
-      <c r="N30" s="162">
+      <c r="N30" s="161">
         <v>4.8305825020607131E-2</v>
       </c>
     </row>
     <row r="31" spans="11:14">
-      <c r="K31" s="116">
+      <c r="K31" s="115">
         <v>43606</v>
       </c>
-      <c r="L31" s="117">
+      <c r="L31" s="116">
         <v>11459.6</v>
       </c>
-      <c r="M31" s="118">
+      <c r="M31" s="117">
         <v>-421014.30000000005</v>
       </c>
-      <c r="N31" s="162">
+      <c r="N31" s="161">
         <v>2.72190279522572E-2</v>
       </c>
     </row>
     <row r="32" spans="11:14">
-      <c r="K32" s="116">
+      <c r="K32" s="115">
         <v>43698</v>
       </c>
-      <c r="L32" s="117">
+      <c r="L32" s="116">
         <v>16789.310000000001</v>
       </c>
-      <c r="M32" s="118">
+      <c r="M32" s="117">
         <v>-413803.61000000004</v>
       </c>
-      <c r="N32" s="162">
+      <c r="N32" s="161">
         <v>4.057313564760829E-2</v>
       </c>
     </row>
     <row r="33" spans="11:14">
-      <c r="K33" s="116">
+      <c r="K33" s="115">
         <v>43882</v>
       </c>
-      <c r="L33" s="117">
+      <c r="L33" s="116">
         <v>63148.083333333001</v>
       </c>
-      <c r="M33" s="118">
+      <c r="M33" s="117">
         <v>-399851.69333333307</v>
       </c>
-      <c r="N33" s="162">
+      <c r="N33" s="161">
         <v>0.15792876305438108</v>
       </c>
     </row>
     <row r="34" spans="11:14">
-      <c r="K34" s="119">
+      <c r="K34" s="118">
         <v>44064</v>
       </c>
-      <c r="L34" s="120">
+      <c r="L34" s="119">
         <v>13405.446666667005</v>
       </c>
-      <c r="M34" s="121">
+      <c r="M34" s="120">
         <v>-378257.14000000007</v>
       </c>
-      <c r="N34" s="163">
+      <c r="N34" s="162">
         <v>3.5440036020647228E-2</v>
       </c>
     </row>
@@ -33298,83 +33365,83 @@
     <row r="2" spans="1:26">
       <c r="B2">
         <f t="shared" ref="B2:T2" ca="1" si="0">DATE(IF(MONTH(TODAY()) &lt; 1, YEAR(TODAY()) -B1, YEAR(TODAY())),IF(MONTH(TODAY()) &lt; 1, 12 + (MONTH(TODAY()) - B1), MONTH(TODAY()) - B1),1)</f>
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="O2">
         <f t="shared" ca="1" si="0"/>
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="P2">
         <f t="shared" ca="1" si="0"/>
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="Q2">
         <f t="shared" ca="1" si="0"/>
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="R2">
         <f t="shared" ca="1" si="0"/>
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="S2">
         <f t="shared" ca="1" si="0"/>
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="T2">
         <f t="shared" ca="1" si="0"/>
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="U2">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY()),1)</f>
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="V2" t="s">
         <v>74</v>
@@ -36849,21 +36916,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="93" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="94" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" style="95" customWidth="1"/>
-    <col min="4" max="4" width="68.83203125" style="96" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="95" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="95" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="97" customWidth="1"/>
-    <col min="8" max="8" width="30.83203125" style="97" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" style="97" customWidth="1"/>
-    <col min="10" max="11" width="15.1640625" style="98" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="14.83203125" style="98" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="97" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="106" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="97" hidden="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="97" hidden="1"/>
+    <col min="1" max="1" width="10.5" style="92" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="93" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" style="94" customWidth="1"/>
+    <col min="4" max="4" width="68.83203125" style="95" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="94" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="94" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="96" customWidth="1"/>
+    <col min="8" max="8" width="30.83203125" style="96" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" style="96" customWidth="1"/>
+    <col min="10" max="11" width="15.1640625" style="97" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="14.83203125" style="97" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="96" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" style="105" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="96" hidden="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="96" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="86" customFormat="1" ht="20" customHeight="1">
@@ -36879,63 +36946,63 @@
       <c r="M1" s="87"/>
       <c r="N1" s="87"/>
       <c r="O1" s="87"/>
-      <c r="Q1" s="107"/>
+      <c r="Q1" s="106"/>
     </row>
     <row r="2" spans="1:17" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A2" s="82"/>
       <c r="B2" s="83"/>
       <c r="C2" s="84"/>
       <c r="D2" s="85"/>
-      <c r="E2" s="285" t="s">
+      <c r="E2" s="289" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="285"/>
-      <c r="G2" s="285"/>
-      <c r="H2" s="285"/>
-      <c r="I2" s="285"/>
+      <c r="F2" s="289"/>
+      <c r="G2" s="289"/>
+      <c r="H2" s="289"/>
+      <c r="I2" s="289"/>
       <c r="J2" s="87"/>
       <c r="K2" s="87"/>
       <c r="L2" s="87"/>
       <c r="M2" s="87"/>
       <c r="N2" s="87"/>
       <c r="O2" s="87"/>
-      <c r="Q2" s="107"/>
+      <c r="Q2" s="106"/>
     </row>
     <row r="3" spans="1:17" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A3" s="82"/>
       <c r="B3" s="83"/>
       <c r="C3" s="84"/>
       <c r="D3" s="85"/>
-      <c r="E3" s="285"/>
-      <c r="F3" s="285"/>
-      <c r="G3" s="285"/>
-      <c r="H3" s="285"/>
-      <c r="I3" s="285"/>
+      <c r="E3" s="289"/>
+      <c r="F3" s="289"/>
+      <c r="G3" s="289"/>
+      <c r="H3" s="289"/>
+      <c r="I3" s="289"/>
       <c r="J3" s="87"/>
       <c r="K3" s="87"/>
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
       <c r="N3" s="87"/>
       <c r="O3" s="87"/>
-      <c r="Q3" s="107"/>
+      <c r="Q3" s="106"/>
     </row>
     <row r="4" spans="1:17" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A4" s="82"/>
       <c r="B4" s="83"/>
       <c r="C4" s="84"/>
       <c r="D4" s="85"/>
-      <c r="E4" s="285"/>
-      <c r="F4" s="285"/>
-      <c r="G4" s="285"/>
-      <c r="H4" s="285"/>
-      <c r="I4" s="285"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
+      <c r="I4" s="289"/>
       <c r="J4" s="87"/>
       <c r="K4" s="87"/>
       <c r="L4" s="87"/>
       <c r="M4" s="87"/>
       <c r="N4" s="87"/>
       <c r="O4" s="87"/>
-      <c r="Q4" s="107"/>
+      <c r="Q4" s="106"/>
     </row>
     <row r="5" spans="1:17" s="88" customFormat="1" ht="20" customHeight="1">
       <c r="A5" s="88" t="s">
@@ -36986,210 +37053,210 @@
       <c r="P5" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="Q5" s="92" t="s">
+      <c r="Q5" s="301" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="20" customHeight="1">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="94">
+      <c r="B6" s="93">
         <v>38353</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="98">
-        <v>0</v>
-      </c>
-      <c r="L6" s="98">
-        <v>0</v>
-      </c>
-      <c r="M6" s="98">
-        <v>0</v>
-      </c>
-      <c r="N6" s="98">
-        <v>0</v>
-      </c>
-      <c r="O6" s="98">
-        <v>0</v>
-      </c>
-      <c r="P6" s="98">
+      <c r="K6" s="97">
+        <v>0</v>
+      </c>
+      <c r="L6" s="97">
+        <v>0</v>
+      </c>
+      <c r="M6" s="97">
+        <v>0</v>
+      </c>
+      <c r="N6" s="97">
+        <v>0</v>
+      </c>
+      <c r="O6" s="97">
+        <v>0</v>
+      </c>
+      <c r="P6" s="97">
         <f t="shared" ref="P6:P11" si="0">SUM(L6:O6)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="105" t="str" cm="1">
+      <c r="Q6" s="104" t="str" cm="1">
         <f t="array" aca="1" ref="Q6" ca="1">_xlfn.IFS(NOT(ISNUMBER(MATCH(Transactions[[#This Row],[ACCOUNT]],'∷ Settings'!$B$16:$B$50,0))),"⚀",NOT(AND(Transactions[[#This Row],[DATE]] &gt; DATE(2004,12,31),Transactions[[#This Row],[DATE]] &lt; (TODAY()+1))),"⚁",NOT(OR(AND(ISNUMBER(Transactions[[#This Row],[QUANTITY]]),ISTEXT(Transactions[[#This Row],[UNIT]])),OR(ISBLANK(Transactions[[#This Row],[QUANTITY]]),ISBLANK(Transactions[[#This Row],[UNIT]])))),"⚂",NOT(OR(AND(EXACT(Transactions[[#This Row],[CATEGORY]],"Income"),Transactions[[#This Row],[OUTFLOW]] = 0),OR(ISNUMBER(MATCH(Transactions[[#This Row],[CATEGORY]],'∷ Settings'!$C$16:$C$50,0))),ISBLANK(Transactions[[#This Row],[CATEGORY]]))),"⚃",AND(ISNUMBER(Transactions[[#This Row],[OUTFLOW]]),ISNUMBER(Transactions[[#This Row],[INFLOW]])),"⥂",AND(EXACT(Transactions[[#This Row],[BRAND]],"Transfer"),ISNUMBER(Transactions[[#This Row],[OUTFLOW]]),OR(EXACT(Transactions[[#This Row],[ITEM]],"Investment"),EXACT(Transactions[[#This Row],[ITEM]],"Loan"))),"⇢",AND(EXACT(Transactions[[#This Row],[BRAND]],"Transfer"),ISNUMBER(Transactions[[#This Row],[INFLOW]]),OR(EXACT(Transactions[[#This Row],[ITEM]],"Investment"),EXACT(Transactions[[#This Row],[ITEM]],"Loan"))),"⇠",TRUE,"●")</f>
         <v>●</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="20" customHeight="1">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="94">
+      <c r="B7" s="93">
         <v>38353</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="98">
-        <v>0</v>
-      </c>
-      <c r="L7" s="98">
-        <v>0</v>
-      </c>
-      <c r="M7" s="98">
-        <v>0</v>
-      </c>
-      <c r="N7" s="98">
-        <v>0</v>
-      </c>
-      <c r="O7" s="98">
-        <v>0</v>
-      </c>
-      <c r="P7" s="98">
+      <c r="K7" s="97">
+        <v>0</v>
+      </c>
+      <c r="L7" s="97">
+        <v>0</v>
+      </c>
+      <c r="M7" s="97">
+        <v>0</v>
+      </c>
+      <c r="N7" s="97">
+        <v>0</v>
+      </c>
+      <c r="O7" s="97">
+        <v>0</v>
+      </c>
+      <c r="P7" s="97">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="105" t="str" cm="1">
+      <c r="Q7" s="104" t="str" cm="1">
         <f t="array" aca="1" ref="Q7" ca="1">_xlfn.IFS(NOT(ISNUMBER(MATCH(Transactions[[#This Row],[ACCOUNT]],'∷ Settings'!$B$16:$B$50,0))),"⚀",NOT(AND(Transactions[[#This Row],[DATE]] &gt; DATE(2004,12,31),Transactions[[#This Row],[DATE]] &lt; (TODAY()+1))),"⚁",NOT(OR(AND(ISNUMBER(Transactions[[#This Row],[QUANTITY]]),ISTEXT(Transactions[[#This Row],[UNIT]])),OR(ISBLANK(Transactions[[#This Row],[QUANTITY]]),ISBLANK(Transactions[[#This Row],[UNIT]])))),"⚂",NOT(OR(AND(EXACT(Transactions[[#This Row],[CATEGORY]],"Income"),Transactions[[#This Row],[OUTFLOW]] = 0),OR(ISNUMBER(MATCH(Transactions[[#This Row],[CATEGORY]],'∷ Settings'!$C$16:$C$50,0))),ISBLANK(Transactions[[#This Row],[CATEGORY]]))),"⚃",AND(ISNUMBER(Transactions[[#This Row],[OUTFLOW]]),ISNUMBER(Transactions[[#This Row],[INFLOW]])),"⥂",AND(EXACT(Transactions[[#This Row],[BRAND]],"Transfer"),ISNUMBER(Transactions[[#This Row],[OUTFLOW]]),OR(EXACT(Transactions[[#This Row],[ITEM]],"Investment"),EXACT(Transactions[[#This Row],[ITEM]],"Loan"))),"⇢",AND(EXACT(Transactions[[#This Row],[BRAND]],"Transfer"),ISNUMBER(Transactions[[#This Row],[INFLOW]]),OR(EXACT(Transactions[[#This Row],[ITEM]],"Investment"),EXACT(Transactions[[#This Row],[ITEM]],"Loan"))),"⇠",TRUE,"●")</f>
         <v>●</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="20" customHeight="1">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="94">
+      <c r="B8" s="93">
         <v>38353</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="98">
-        <v>0</v>
-      </c>
-      <c r="L8" s="98">
-        <v>0</v>
-      </c>
-      <c r="M8" s="98">
-        <v>0</v>
-      </c>
-      <c r="N8" s="98">
-        <v>0</v>
-      </c>
-      <c r="O8" s="98">
-        <v>0</v>
-      </c>
-      <c r="P8" s="98">
+      <c r="K8" s="97">
+        <v>0</v>
+      </c>
+      <c r="L8" s="97">
+        <v>0</v>
+      </c>
+      <c r="M8" s="97">
+        <v>0</v>
+      </c>
+      <c r="N8" s="97">
+        <v>0</v>
+      </c>
+      <c r="O8" s="97">
+        <v>0</v>
+      </c>
+      <c r="P8" s="97">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="105" t="str" cm="1">
+      <c r="Q8" s="104" t="str" cm="1">
         <f t="array" aca="1" ref="Q8" ca="1">_xlfn.IFS(NOT(ISNUMBER(MATCH(Transactions[[#This Row],[ACCOUNT]],'∷ Settings'!$B$16:$B$50,0))),"⚀",NOT(AND(Transactions[[#This Row],[DATE]] &gt; DATE(2004,12,31),Transactions[[#This Row],[DATE]] &lt; (TODAY()+1))),"⚁",NOT(OR(AND(ISNUMBER(Transactions[[#This Row],[QUANTITY]]),ISTEXT(Transactions[[#This Row],[UNIT]])),OR(ISBLANK(Transactions[[#This Row],[QUANTITY]]),ISBLANK(Transactions[[#This Row],[UNIT]])))),"⚂",NOT(OR(AND(EXACT(Transactions[[#This Row],[CATEGORY]],"Income"),Transactions[[#This Row],[OUTFLOW]] = 0),OR(ISNUMBER(MATCH(Transactions[[#This Row],[CATEGORY]],'∷ Settings'!$C$16:$C$50,0))),ISBLANK(Transactions[[#This Row],[CATEGORY]]))),"⚃",AND(ISNUMBER(Transactions[[#This Row],[OUTFLOW]]),ISNUMBER(Transactions[[#This Row],[INFLOW]])),"⥂",AND(EXACT(Transactions[[#This Row],[BRAND]],"Transfer"),ISNUMBER(Transactions[[#This Row],[OUTFLOW]]),OR(EXACT(Transactions[[#This Row],[ITEM]],"Investment"),EXACT(Transactions[[#This Row],[ITEM]],"Loan"))),"⇢",AND(EXACT(Transactions[[#This Row],[BRAND]],"Transfer"),ISNUMBER(Transactions[[#This Row],[INFLOW]]),OR(EXACT(Transactions[[#This Row],[ITEM]],"Investment"),EXACT(Transactions[[#This Row],[ITEM]],"Loan"))),"⇠",TRUE,"●")</f>
         <v>●</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="20" customHeight="1">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="94">
+      <c r="B9" s="93">
         <v>38353</v>
       </c>
-      <c r="D9" s="96" t="s">
+      <c r="D9" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="98">
-        <v>0</v>
-      </c>
-      <c r="L9" s="98">
-        <v>0</v>
-      </c>
-      <c r="M9" s="98">
-        <v>0</v>
-      </c>
-      <c r="N9" s="98">
-        <v>0</v>
-      </c>
-      <c r="O9" s="98">
-        <v>0</v>
-      </c>
-      <c r="P9" s="98">
+      <c r="K9" s="97">
+        <v>0</v>
+      </c>
+      <c r="L9" s="97">
+        <v>0</v>
+      </c>
+      <c r="M9" s="97">
+        <v>0</v>
+      </c>
+      <c r="N9" s="97">
+        <v>0</v>
+      </c>
+      <c r="O9" s="97">
+        <v>0</v>
+      </c>
+      <c r="P9" s="97">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="105" t="str" cm="1">
+      <c r="Q9" s="104" t="str" cm="1">
         <f t="array" aca="1" ref="Q9" ca="1">_xlfn.IFS(NOT(ISNUMBER(MATCH(Transactions[[#This Row],[ACCOUNT]],'∷ Settings'!$B$16:$B$50,0))),"⚀",NOT(AND(Transactions[[#This Row],[DATE]] &gt; DATE(2004,12,31),Transactions[[#This Row],[DATE]] &lt; (TODAY()+1))),"⚁",NOT(OR(AND(ISNUMBER(Transactions[[#This Row],[QUANTITY]]),ISTEXT(Transactions[[#This Row],[UNIT]])),OR(ISBLANK(Transactions[[#This Row],[QUANTITY]]),ISBLANK(Transactions[[#This Row],[UNIT]])))),"⚂",NOT(OR(AND(EXACT(Transactions[[#This Row],[CATEGORY]],"Income"),Transactions[[#This Row],[OUTFLOW]] = 0),OR(ISNUMBER(MATCH(Transactions[[#This Row],[CATEGORY]],'∷ Settings'!$C$16:$C$50,0))),ISBLANK(Transactions[[#This Row],[CATEGORY]]))),"⚃",AND(ISNUMBER(Transactions[[#This Row],[OUTFLOW]]),ISNUMBER(Transactions[[#This Row],[INFLOW]])),"⥂",AND(EXACT(Transactions[[#This Row],[BRAND]],"Transfer"),ISNUMBER(Transactions[[#This Row],[OUTFLOW]]),OR(EXACT(Transactions[[#This Row],[ITEM]],"Investment"),EXACT(Transactions[[#This Row],[ITEM]],"Loan"))),"⇢",AND(EXACT(Transactions[[#This Row],[BRAND]],"Transfer"),ISNUMBER(Transactions[[#This Row],[INFLOW]]),OR(EXACT(Transactions[[#This Row],[ITEM]],"Investment"),EXACT(Transactions[[#This Row],[ITEM]],"Loan"))),"⇠",TRUE,"●")</f>
         <v>●</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="20" customHeight="1">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="94">
+      <c r="B10" s="93">
         <v>38353</v>
       </c>
-      <c r="D10" s="96" t="s">
+      <c r="D10" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="98">
-        <v>0</v>
-      </c>
-      <c r="L10" s="98">
-        <v>0</v>
-      </c>
-      <c r="M10" s="98">
-        <v>0</v>
-      </c>
-      <c r="N10" s="98">
-        <v>0</v>
-      </c>
-      <c r="O10" s="98">
-        <v>0</v>
-      </c>
-      <c r="P10" s="98">
+      <c r="K10" s="97">
+        <v>0</v>
+      </c>
+      <c r="L10" s="97">
+        <v>0</v>
+      </c>
+      <c r="M10" s="97">
+        <v>0</v>
+      </c>
+      <c r="N10" s="97">
+        <v>0</v>
+      </c>
+      <c r="O10" s="97">
+        <v>0</v>
+      </c>
+      <c r="P10" s="97">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="105" t="str" cm="1">
+      <c r="Q10" s="104" t="str" cm="1">
         <f t="array" aca="1" ref="Q10" ca="1">_xlfn.IFS(NOT(ISNUMBER(MATCH(Transactions[[#This Row],[ACCOUNT]],'∷ Settings'!$B$16:$B$50,0))),"⚀",NOT(AND(Transactions[[#This Row],[DATE]] &gt; DATE(2004,12,31),Transactions[[#This Row],[DATE]] &lt; (TODAY()+1))),"⚁",NOT(OR(AND(ISNUMBER(Transactions[[#This Row],[QUANTITY]]),ISTEXT(Transactions[[#This Row],[UNIT]])),OR(ISBLANK(Transactions[[#This Row],[QUANTITY]]),ISBLANK(Transactions[[#This Row],[UNIT]])))),"⚂",NOT(OR(AND(EXACT(Transactions[[#This Row],[CATEGORY]],"Income"),Transactions[[#This Row],[OUTFLOW]] = 0),OR(ISNUMBER(MATCH(Transactions[[#This Row],[CATEGORY]],'∷ Settings'!$C$16:$C$50,0))),ISBLANK(Transactions[[#This Row],[CATEGORY]]))),"⚃",AND(ISNUMBER(Transactions[[#This Row],[OUTFLOW]]),ISNUMBER(Transactions[[#This Row],[INFLOW]])),"⥂",AND(EXACT(Transactions[[#This Row],[BRAND]],"Transfer"),ISNUMBER(Transactions[[#This Row],[OUTFLOW]]),OR(EXACT(Transactions[[#This Row],[ITEM]],"Investment"),EXACT(Transactions[[#This Row],[ITEM]],"Loan"))),"⇢",AND(EXACT(Transactions[[#This Row],[BRAND]],"Transfer"),ISNUMBER(Transactions[[#This Row],[INFLOW]]),OR(EXACT(Transactions[[#This Row],[ITEM]],"Investment"),EXACT(Transactions[[#This Row],[ITEM]],"Loan"))),"⇠",TRUE,"●")</f>
         <v>●</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="20" customHeight="1">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="94">
+      <c r="B11" s="93">
         <v>38353</v>
       </c>
-      <c r="D11" s="96" t="s">
+      <c r="D11" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="98">
-        <v>0</v>
-      </c>
-      <c r="L11" s="98">
-        <v>0</v>
-      </c>
-      <c r="M11" s="98">
-        <v>0</v>
-      </c>
-      <c r="N11" s="98">
-        <v>0</v>
-      </c>
-      <c r="O11" s="98">
-        <v>0</v>
-      </c>
-      <c r="P11" s="98">
+      <c r="K11" s="97">
+        <v>0</v>
+      </c>
+      <c r="L11" s="97">
+        <v>0</v>
+      </c>
+      <c r="M11" s="97">
+        <v>0</v>
+      </c>
+      <c r="N11" s="97">
+        <v>0</v>
+      </c>
+      <c r="O11" s="97">
+        <v>0</v>
+      </c>
+      <c r="P11" s="97">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="105" t="str" cm="1">
+      <c r="Q11" s="104" t="str" cm="1">
         <f t="array" aca="1" ref="Q11" ca="1">_xlfn.IFS(NOT(ISNUMBER(MATCH(Transactions[[#This Row],[ACCOUNT]],'∷ Settings'!$B$16:$B$50,0))),"⚀",NOT(AND(Transactions[[#This Row],[DATE]] &gt; DATE(2004,12,31),Transactions[[#This Row],[DATE]] &lt; (TODAY()+1))),"⚁",NOT(OR(AND(ISNUMBER(Transactions[[#This Row],[QUANTITY]]),ISTEXT(Transactions[[#This Row],[UNIT]])),OR(ISBLANK(Transactions[[#This Row],[QUANTITY]]),ISBLANK(Transactions[[#This Row],[UNIT]])))),"⚂",NOT(OR(AND(EXACT(Transactions[[#This Row],[CATEGORY]],"Income"),Transactions[[#This Row],[OUTFLOW]] = 0),OR(ISNUMBER(MATCH(Transactions[[#This Row],[CATEGORY]],'∷ Settings'!$C$16:$C$50,0))),ISBLANK(Transactions[[#This Row],[CATEGORY]]))),"⚃",AND(ISNUMBER(Transactions[[#This Row],[OUTFLOW]]),ISNUMBER(Transactions[[#This Row],[INFLOW]])),"⥂",AND(EXACT(Transactions[[#This Row],[BRAND]],"Transfer"),ISNUMBER(Transactions[[#This Row],[OUTFLOW]]),OR(EXACT(Transactions[[#This Row],[ITEM]],"Investment"),EXACT(Transactions[[#This Row],[ITEM]],"Loan"))),"⇢",AND(EXACT(Transactions[[#This Row],[BRAND]],"Transfer"),ISNUMBER(Transactions[[#This Row],[INFLOW]]),OR(EXACT(Transactions[[#This Row],[ITEM]],"Investment"),EXACT(Transactions[[#This Row],[ITEM]],"Loan"))),"⇠",TRUE,"●")</f>
         <v>●</v>
       </c>
@@ -37199,9 +37266,12 @@
     <mergeCell ref="E2:I4"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="Q5" r:id="rId1" xr:uid="{1284C423-A076-1D44-B23A-E294E0496754}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -37228,7 +37298,7 @@
     <col min="6" max="6" width="37.6640625" style="1" customWidth="1"/>
     <col min="7" max="8" width="12.83203125" style="3" customWidth="1"/>
     <col min="9" max="16" width="15.83203125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="103" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="102" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="26" style="1" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="14.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="22" max="24" width="16.83203125" style="1" hidden="1" customWidth="1"/>
@@ -37264,57 +37334,57 @@
       <c r="J1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="104"/>
+      <c r="Q1" s="103"/>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="B2" s="5"/>
-      <c r="E2" s="286" t="s">
+      <c r="E2" s="290" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286"/>
-      <c r="H2" s="286"/>
-      <c r="I2" s="286"/>
-      <c r="J2" s="286"/>
-      <c r="K2" s="286"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290"/>
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="290"/>
+      <c r="K2" s="290"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="104"/>
+      <c r="Q2" s="103"/>
     </row>
     <row r="3" spans="1:17" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="B3" s="5"/>
-      <c r="E3" s="286"/>
-      <c r="F3" s="286"/>
-      <c r="G3" s="286"/>
-      <c r="H3" s="286"/>
-      <c r="I3" s="286"/>
-      <c r="J3" s="286"/>
-      <c r="K3" s="286"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
+      <c r="J3" s="290"/>
+      <c r="K3" s="290"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
-      <c r="Q3" s="104"/>
+      <c r="Q3" s="103"/>
     </row>
     <row r="4" spans="1:17" s="4" customFormat="1" ht="28" customHeight="1">
       <c r="B4" s="5"/>
-      <c r="E4" s="286"/>
-      <c r="F4" s="286"/>
-      <c r="G4" s="286"/>
-      <c r="H4" s="286"/>
-      <c r="I4" s="286"/>
-      <c r="J4" s="286"/>
-      <c r="K4" s="286"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="290"/>
+      <c r="J4" s="290"/>
+      <c r="K4" s="290"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="143"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
-      <c r="Q4" s="104"/>
+      <c r="Q4" s="103"/>
     </row>
     <row r="5" spans="1:17" s="62" customFormat="1" ht="20" customHeight="1">
       <c r="A5" s="62" t="s">
@@ -37365,7 +37435,7 @@
       <c r="P5" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="Q5" s="61" t="s">
+      <c r="Q5" s="301" t="s">
         <v>105</v>
       </c>
     </row>
@@ -37423,7 +37493,7 @@
         <f>SUM(Investment[[#This Row],[UNIT TRUSTS]:[DEPOSIT]])</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="102" t="str" cm="1">
+      <c r="Q6" s="101" t="str" cm="1">
         <f t="array" aca="1" ref="Q6" ca="1">_xlfn.IFS(NOT(ISNUMBER(MATCH(Investment[[#This Row],[ACCOUNT]],'∷ Settings'!$E$16:$E$50,0))),"⚀",NOT(AND(Investment[[#This Row],[DATE]] &gt; DATE(2004,12,31),Investment[[#This Row],[DATE]] &lt; (TODAY()+1))),"⚁",NOT(OR(ISNUMBER(MATCH(Investment[[#This Row],[CATEGORY]],'∷ Settings'!$F$16:$F$50,0)),ISBLANK(Investment[[#This Row],[CATEGORY]]))),"⚃",AND(ISNUMBER(Investment[[#This Row],[OUTFLOW]]),ISNUMBER(Investment[[#This Row],[INFLOW]])),"⥂",AND(EXACT(Investment[[#This Row],[BRAND]],"Transfer"),ISNUMBER(Investment[[#This Row],[OUTFLOW]])),"⇢",AND(EXACT(Investment[[#This Row],[BRAND]],"Transfer"),ISNUMBER(Investment[[#This Row],[INFLOW]])),"⇠",TRUE,"●")</f>
         <v>●</v>
       </c>
@@ -37482,7 +37552,7 @@
         <f>SUM(Investment[[#This Row],[UNIT TRUSTS]:[DEPOSIT]])</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="102" t="str" cm="1">
+      <c r="Q7" s="101" t="str" cm="1">
         <f t="array" aca="1" ref="Q7" ca="1">_xlfn.IFS(NOT(ISNUMBER(MATCH(Investment[[#This Row],[ACCOUNT]],'∷ Settings'!$E$16:$E$50,0))),"⚀",NOT(AND(Investment[[#This Row],[DATE]] &gt; DATE(2004,12,31),Investment[[#This Row],[DATE]] &lt; (TODAY()+1))),"⚁",NOT(OR(ISNUMBER(MATCH(Investment[[#This Row],[CATEGORY]],'∷ Settings'!$F$16:$F$50,0)),ISBLANK(Investment[[#This Row],[CATEGORY]]))),"⚃",AND(ISNUMBER(Investment[[#This Row],[OUTFLOW]]),ISNUMBER(Investment[[#This Row],[INFLOW]])),"⥂",AND(EXACT(Investment[[#This Row],[BRAND]],"Transfer"),ISNUMBER(Investment[[#This Row],[OUTFLOW]])),"⇢",AND(EXACT(Investment[[#This Row],[BRAND]],"Transfer"),ISNUMBER(Investment[[#This Row],[INFLOW]])),"⇠",TRUE,"●")</f>
         <v>●</v>
       </c>
@@ -37502,9 +37572,12 @@
       <formula2>47848</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="Q5" r:id="rId1" xr:uid="{50929F17-EE85-1B44-9439-C58E78D15378}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -37531,7 +37604,7 @@
     <col min="6" max="6" width="42.83203125" style="1" customWidth="1"/>
     <col min="7" max="8" width="12.83203125" style="3" customWidth="1"/>
     <col min="9" max="12" width="29.33203125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="17.83203125" style="103" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" style="102" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="16384" width="10.83203125" style="1" hidden="1"/>
   </cols>
@@ -37544,44 +37617,44 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="108"/>
+      <c r="M1" s="107"/>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="B2" s="5"/>
-      <c r="F2" s="286" t="s">
+      <c r="F2" s="290" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="286"/>
-      <c r="H2" s="286"/>
-      <c r="I2" s="286"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="108"/>
+      <c r="G2" s="290"/>
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="107"/>
     </row>
     <row r="3" spans="1:13" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="B3" s="5"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="286"/>
-      <c r="G3" s="286"/>
-      <c r="H3" s="286"/>
-      <c r="I3" s="286"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="108"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="107"/>
     </row>
     <row r="4" spans="1:13" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="B4" s="5"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="286"/>
-      <c r="G4" s="286"/>
-      <c r="H4" s="286"/>
-      <c r="I4" s="286"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="108"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="290"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="107"/>
     </row>
     <row r="5" spans="1:13" s="62" customFormat="1" ht="20" customHeight="1">
       <c r="A5" s="62" t="s">
@@ -37620,7 +37693,7 @@
       <c r="L5" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="M5" s="61" t="s">
+      <c r="M5" s="301" t="s">
         <v>105</v>
       </c>
     </row>
@@ -37656,7 +37729,7 @@
         <f>SUM(Debt[[#This Row],[BOND]:[CREDIT]])</f>
         <v>0</v>
       </c>
-      <c r="M6" s="103" t="str" cm="1">
+      <c r="M6" s="102" t="str" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.IFS(NOT(ISNUMBER(MATCH(Debt[[#This Row],[ACCOUNT]],'∷ Settings'!$H$16:$H$50,0))),"⚀",NOT(AND(Debt[[#This Row],[DATE]] &gt; DATE(2004,12,31),Debt[[#This Row],[DATE]] &lt; (TODAY()+1))),"⚁",NOT(OR(ISNUMBER(MATCH(Debt[[#This Row],[CATEGORY]],'∷ Settings'!$I$16:$I$50,0)),ISBLANK(Debt[[#This Row],[CATEGORY]]))),"⚃",AND(ISNUMBER(Debt[[#This Row],[OUTFLOW]]),ISNUMBER(Debt[[#This Row],[INFLOW]])),"⥂",AND(EXACT(Debt[[#This Row],[BRAND]],"Transfer"),ISNUMBER(Debt[[#This Row],[OUTFLOW]]),EXACT(Debt[[#This Row],[ITEM]],"Debit")),"⇢",AND(EXACT(Debt[[#This Row],[BRAND]],"Transfer"),ISNUMBER(Debt[[#This Row],[INFLOW]]),EXACT(Debt[[#This Row],[ITEM]],"Debit")),"⇠",TRUE,"●")</f>
         <v>●</v>
       </c>
@@ -37675,10 +37748,13 @@
       <formula2>47848</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="M5" r:id="rId1" xr:uid="{08E13F4F-0AE3-8E44-9A61-D3D5E5455FFB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -37697,196 +37773,199 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="180" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="179" customWidth="1"/>
-    <col min="3" max="3" width="55" style="175" customWidth="1"/>
-    <col min="4" max="4" width="65" style="175" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="175" customWidth="1"/>
-    <col min="6" max="6" width="29.5" style="175" customWidth="1"/>
-    <col min="7" max="7" width="49.5" style="175" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="177" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="178" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="177" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="177" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="177" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="176" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="175" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="174" hidden="1"/>
+    <col min="1" max="1" width="11.1640625" style="179" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="178" customWidth="1"/>
+    <col min="3" max="3" width="55" style="174" customWidth="1"/>
+    <col min="4" max="4" width="65" style="174" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="174" customWidth="1"/>
+    <col min="6" max="6" width="29.5" style="174" customWidth="1"/>
+    <col min="7" max="7" width="49.5" style="174" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="176" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="177" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="176" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="176" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="176" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="175" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="174" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="173" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="196" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="202"/>
-      <c r="B1" s="201"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="197"/>
-    </row>
-    <row r="2" spans="1:14" s="196" customFormat="1" ht="20" customHeight="1">
-      <c r="A2" s="202"/>
-      <c r="B2" s="201"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="286" t="s">
+    <row r="1" spans="1:14" s="195" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="201"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="196"/>
+    </row>
+    <row r="2" spans="1:14" s="195" customFormat="1" ht="20" customHeight="1">
+      <c r="A2" s="201"/>
+      <c r="B2" s="200"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="290" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="286"/>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="197"/>
-    </row>
-    <row r="3" spans="1:14" s="196" customFormat="1" ht="20" customHeight="1">
-      <c r="A3" s="202"/>
-      <c r="B3" s="201"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="286"/>
-      <c r="E3" s="286"/>
-      <c r="F3" s="286"/>
-      <c r="G3" s="286"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="200"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="199"/>
-      <c r="M3" s="198"/>
-      <c r="N3" s="197"/>
-    </row>
-    <row r="4" spans="1:14" s="196" customFormat="1" ht="20" customHeight="1">
-      <c r="A4" s="202"/>
-      <c r="B4" s="201"/>
-      <c r="C4" s="197"/>
-      <c r="D4" s="286"/>
-      <c r="E4" s="286"/>
-      <c r="F4" s="286"/>
-      <c r="G4" s="286"/>
-      <c r="H4" s="199"/>
-      <c r="I4" s="200"/>
-      <c r="J4" s="199"/>
-      <c r="K4" s="199"/>
-      <c r="L4" s="199"/>
-      <c r="M4" s="198"/>
-      <c r="N4" s="197"/>
-    </row>
-    <row r="5" spans="1:14" s="191" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="195" t="s">
+      <c r="E2" s="290"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="198"/>
+      <c r="L2" s="198"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="196"/>
+    </row>
+    <row r="3" spans="1:14" s="195" customFormat="1" ht="20" customHeight="1">
+      <c r="A3" s="201"/>
+      <c r="B3" s="200"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="198"/>
+      <c r="K3" s="198"/>
+      <c r="L3" s="198"/>
+      <c r="M3" s="197"/>
+      <c r="N3" s="196"/>
+    </row>
+    <row r="4" spans="1:14" s="195" customFormat="1" ht="20" customHeight="1">
+      <c r="A4" s="201"/>
+      <c r="B4" s="200"/>
+      <c r="C4" s="196"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="198"/>
+      <c r="I4" s="199"/>
+      <c r="J4" s="198"/>
+      <c r="K4" s="198"/>
+      <c r="L4" s="198"/>
+      <c r="M4" s="197"/>
+      <c r="N4" s="196"/>
+    </row>
+    <row r="5" spans="1:14" s="190" customFormat="1" ht="20" customHeight="1">
+      <c r="A5" s="194" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="194" t="s">
+      <c r="B5" s="193" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="194" t="s">
+      <c r="C5" s="193" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="194" t="s">
+      <c r="D5" s="193" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="194" t="s">
+      <c r="E5" s="193" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="194" t="s">
+      <c r="F5" s="193" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="194" t="s">
+      <c r="G5" s="193" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="192" t="s">
+      <c r="H5" s="191" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="193" t="s">
+      <c r="I5" s="192" t="s">
         <v>102</v>
       </c>
-      <c r="J5" s="192" t="s">
+      <c r="J5" s="191" t="s">
         <v>103</v>
       </c>
-      <c r="K5" s="192" t="s">
+      <c r="K5" s="191" t="s">
         <v>104</v>
       </c>
-      <c r="L5" s="192" t="s">
+      <c r="L5" s="191" t="s">
         <v>68</v>
       </c>
-      <c r="M5" s="191" t="s">
+      <c r="M5" s="301" t="s">
         <v>105</v>
       </c>
-      <c r="N5" s="191" t="s">
+      <c r="N5" s="190" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="20" customHeight="1">
-      <c r="A6" s="190">
+      <c r="A6" s="189">
         <v>38353</v>
       </c>
-      <c r="B6" s="189" t="s">
+      <c r="B6" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="188" t="s">
+      <c r="C6" s="187" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="187" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="186" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="186" t="s">
         <v>194</v>
       </c>
-      <c r="D6" s="188" t="s">
+      <c r="G6" s="186" t="s">
         <v>195</v>
       </c>
-      <c r="E6" s="187" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="187" t="s">
-        <v>196</v>
-      </c>
-      <c r="G6" s="187" t="s">
-        <v>197</v>
-      </c>
-      <c r="H6" s="184">
-        <v>0</v>
-      </c>
-      <c r="I6" s="186">
+      <c r="H6" s="183">
+        <v>0</v>
+      </c>
+      <c r="I6" s="185">
         <f ca="1">IF(Assets[[#This Row],[STATUS]]="Active",_xlfn.DAYS(TODAY(),A6)/365,0)</f>
-        <v>15.841095890410958</v>
-      </c>
-      <c r="J6" s="185">
+        <v>15.846575342465753</v>
+      </c>
+      <c r="J6" s="184">
         <f t="shared" ref="J6" si="0">IF(A6="","",IF($E6="Furniture",$H6/240,IF($E6="Appliances",$H6/120,IF($E6="Books",$H6/360,IF($E6="Tech",$H6/60,IF($E6="Miscellaneous",$H6/60,0))))))</f>
         <v>0</v>
       </c>
-      <c r="K6" s="184">
+      <c r="K6" s="183">
         <f t="shared" ref="K6" ca="1" si="1">MAX(IF(A6="","",IF($B6="Active",$H6-(DATEDIF($A6,TODAY(),"m")*($J6)),0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="183">
+      <c r="L6" s="182">
         <f ca="1">K6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="182" t="str" cm="1">
+      <c r="M6" s="181" t="str" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.IFS(NOT(OR(EXACT(Assets[[#This Row],[CATEGORY]],"Books"),EXACT(Assets[[#This Row],[CATEGORY]],"Miscellaneous"),EXACT(Assets[[#This Row],[CATEGORY]],"Art"),EXACT(Assets[[#This Row],[CATEGORY]],"Appliances"),EXACT(Assets[[#This Row],[CATEGORY]],"Tech"),EXACT(Assets[[#This Row],[CATEGORY]],"Furniture"))),"⚃",NOT(AND(Assets[[#This Row],[DATE]] &gt; DATE(2004,12,31),Assets[[#This Row],[DATE]] &lt; (TODAY()+1))),"⚀",AND(EXACT(Assets[[#This Row],[STATUS]],"Active"),Assets[[#This Row],[VALUE]]=0),"○",TRUE,"●")</f>
         <v>○</v>
       </c>
-      <c r="N6" s="181"/>
+      <c r="N6" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D2:G4"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Only 'Active' or 'Inactive' can be selected." promptTitle="Active / Inactive?" prompt="Active" sqref="B6:B7" xr:uid="{B4DD733F-2EFE-6247-8B3C-225E5215A540}">
       <formula1>"Active,Inactive"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="M5" r:id="rId1" xr:uid="{B7E7EDA6-E691-F94E-A0EC-18E19014A9EC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;P</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -37905,1407 +37984,1428 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1"/>
   <cols>
-    <col min="1" max="27" width="10.83203125" style="171" customWidth="1"/>
-    <col min="28" max="28" width="0" style="171" hidden="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.83203125" style="171" hidden="1"/>
+    <col min="1" max="27" width="10.83203125" style="170" customWidth="1"/>
+    <col min="28" max="28" width="0" style="170" hidden="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.83203125" style="170" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="170" customFormat="1" ht="18"/>
-    <row r="2" spans="1:28" s="170" customFormat="1" ht="18">
-      <c r="K2" s="289" t="s">
+    <row r="1" spans="1:28" s="169" customFormat="1" ht="18"/>
+    <row r="2" spans="1:28" s="169" customFormat="1" ht="18">
+      <c r="K2" s="298" t="s">
         <v>94</v>
       </c>
-      <c r="L2" s="290"/>
-      <c r="M2" s="290"/>
-      <c r="N2" s="290"/>
-      <c r="O2" s="290"/>
-      <c r="P2" s="290"/>
-      <c r="Q2" s="290"/>
-      <c r="R2" s="290"/>
-      <c r="S2" s="290"/>
-    </row>
-    <row r="3" spans="1:28" s="170" customFormat="1" ht="18">
-      <c r="K3" s="290"/>
-      <c r="L3" s="290"/>
-      <c r="M3" s="290"/>
-      <c r="N3" s="290"/>
-      <c r="O3" s="290"/>
-      <c r="P3" s="290"/>
-      <c r="Q3" s="290"/>
-      <c r="R3" s="290"/>
-      <c r="S3" s="290"/>
-    </row>
-    <row r="4" spans="1:28" s="170" customFormat="1" ht="18">
-      <c r="K4" s="290"/>
-      <c r="L4" s="290"/>
-      <c r="M4" s="290"/>
-      <c r="N4" s="290"/>
-      <c r="O4" s="290"/>
-      <c r="P4" s="290"/>
-      <c r="Q4" s="290"/>
-      <c r="R4" s="290"/>
-      <c r="S4" s="290"/>
-    </row>
-    <row r="5" spans="1:28" s="143" customFormat="1" ht="33">
-      <c r="A5" s="204"/>
-      <c r="B5" s="204"/>
-      <c r="C5" s="204"/>
-      <c r="D5" s="204"/>
-      <c r="E5" s="204"/>
-      <c r="F5" s="204"/>
-      <c r="G5" s="204"/>
-      <c r="H5" s="204"/>
-      <c r="I5" s="204"/>
-      <c r="K5" s="173"/>
-      <c r="L5" s="173"/>
-      <c r="M5" s="173"/>
-      <c r="N5" s="173"/>
-      <c r="O5" s="173"/>
-      <c r="P5" s="173"/>
-      <c r="Q5" s="173"/>
-      <c r="R5" s="173"/>
-      <c r="S5" s="204"/>
-      <c r="T5" s="204"/>
-      <c r="U5" s="204"/>
-      <c r="V5" s="204"/>
-      <c r="W5" s="204"/>
-      <c r="X5" s="204"/>
-      <c r="Y5" s="204"/>
-      <c r="Z5" s="204"/>
-    </row>
-    <row r="6" spans="1:28" s="143" customFormat="1" ht="33">
-      <c r="A6" s="204"/>
-      <c r="B6" s="204"/>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="206"/>
-      <c r="K6" s="173"/>
-      <c r="L6" s="173"/>
-      <c r="M6" s="173"/>
-      <c r="N6" s="173"/>
-      <c r="O6" s="173"/>
-      <c r="P6" s="173"/>
-      <c r="Q6" s="173"/>
-      <c r="R6" s="173"/>
-      <c r="S6" s="210"/>
-      <c r="T6" s="204"/>
-      <c r="U6" s="204"/>
-      <c r="V6" s="204"/>
-      <c r="W6" s="204"/>
-      <c r="X6" s="204"/>
-      <c r="Y6" s="204"/>
-      <c r="Z6" s="204"/>
-    </row>
-    <row r="7" spans="1:28" s="143" customFormat="1" ht="33">
-      <c r="A7" s="204"/>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="206"/>
-      <c r="K7" s="173"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="173"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="173"/>
-      <c r="R7" s="173"/>
-      <c r="S7" s="210"/>
-      <c r="T7" s="204"/>
-      <c r="U7" s="204"/>
-      <c r="V7" s="204"/>
-      <c r="W7" s="204"/>
-      <c r="X7" s="204"/>
-      <c r="Y7" s="204"/>
-      <c r="Z7" s="204"/>
-    </row>
-    <row r="8" spans="1:28" s="143" customFormat="1" ht="33">
-      <c r="A8" s="204"/>
-      <c r="B8" s="204"/>
-      <c r="C8" s="204"/>
-      <c r="D8" s="204"/>
-      <c r="E8" s="204"/>
-      <c r="F8" s="204"/>
-      <c r="G8" s="204"/>
-      <c r="H8" s="204"/>
-      <c r="I8" s="204"/>
-      <c r="J8" s="206"/>
-      <c r="K8" s="173"/>
-      <c r="L8" s="173"/>
-      <c r="M8" s="173"/>
-      <c r="N8" s="173"/>
-      <c r="O8" s="173"/>
-      <c r="P8" s="173"/>
-      <c r="Q8" s="173"/>
-      <c r="R8" s="173"/>
-      <c r="S8" s="210"/>
-      <c r="T8" s="204"/>
-      <c r="U8" s="204"/>
-      <c r="V8" s="204"/>
-      <c r="W8" s="204"/>
-      <c r="X8" s="204"/>
-      <c r="Y8" s="204"/>
-      <c r="Z8" s="204"/>
-    </row>
-    <row r="9" spans="1:28" s="143" customFormat="1" ht="33">
-      <c r="A9" s="204"/>
-      <c r="B9" s="287" t="s">
+      <c r="L2" s="299"/>
+      <c r="M2" s="299"/>
+      <c r="N2" s="299"/>
+      <c r="O2" s="299"/>
+      <c r="P2" s="299"/>
+      <c r="Q2" s="299"/>
+      <c r="R2" s="299"/>
+      <c r="S2" s="299"/>
+    </row>
+    <row r="3" spans="1:28" s="169" customFormat="1" ht="18">
+      <c r="K3" s="299"/>
+      <c r="L3" s="299"/>
+      <c r="M3" s="299"/>
+      <c r="N3" s="299"/>
+      <c r="O3" s="299"/>
+      <c r="P3" s="299"/>
+      <c r="Q3" s="299"/>
+      <c r="R3" s="299"/>
+      <c r="S3" s="299"/>
+    </row>
+    <row r="4" spans="1:28" s="169" customFormat="1" ht="18">
+      <c r="K4" s="299"/>
+      <c r="L4" s="299"/>
+      <c r="M4" s="299"/>
+      <c r="N4" s="299"/>
+      <c r="O4" s="299"/>
+      <c r="P4" s="299"/>
+      <c r="Q4" s="299"/>
+      <c r="R4" s="299"/>
+      <c r="S4" s="299"/>
+    </row>
+    <row r="5" spans="1:28" s="142" customFormat="1" ht="33">
+      <c r="A5" s="203"/>
+      <c r="B5" s="203"/>
+      <c r="C5" s="203"/>
+      <c r="D5" s="203"/>
+      <c r="E5" s="203"/>
+      <c r="F5" s="203"/>
+      <c r="G5" s="203"/>
+      <c r="H5" s="203"/>
+      <c r="I5" s="203"/>
+      <c r="K5" s="172"/>
+      <c r="L5" s="172"/>
+      <c r="M5" s="172"/>
+      <c r="N5" s="172"/>
+      <c r="O5" s="172"/>
+      <c r="P5" s="172"/>
+      <c r="Q5" s="172"/>
+      <c r="R5" s="172"/>
+      <c r="S5" s="203"/>
+      <c r="T5" s="203"/>
+      <c r="U5" s="203"/>
+      <c r="V5" s="203"/>
+      <c r="W5" s="203"/>
+      <c r="X5" s="203"/>
+      <c r="Y5" s="203"/>
+      <c r="Z5" s="203"/>
+    </row>
+    <row r="6" spans="1:28" s="142" customFormat="1" ht="33">
+      <c r="A6" s="203"/>
+      <c r="B6" s="203"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="203"/>
+      <c r="E6" s="203"/>
+      <c r="F6" s="203"/>
+      <c r="G6" s="203"/>
+      <c r="H6" s="203"/>
+      <c r="I6" s="203"/>
+      <c r="J6" s="205"/>
+      <c r="K6" s="172"/>
+      <c r="L6" s="172"/>
+      <c r="M6" s="172"/>
+      <c r="N6" s="172"/>
+      <c r="O6" s="172"/>
+      <c r="P6" s="172"/>
+      <c r="Q6" s="172"/>
+      <c r="R6" s="172"/>
+      <c r="S6" s="209"/>
+      <c r="T6" s="203"/>
+      <c r="U6" s="203"/>
+      <c r="V6" s="203"/>
+      <c r="W6" s="203"/>
+      <c r="X6" s="203"/>
+      <c r="Y6" s="203"/>
+      <c r="Z6" s="203"/>
+    </row>
+    <row r="7" spans="1:28" s="142" customFormat="1" ht="33">
+      <c r="A7" s="203"/>
+      <c r="B7" s="203"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="203"/>
+      <c r="F7" s="203"/>
+      <c r="G7" s="203"/>
+      <c r="H7" s="203"/>
+      <c r="I7" s="203"/>
+      <c r="J7" s="205"/>
+      <c r="K7" s="172"/>
+      <c r="L7" s="172"/>
+      <c r="M7" s="172"/>
+      <c r="N7" s="172"/>
+      <c r="O7" s="172"/>
+      <c r="P7" s="172"/>
+      <c r="Q7" s="172"/>
+      <c r="R7" s="172"/>
+      <c r="S7" s="209"/>
+      <c r="T7" s="203"/>
+      <c r="U7" s="203"/>
+      <c r="V7" s="203"/>
+      <c r="W7" s="203"/>
+      <c r="X7" s="203"/>
+      <c r="Y7" s="203"/>
+      <c r="Z7" s="203"/>
+    </row>
+    <row r="8" spans="1:28" s="142" customFormat="1" ht="33">
+      <c r="A8" s="203"/>
+      <c r="B8" s="203"/>
+      <c r="C8" s="203"/>
+      <c r="D8" s="203"/>
+      <c r="E8" s="203"/>
+      <c r="F8" s="203"/>
+      <c r="G8" s="203"/>
+      <c r="H8" s="203"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="205"/>
+      <c r="K8" s="172"/>
+      <c r="L8" s="172"/>
+      <c r="M8" s="172"/>
+      <c r="N8" s="172"/>
+      <c r="O8" s="172"/>
+      <c r="P8" s="172"/>
+      <c r="Q8" s="172"/>
+      <c r="R8" s="172"/>
+      <c r="S8" s="209"/>
+      <c r="T8" s="203"/>
+      <c r="U8" s="203"/>
+      <c r="V8" s="203"/>
+      <c r="W8" s="203"/>
+      <c r="X8" s="203"/>
+      <c r="Y8" s="203"/>
+      <c r="Z8" s="203"/>
+    </row>
+    <row r="9" spans="1:28" s="142" customFormat="1" ht="33">
+      <c r="A9" s="203"/>
+      <c r="B9" s="297" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="287"/>
-      <c r="D9" s="287"/>
-      <c r="E9" s="287"/>
-      <c r="F9" s="287"/>
-      <c r="G9" s="287"/>
-      <c r="H9" s="287"/>
-      <c r="I9" s="287"/>
-      <c r="J9" s="206"/>
-      <c r="K9" s="173"/>
-      <c r="L9" s="287" t="s">
+      <c r="C9" s="297"/>
+      <c r="D9" s="297"/>
+      <c r="E9" s="297"/>
+      <c r="F9" s="297"/>
+      <c r="G9" s="297"/>
+      <c r="H9" s="297"/>
+      <c r="I9" s="297"/>
+      <c r="J9" s="205"/>
+      <c r="K9" s="172"/>
+      <c r="L9" s="297" t="s">
         <v>177</v>
       </c>
-      <c r="M9" s="287"/>
-      <c r="N9" s="287"/>
-      <c r="O9" s="287"/>
-      <c r="P9" s="287"/>
-      <c r="Q9" s="287"/>
-      <c r="R9" s="287"/>
-      <c r="S9" s="210"/>
-      <c r="T9" s="204"/>
-      <c r="U9" s="287" t="s">
+      <c r="M9" s="297"/>
+      <c r="N9" s="297"/>
+      <c r="O9" s="297"/>
+      <c r="P9" s="297"/>
+      <c r="Q9" s="297"/>
+      <c r="R9" s="297"/>
+      <c r="S9" s="209"/>
+      <c r="T9" s="203"/>
+      <c r="U9" s="297" t="s">
         <v>178</v>
       </c>
-      <c r="V9" s="287"/>
-      <c r="W9" s="287"/>
-      <c r="X9" s="287"/>
-      <c r="Y9" s="287"/>
-      <c r="Z9" s="287"/>
-      <c r="AA9" s="287"/>
-    </row>
-    <row r="10" spans="1:28" s="143" customFormat="1" ht="33">
-      <c r="A10" s="204"/>
-      <c r="B10" s="287"/>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
-      <c r="G10" s="287"/>
-      <c r="H10" s="287"/>
-      <c r="I10" s="287"/>
-      <c r="J10" s="206"/>
-      <c r="K10" s="173"/>
-      <c r="L10" s="287"/>
-      <c r="M10" s="287"/>
-      <c r="N10" s="287"/>
-      <c r="O10" s="287"/>
-      <c r="P10" s="287"/>
-      <c r="Q10" s="287"/>
-      <c r="R10" s="287"/>
-      <c r="S10" s="210"/>
-      <c r="T10" s="204"/>
-      <c r="U10" s="287"/>
-      <c r="V10" s="287"/>
-      <c r="W10" s="287"/>
-      <c r="X10" s="287"/>
-      <c r="Y10" s="287"/>
-      <c r="Z10" s="287"/>
-      <c r="AA10" s="287"/>
-    </row>
-    <row r="11" spans="1:28" s="173" customFormat="1" ht="16" customHeight="1">
-      <c r="A11" s="204"/>
-      <c r="D11" s="287"/>
-      <c r="E11" s="287"/>
-      <c r="F11" s="287"/>
-      <c r="G11" s="287"/>
-      <c r="J11" s="206"/>
-      <c r="S11" s="211"/>
+      <c r="V9" s="297"/>
+      <c r="W9" s="297"/>
+      <c r="X9" s="297"/>
+      <c r="Y9" s="297"/>
+      <c r="Z9" s="297"/>
+      <c r="AA9" s="297"/>
+    </row>
+    <row r="10" spans="1:28" s="142" customFormat="1" ht="33">
+      <c r="A10" s="203"/>
+      <c r="B10" s="297"/>
+      <c r="C10" s="297"/>
+      <c r="D10" s="297"/>
+      <c r="E10" s="297"/>
+      <c r="F10" s="297"/>
+      <c r="G10" s="297"/>
+      <c r="H10" s="297"/>
+      <c r="I10" s="297"/>
+      <c r="J10" s="205"/>
+      <c r="K10" s="172"/>
+      <c r="L10" s="297"/>
+      <c r="M10" s="297"/>
+      <c r="N10" s="297"/>
+      <c r="O10" s="297"/>
+      <c r="P10" s="297"/>
+      <c r="Q10" s="297"/>
+      <c r="R10" s="297"/>
+      <c r="S10" s="209"/>
+      <c r="T10" s="203"/>
+      <c r="U10" s="297"/>
+      <c r="V10" s="297"/>
+      <c r="W10" s="297"/>
+      <c r="X10" s="297"/>
+      <c r="Y10" s="297"/>
+      <c r="Z10" s="297"/>
+      <c r="AA10" s="297"/>
+    </row>
+    <row r="11" spans="1:28" s="172" customFormat="1" ht="16" customHeight="1">
+      <c r="A11" s="203"/>
+      <c r="D11" s="297"/>
+      <c r="E11" s="297"/>
+      <c r="F11" s="297"/>
+      <c r="G11" s="297"/>
+      <c r="J11" s="205"/>
+      <c r="S11" s="210"/>
     </row>
     <row r="12" spans="1:28">
-      <c r="J12" s="207"/>
-      <c r="S12" s="212"/>
-    </row>
-    <row r="13" spans="1:28" s="205" customFormat="1" ht="20" customHeight="1">
-      <c r="B13" s="288" t="s">
+      <c r="J12" s="206"/>
+      <c r="S12" s="211"/>
+    </row>
+    <row r="13" spans="1:28" s="204" customFormat="1" ht="20" customHeight="1">
+      <c r="B13" s="296" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="288"/>
-      <c r="E13" s="288" t="s">
+      <c r="C13" s="296"/>
+      <c r="E13" s="296" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="288"/>
-      <c r="H13" s="288" t="s">
+      <c r="F13" s="296"/>
+      <c r="H13" s="296" t="s">
         <v>144</v>
       </c>
-      <c r="I13" s="288"/>
-      <c r="J13" s="208"/>
-      <c r="L13" s="205" t="s">
+      <c r="I13" s="296"/>
+      <c r="J13" s="207"/>
+      <c r="L13" s="204" t="s">
         <v>179</v>
       </c>
-      <c r="M13" s="288" t="s">
+      <c r="M13" s="296" t="s">
         <v>180</v>
       </c>
-      <c r="N13" s="288"/>
-      <c r="O13" s="288"/>
-      <c r="P13" s="288"/>
-      <c r="Q13" s="288" t="s">
+      <c r="N13" s="296"/>
+      <c r="O13" s="296"/>
+      <c r="P13" s="296"/>
+      <c r="Q13" s="296" t="s">
         <v>181</v>
       </c>
-      <c r="R13" s="288"/>
-      <c r="S13" s="213"/>
-      <c r="U13" s="288" t="s">
-        <v>183</v>
-      </c>
-      <c r="V13" s="288"/>
-      <c r="W13" s="288"/>
-      <c r="X13" s="288"/>
-      <c r="Y13" s="288"/>
-      <c r="Z13" s="288"/>
-      <c r="AA13" s="288"/>
-      <c r="AB13" s="221"/>
+      <c r="R13" s="296"/>
+      <c r="S13" s="212"/>
+      <c r="U13" s="296" t="s">
+        <v>199</v>
+      </c>
+      <c r="V13" s="296"/>
+      <c r="W13" s="296"/>
+      <c r="X13" s="296"/>
+      <c r="Y13" s="296"/>
+      <c r="Z13" s="296"/>
+      <c r="AA13" s="296"/>
+      <c r="AB13" s="220"/>
     </row>
     <row r="14" spans="1:28" ht="20" customHeight="1">
-      <c r="J14" s="207"/>
-      <c r="S14" s="212"/>
-    </row>
-    <row r="15" spans="1:28" s="169" customFormat="1" ht="20" customHeight="1">
-      <c r="B15" s="167" t="s">
+      <c r="J14" s="206"/>
+      <c r="S14" s="211"/>
+    </row>
+    <row r="15" spans="1:28" s="168" customFormat="1" ht="20" customHeight="1">
+      <c r="B15" s="166" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="167" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="168"/>
-      <c r="E15" s="167" t="s">
+      <c r="C15" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="167"/>
+      <c r="E15" s="166" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="167" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="168"/>
-      <c r="H15" s="167" t="s">
+      <c r="F15" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="167"/>
+      <c r="H15" s="166" t="s">
         <v>93</v>
       </c>
-      <c r="I15" s="167" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="209"/>
-      <c r="L15" s="216">
+      <c r="I15" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="208"/>
+      <c r="L15" s="215">
         <v>0.4</v>
       </c>
-      <c r="M15" s="291" t="s">
+      <c r="M15" s="292" t="s">
         <v>77</v>
       </c>
-      <c r="N15" s="291"/>
-      <c r="O15" s="291"/>
-      <c r="P15" s="291"/>
+      <c r="N15" s="292"/>
+      <c r="O15" s="292"/>
+      <c r="P15" s="292"/>
       <c r="Q15" s="294">
         <f ca="1">IFERROR((Data!U3-Data!U6)/Data!U3,0)</f>
         <v>0</v>
       </c>
       <c r="R15" s="294"/>
-      <c r="S15" s="214"/>
-      <c r="U15" s="295" t="s">
+      <c r="S15" s="213"/>
+      <c r="U15" s="300" t="s">
+        <v>183</v>
+      </c>
+      <c r="V15" s="300"/>
+      <c r="W15" s="300"/>
+      <c r="X15" s="300"/>
+      <c r="Y15" s="300"/>
+      <c r="Z15" s="300"/>
+      <c r="AA15" s="300"/>
+    </row>
+    <row r="16" spans="1:28" ht="20" customHeight="1">
+      <c r="B16" s="171" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="171" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="171"/>
+      <c r="E16" s="171" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="171" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="171"/>
+      <c r="H16" s="171" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="171" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="206"/>
+      <c r="L16" s="168"/>
+      <c r="M16" s="168"/>
+      <c r="N16" s="168"/>
+      <c r="O16" s="168"/>
+      <c r="P16" s="168"/>
+      <c r="Q16" s="168"/>
+      <c r="R16" s="168"/>
+      <c r="S16" s="211"/>
+      <c r="U16" s="300" t="s">
         <v>184</v>
       </c>
-      <c r="V15" s="295"/>
-      <c r="W15" s="295"/>
-      <c r="X15" s="295"/>
-      <c r="Y15" s="295"/>
-      <c r="Z15" s="295"/>
-      <c r="AA15" s="295"/>
-    </row>
-    <row r="16" spans="1:28" ht="20" customHeight="1">
-      <c r="B16" s="172" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="172" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="172" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="172"/>
-      <c r="H16" s="172" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="172" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="207"/>
-      <c r="L16" s="169"/>
-      <c r="M16" s="169"/>
-      <c r="N16" s="169"/>
-      <c r="O16" s="169"/>
-      <c r="P16" s="169"/>
-      <c r="Q16" s="169"/>
-      <c r="R16" s="169"/>
-      <c r="S16" s="212"/>
-      <c r="U16" s="295" t="s">
-        <v>185</v>
-      </c>
-      <c r="V16" s="295"/>
-      <c r="W16" s="295"/>
-      <c r="X16" s="295"/>
-      <c r="Y16" s="295"/>
-      <c r="Z16" s="295"/>
-      <c r="AA16" s="295"/>
+      <c r="V16" s="300"/>
+      <c r="W16" s="300"/>
+      <c r="X16" s="300"/>
+      <c r="Y16" s="300"/>
+      <c r="Z16" s="300"/>
+      <c r="AA16" s="300"/>
     </row>
     <row r="17" spans="2:27" ht="20" customHeight="1">
-      <c r="B17" s="172" t="s">
+      <c r="B17" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="172" t="s">
+      <c r="C17" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172" t="s">
+      <c r="D17" s="171"/>
+      <c r="E17" s="171" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="172" t="s">
+      <c r="F17" s="171" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172" t="s">
+      <c r="G17" s="171"/>
+      <c r="H17" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="172"/>
-      <c r="J17" s="207"/>
-      <c r="L17" s="217" t="s">
+      <c r="I17" s="171"/>
+      <c r="J17" s="206"/>
+      <c r="L17" s="216" t="s">
         <v>80</v>
       </c>
-      <c r="M17" s="291" t="s">
+      <c r="M17" s="292" t="s">
         <v>78</v>
       </c>
-      <c r="N17" s="291"/>
-      <c r="O17" s="291"/>
-      <c r="P17" s="291"/>
-      <c r="Q17" s="292" cm="1">
+      <c r="N17" s="292"/>
+      <c r="O17" s="292"/>
+      <c r="P17" s="292"/>
+      <c r="Q17" s="295" cm="1">
         <f t="array" ref="Q17">LOOKUP(2,1/('× Investment'!$I:$I&lt;&gt;""),'× Investment'!$I:$I)-30000</f>
         <v>-30000</v>
       </c>
-      <c r="R17" s="292"/>
-      <c r="S17" s="212"/>
-      <c r="U17" s="295" t="s">
+      <c r="R17" s="295"/>
+      <c r="S17" s="211"/>
+      <c r="U17" s="300" t="s">
+        <v>185</v>
+      </c>
+      <c r="V17" s="300"/>
+      <c r="W17" s="300"/>
+      <c r="X17" s="300"/>
+      <c r="Y17" s="300"/>
+      <c r="Z17" s="300"/>
+      <c r="AA17" s="300"/>
+    </row>
+    <row r="18" spans="2:27" ht="20" customHeight="1">
+      <c r="B18" s="171" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="171" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="171"/>
+      <c r="E18" s="171" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="171" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="171"/>
+      <c r="H18" s="171" t="s">
+        <v>156</v>
+      </c>
+      <c r="I18" s="171"/>
+      <c r="J18" s="206"/>
+      <c r="L18" s="168"/>
+      <c r="M18" s="168"/>
+      <c r="N18" s="168"/>
+      <c r="O18" s="168"/>
+      <c r="P18" s="168"/>
+      <c r="Q18" s="168"/>
+      <c r="R18" s="168"/>
+      <c r="S18" s="211"/>
+      <c r="U18" s="300" t="s">
         <v>186</v>
       </c>
-      <c r="V17" s="295"/>
-      <c r="W17" s="295"/>
-      <c r="X17" s="295"/>
-      <c r="Y17" s="295"/>
-      <c r="Z17" s="295"/>
-      <c r="AA17" s="295"/>
-    </row>
-    <row r="18" spans="2:27" ht="20" customHeight="1">
-      <c r="B18" s="172" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="172" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="172"/>
-      <c r="E18" s="172" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="172" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172" t="s">
-        <v>156</v>
-      </c>
-      <c r="I18" s="172"/>
-      <c r="J18" s="207"/>
-      <c r="L18" s="169"/>
-      <c r="M18" s="169"/>
-      <c r="N18" s="169"/>
-      <c r="O18" s="169"/>
-      <c r="P18" s="169"/>
-      <c r="Q18" s="169"/>
-      <c r="R18" s="169"/>
-      <c r="S18" s="212"/>
-      <c r="U18" s="295" t="s">
-        <v>187</v>
-      </c>
-      <c r="V18" s="295"/>
-      <c r="W18" s="295"/>
-      <c r="X18" s="295"/>
-      <c r="Y18" s="295"/>
-      <c r="Z18" s="295"/>
-      <c r="AA18" s="295"/>
+      <c r="V18" s="300"/>
+      <c r="W18" s="300"/>
+      <c r="X18" s="300"/>
+      <c r="Y18" s="300"/>
+      <c r="Z18" s="300"/>
+      <c r="AA18" s="300"/>
     </row>
     <row r="19" spans="2:27" ht="20" customHeight="1">
-      <c r="B19" s="172" t="s">
+      <c r="B19" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="172" t="s">
+      <c r="C19" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="172"/>
-      <c r="E19" s="172" t="s">
+      <c r="D19" s="171"/>
+      <c r="E19" s="171" t="s">
         <v>153</v>
       </c>
-      <c r="F19" s="172" t="s">
+      <c r="F19" s="171" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="172"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="207"/>
-      <c r="L19" s="217" t="s">
+      <c r="G19" s="171"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="171"/>
+      <c r="J19" s="206"/>
+      <c r="L19" s="216" t="s">
         <v>79</v>
       </c>
-      <c r="M19" s="291" t="s">
-        <v>198</v>
-      </c>
-      <c r="N19" s="291"/>
-      <c r="O19" s="291"/>
-      <c r="P19" s="291"/>
-      <c r="Q19" s="292" cm="1">
+      <c r="M19" s="292" t="s">
+        <v>196</v>
+      </c>
+      <c r="N19" s="292"/>
+      <c r="O19" s="292"/>
+      <c r="P19" s="292"/>
+      <c r="Q19" s="295" cm="1">
         <f t="array" ref="Q19">LOOKUP(2,1/('× Investment'!J:J&lt;&gt;""),'× Investment'!J:J)-400000</f>
         <v>-400000</v>
       </c>
-      <c r="R19" s="292"/>
-      <c r="S19" s="212"/>
-      <c r="U19" s="295" t="s">
-        <v>188</v>
-      </c>
-      <c r="V19" s="295"/>
-      <c r="W19" s="295"/>
-      <c r="X19" s="295"/>
-      <c r="Y19" s="295"/>
-      <c r="Z19" s="295"/>
-      <c r="AA19" s="295"/>
+      <c r="R19" s="295"/>
+      <c r="S19" s="211"/>
+      <c r="U19" s="300" t="s">
+        <v>187</v>
+      </c>
+      <c r="V19" s="300"/>
+      <c r="W19" s="300"/>
+      <c r="X19" s="300"/>
+      <c r="Y19" s="300"/>
+      <c r="Z19" s="300"/>
+      <c r="AA19" s="300"/>
     </row>
     <row r="20" spans="2:27" ht="20" customHeight="1">
-      <c r="B20" s="172" t="s">
+      <c r="B20" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="172" t="s">
+      <c r="C20" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172" t="s">
+      <c r="D20" s="171"/>
+      <c r="E20" s="171" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="172" t="s">
+      <c r="F20" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="172"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="172"/>
-      <c r="J20" s="207"/>
-      <c r="L20" s="169"/>
-      <c r="M20" s="169"/>
-      <c r="N20" s="169"/>
-      <c r="O20" s="169"/>
-      <c r="P20" s="169"/>
-      <c r="Q20" s="169"/>
-      <c r="R20" s="169"/>
-      <c r="S20" s="212"/>
-      <c r="U20" s="295" t="s">
-        <v>193</v>
-      </c>
-      <c r="V20" s="295"/>
-      <c r="W20" s="295"/>
-      <c r="X20" s="295"/>
-      <c r="Y20" s="295"/>
-      <c r="Z20" s="295"/>
-      <c r="AA20" s="295"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="206"/>
+      <c r="L20" s="168"/>
+      <c r="M20" s="168"/>
+      <c r="N20" s="168"/>
+      <c r="O20" s="168"/>
+      <c r="P20" s="168"/>
+      <c r="Q20" s="168"/>
+      <c r="R20" s="168"/>
+      <c r="S20" s="211"/>
+      <c r="U20" s="300" t="s">
+        <v>191</v>
+      </c>
+      <c r="V20" s="300"/>
+      <c r="W20" s="300"/>
+      <c r="X20" s="300"/>
+      <c r="Y20" s="300"/>
+      <c r="Z20" s="300"/>
+      <c r="AA20" s="300"/>
     </row>
     <row r="21" spans="2:27" ht="20" customHeight="1">
-      <c r="B21" s="172" t="s">
+      <c r="B21" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="172" t="s">
+      <c r="C21" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="172"/>
-      <c r="E21" s="172" t="s">
+      <c r="D21" s="171"/>
+      <c r="E21" s="171" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="172" t="s">
+      <c r="F21" s="171" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="207"/>
-      <c r="L21" s="217" t="s">
+      <c r="G21" s="171"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="206"/>
+      <c r="L21" s="216" t="s">
         <v>128</v>
       </c>
-      <c r="M21" s="291" t="s">
+      <c r="M21" s="292" t="s">
         <v>81</v>
       </c>
-      <c r="N21" s="291"/>
-      <c r="O21" s="291"/>
-      <c r="P21" s="291"/>
-      <c r="Q21" s="292" cm="1">
+      <c r="N21" s="292"/>
+      <c r="O21" s="292"/>
+      <c r="P21" s="292"/>
+      <c r="Q21" s="295" cm="1">
         <f t="array" ref="Q21">LOOKUP(2,1/('× Investment'!$I:$I&lt;&gt;""),'× Investment'!$I:$I)-25000</f>
         <v>-25000</v>
       </c>
-      <c r="R21" s="292"/>
-      <c r="S21" s="212"/>
-      <c r="U21" s="295" t="s">
-        <v>189</v>
-      </c>
-      <c r="V21" s="295"/>
-      <c r="W21" s="295"/>
-      <c r="X21" s="295"/>
-      <c r="Y21" s="295"/>
-      <c r="Z21" s="295"/>
-      <c r="AA21" s="295"/>
+      <c r="R21" s="295"/>
+      <c r="S21" s="211"/>
+      <c r="U21" s="300" t="s">
+        <v>188</v>
+      </c>
+      <c r="V21" s="300"/>
+      <c r="W21" s="300"/>
+      <c r="X21" s="300"/>
+      <c r="Y21" s="300"/>
+      <c r="Z21" s="300"/>
+      <c r="AA21" s="300"/>
     </row>
     <row r="22" spans="2:27" ht="20" customHeight="1">
-      <c r="B22" s="172"/>
-      <c r="C22" s="172" t="s">
+      <c r="B22" s="171"/>
+      <c r="C22" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="172"/>
-      <c r="E22" s="172" t="s">
+      <c r="D22" s="171"/>
+      <c r="E22" s="171" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="172" t="s">
+      <c r="F22" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="172"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="207"/>
-      <c r="L22" s="169"/>
-      <c r="M22" s="169"/>
-      <c r="N22" s="169"/>
-      <c r="O22" s="169"/>
-      <c r="P22" s="169"/>
-      <c r="Q22" s="169"/>
-      <c r="R22" s="169"/>
-      <c r="S22" s="212"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="206"/>
+      <c r="L22" s="168"/>
+      <c r="M22" s="168"/>
+      <c r="N22" s="168"/>
+      <c r="O22" s="168"/>
+      <c r="P22" s="168"/>
+      <c r="Q22" s="168"/>
+      <c r="R22" s="168"/>
+      <c r="S22" s="211"/>
     </row>
     <row r="23" spans="2:27" ht="20" customHeight="1">
-      <c r="B23" s="172"/>
-      <c r="C23" s="172" t="s">
+      <c r="B23" s="171"/>
+      <c r="C23" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="172"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="207"/>
-      <c r="L23" s="217" t="s">
+      <c r="D23" s="171"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="171"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="206"/>
+      <c r="L23" s="216" t="s">
         <v>83</v>
       </c>
-      <c r="M23" s="291" t="s">
+      <c r="M23" s="292" t="s">
         <v>82</v>
       </c>
-      <c r="N23" s="291"/>
-      <c r="O23" s="291"/>
-      <c r="P23" s="291"/>
+      <c r="N23" s="292"/>
+      <c r="O23" s="292"/>
+      <c r="P23" s="292"/>
       <c r="Q23" s="293">
         <f ca="1">AVERAGE('+ Assets'!I:I)</f>
-        <v>15.841095890410958</v>
+        <v>15.846575342465753</v>
       </c>
       <c r="R23" s="293"/>
-      <c r="S23" s="212"/>
-      <c r="X23" s="219" t="s">
+      <c r="S23" s="211"/>
+      <c r="X23" s="218" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" ht="20" customHeight="1">
+      <c r="B24" s="171"/>
+      <c r="C24" s="171" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="171"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="206"/>
+      <c r="L24" s="168"/>
+      <c r="M24" s="168"/>
+      <c r="N24" s="168"/>
+      <c r="O24" s="168"/>
+      <c r="P24" s="168"/>
+      <c r="Q24" s="168"/>
+      <c r="R24" s="168"/>
+      <c r="S24" s="211"/>
+    </row>
+    <row r="25" spans="2:27" ht="20" customHeight="1">
+      <c r="B25" s="171"/>
+      <c r="C25" s="171" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="171"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="171"/>
+      <c r="J25" s="206"/>
+      <c r="L25" s="168"/>
+      <c r="M25" s="168"/>
+      <c r="N25" s="168"/>
+      <c r="O25" s="168"/>
+      <c r="P25" s="168"/>
+      <c r="Q25" s="168"/>
+      <c r="R25" s="168"/>
+      <c r="S25" s="211"/>
+      <c r="U25" s="291" t="s">
+        <v>198</v>
+      </c>
+      <c r="V25" s="291"/>
+      <c r="W25" s="291"/>
+      <c r="X25" s="291"/>
+      <c r="Y25" s="291"/>
+      <c r="Z25" s="291"/>
+      <c r="AA25" s="291"/>
+    </row>
+    <row r="26" spans="2:27" ht="20" customHeight="1">
+      <c r="B26" s="171"/>
+      <c r="C26" s="171" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="171"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="171"/>
+      <c r="J26" s="206"/>
+      <c r="L26" s="168"/>
+      <c r="M26" s="168"/>
+      <c r="N26" s="168"/>
+      <c r="O26" s="168"/>
+      <c r="P26" s="168"/>
+      <c r="Q26" s="168"/>
+      <c r="R26" s="168"/>
+      <c r="S26" s="211"/>
+      <c r="U26" s="300" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="24" spans="2:27" ht="20" customHeight="1">
-      <c r="B24" s="172"/>
-      <c r="C24" s="172" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="172"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="207"/>
-      <c r="L24" s="169"/>
-      <c r="M24" s="169"/>
-      <c r="N24" s="169"/>
-      <c r="O24" s="169"/>
-      <c r="P24" s="169"/>
-      <c r="Q24" s="169"/>
-      <c r="R24" s="169"/>
-      <c r="S24" s="212"/>
-    </row>
-    <row r="25" spans="2:27" ht="20" customHeight="1">
-      <c r="B25" s="172"/>
-      <c r="C25" s="172" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="172"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="172"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="172"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="207"/>
-      <c r="L25" s="169"/>
-      <c r="M25" s="169"/>
-      <c r="N25" s="169"/>
-      <c r="O25" s="169"/>
-      <c r="P25" s="169"/>
-      <c r="Q25" s="169"/>
-      <c r="R25" s="169"/>
-      <c r="S25" s="212"/>
-      <c r="U25" s="296" t="s">
-        <v>191</v>
-      </c>
-      <c r="V25" s="296"/>
-      <c r="W25" s="296"/>
-      <c r="X25" s="296"/>
-      <c r="Y25" s="296"/>
-      <c r="Z25" s="296"/>
-      <c r="AA25" s="296"/>
-    </row>
-    <row r="26" spans="2:27" ht="20" customHeight="1">
-      <c r="B26" s="172"/>
-      <c r="C26" s="172" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="172"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="207"/>
-      <c r="L26" s="169"/>
-      <c r="M26" s="169"/>
-      <c r="N26" s="169"/>
-      <c r="O26" s="169"/>
-      <c r="P26" s="169"/>
-      <c r="Q26" s="169"/>
-      <c r="R26" s="169"/>
-      <c r="S26" s="212"/>
-      <c r="U26" s="296" t="s">
-        <v>192</v>
-      </c>
-      <c r="V26" s="296"/>
-      <c r="W26" s="296"/>
-      <c r="X26" s="296"/>
-      <c r="Y26" s="296"/>
-      <c r="Z26" s="296"/>
-      <c r="AA26" s="296"/>
+      <c r="V26" s="300"/>
+      <c r="W26" s="300"/>
+      <c r="X26" s="300"/>
+      <c r="Y26" s="300"/>
+      <c r="Z26" s="300"/>
+      <c r="AA26" s="300"/>
     </row>
     <row r="27" spans="2:27" ht="20" customHeight="1">
-      <c r="B27" s="172"/>
-      <c r="C27" s="172" t="s">
+      <c r="B27" s="171"/>
+      <c r="C27" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="172"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="207"/>
-      <c r="L27" s="169"/>
-      <c r="M27" s="169"/>
-      <c r="N27" s="169"/>
-      <c r="O27" s="169"/>
-      <c r="P27" s="169"/>
-      <c r="Q27" s="169"/>
-      <c r="R27" s="169"/>
-      <c r="S27" s="212"/>
+      <c r="D27" s="171"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="171"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="206"/>
+      <c r="L27" s="168"/>
+      <c r="M27" s="168"/>
+      <c r="N27" s="168"/>
+      <c r="O27" s="168"/>
+      <c r="P27" s="168"/>
+      <c r="Q27" s="168"/>
+      <c r="R27" s="168"/>
+      <c r="S27" s="211"/>
     </row>
     <row r="28" spans="2:27" ht="20" customHeight="1">
-      <c r="B28" s="172"/>
-      <c r="C28" s="172" t="s">
+      <c r="B28" s="171"/>
+      <c r="C28" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="172"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="207"/>
-      <c r="L28" s="169"/>
-      <c r="M28" s="169"/>
-      <c r="N28" s="169"/>
-      <c r="O28" s="169"/>
-      <c r="P28" s="169"/>
-      <c r="Q28" s="169"/>
-      <c r="R28" s="169"/>
-      <c r="S28" s="212"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="171"/>
+      <c r="J28" s="206"/>
+      <c r="L28" s="168"/>
+      <c r="M28" s="168"/>
+      <c r="N28" s="168"/>
+      <c r="O28" s="168"/>
+      <c r="P28" s="168"/>
+      <c r="Q28" s="168"/>
+      <c r="R28" s="168"/>
+      <c r="S28" s="211"/>
     </row>
     <row r="29" spans="2:27" ht="20" customHeight="1">
-      <c r="B29" s="172"/>
-      <c r="C29" s="172" t="s">
+      <c r="B29" s="171"/>
+      <c r="C29" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="172"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="172"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="207"/>
-      <c r="L29" s="169"/>
-      <c r="M29" s="169"/>
-      <c r="N29" s="169"/>
-      <c r="O29" s="169"/>
-      <c r="P29" s="169"/>
-      <c r="Q29" s="169"/>
-      <c r="R29" s="169"/>
-      <c r="S29" s="212"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="171"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="206"/>
+      <c r="L29" s="168"/>
+      <c r="M29" s="168"/>
+      <c r="N29" s="168"/>
+      <c r="O29" s="168"/>
+      <c r="P29" s="168"/>
+      <c r="Q29" s="168"/>
+      <c r="R29" s="168"/>
+      <c r="S29" s="211"/>
     </row>
     <row r="30" spans="2:27" ht="20" customHeight="1">
-      <c r="B30" s="172"/>
-      <c r="C30" s="172" t="s">
+      <c r="B30" s="171"/>
+      <c r="C30" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="172"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="172"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="207"/>
-      <c r="L30" s="169"/>
-      <c r="M30" s="169"/>
-      <c r="N30" s="169"/>
-      <c r="O30" s="169"/>
-      <c r="P30" s="169"/>
-      <c r="Q30" s="169"/>
-      <c r="R30" s="169"/>
-      <c r="S30" s="212"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="171"/>
+      <c r="J30" s="206"/>
+      <c r="L30" s="168"/>
+      <c r="M30" s="168"/>
+      <c r="N30" s="168"/>
+      <c r="O30" s="168"/>
+      <c r="P30" s="168"/>
+      <c r="Q30" s="168"/>
+      <c r="R30" s="168"/>
+      <c r="S30" s="211"/>
     </row>
     <row r="31" spans="2:27" ht="20" customHeight="1">
-      <c r="B31" s="172"/>
-      <c r="C31" s="172" t="s">
+      <c r="B31" s="171"/>
+      <c r="C31" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="172"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="172"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="207"/>
-      <c r="L31" s="169"/>
-      <c r="M31" s="169"/>
-      <c r="N31" s="169"/>
-      <c r="O31" s="169"/>
-      <c r="P31" s="169"/>
-      <c r="Q31" s="169"/>
-      <c r="R31" s="169"/>
-      <c r="S31" s="212"/>
+      <c r="D31" s="171"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="171"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="171"/>
+      <c r="I31" s="171"/>
+      <c r="J31" s="206"/>
+      <c r="L31" s="168"/>
+      <c r="M31" s="168"/>
+      <c r="N31" s="168"/>
+      <c r="O31" s="168"/>
+      <c r="P31" s="168"/>
+      <c r="Q31" s="168"/>
+      <c r="R31" s="168"/>
+      <c r="S31" s="211"/>
     </row>
     <row r="32" spans="2:27" ht="20" customHeight="1">
-      <c r="B32" s="172"/>
-      <c r="C32" s="172" t="s">
+      <c r="B32" s="171"/>
+      <c r="C32" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="172"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="172"/>
-      <c r="I32" s="172"/>
-      <c r="J32" s="207"/>
-      <c r="L32" s="169"/>
-      <c r="M32" s="169"/>
-      <c r="N32" s="169"/>
-      <c r="O32" s="169"/>
-      <c r="P32" s="169"/>
-      <c r="Q32" s="169"/>
-      <c r="R32" s="169"/>
-      <c r="S32" s="212"/>
+      <c r="D32" s="171"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="171"/>
+      <c r="G32" s="171"/>
+      <c r="H32" s="171"/>
+      <c r="I32" s="171"/>
+      <c r="J32" s="206"/>
+      <c r="L32" s="168"/>
+      <c r="M32" s="168"/>
+      <c r="N32" s="168"/>
+      <c r="O32" s="168"/>
+      <c r="P32" s="168"/>
+      <c r="Q32" s="168"/>
+      <c r="R32" s="168"/>
+      <c r="S32" s="211"/>
     </row>
     <row r="33" spans="2:19" ht="20" customHeight="1">
-      <c r="B33" s="172"/>
-      <c r="C33" s="172"/>
-      <c r="D33" s="172"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="172"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="207"/>
-      <c r="L33" s="169"/>
-      <c r="M33" s="169"/>
-      <c r="N33" s="169"/>
-      <c r="O33" s="169"/>
-      <c r="P33" s="169"/>
-      <c r="Q33" s="169"/>
-      <c r="R33" s="169"/>
-      <c r="S33" s="212"/>
+      <c r="B33" s="171"/>
+      <c r="C33" s="171"/>
+      <c r="D33" s="171"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="171"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="206"/>
+      <c r="L33" s="168"/>
+      <c r="M33" s="168"/>
+      <c r="N33" s="168"/>
+      <c r="O33" s="168"/>
+      <c r="P33" s="168"/>
+      <c r="Q33" s="168"/>
+      <c r="R33" s="168"/>
+      <c r="S33" s="211"/>
     </row>
     <row r="34" spans="2:19" ht="20" customHeight="1">
-      <c r="B34" s="172"/>
-      <c r="C34" s="172"/>
-      <c r="D34" s="172"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="207"/>
-      <c r="L34" s="169"/>
-      <c r="M34" s="169"/>
-      <c r="N34" s="169"/>
-      <c r="O34" s="169"/>
-      <c r="P34" s="169"/>
-      <c r="Q34" s="169"/>
-      <c r="R34" s="169"/>
-      <c r="S34" s="212"/>
+      <c r="B34" s="171"/>
+      <c r="C34" s="171"/>
+      <c r="D34" s="171"/>
+      <c r="E34" s="171"/>
+      <c r="F34" s="171"/>
+      <c r="G34" s="171"/>
+      <c r="H34" s="171"/>
+      <c r="I34" s="171"/>
+      <c r="J34" s="206"/>
+      <c r="L34" s="168"/>
+      <c r="M34" s="168"/>
+      <c r="N34" s="168"/>
+      <c r="O34" s="168"/>
+      <c r="P34" s="168"/>
+      <c r="Q34" s="168"/>
+      <c r="R34" s="168"/>
+      <c r="S34" s="211"/>
     </row>
     <row r="35" spans="2:19" ht="20" customHeight="1">
-      <c r="B35" s="172"/>
-      <c r="C35" s="172"/>
-      <c r="D35" s="172"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="207"/>
-      <c r="S35" s="212"/>
+      <c r="B35" s="171"/>
+      <c r="C35" s="171"/>
+      <c r="D35" s="171"/>
+      <c r="E35" s="171"/>
+      <c r="F35" s="171"/>
+      <c r="G35" s="171"/>
+      <c r="H35" s="171"/>
+      <c r="I35" s="171"/>
+      <c r="J35" s="206"/>
+      <c r="S35" s="211"/>
     </row>
     <row r="36" spans="2:19" ht="20" customHeight="1">
-      <c r="J36" s="207"/>
-      <c r="L36" s="172"/>
-      <c r="M36" s="172"/>
-      <c r="N36" s="172"/>
-      <c r="O36" s="172"/>
-      <c r="P36" s="172"/>
-      <c r="Q36" s="172"/>
-      <c r="R36" s="172"/>
-      <c r="S36" s="215"/>
+      <c r="J36" s="206"/>
+      <c r="L36" s="171"/>
+      <c r="M36" s="171"/>
+      <c r="N36" s="171"/>
+      <c r="O36" s="171"/>
+      <c r="P36" s="171"/>
+      <c r="Q36" s="171"/>
+      <c r="R36" s="171"/>
+      <c r="S36" s="214"/>
     </row>
     <row r="37" spans="2:19" ht="20" customHeight="1">
-      <c r="J37" s="207"/>
-      <c r="L37" s="172"/>
-      <c r="M37" s="172"/>
-      <c r="N37" s="172"/>
-      <c r="O37" s="172"/>
-      <c r="P37" s="172"/>
-      <c r="Q37" s="172"/>
-      <c r="R37" s="172"/>
-      <c r="S37" s="215"/>
+      <c r="J37" s="206"/>
+      <c r="L37" s="171"/>
+      <c r="M37" s="171"/>
+      <c r="N37" s="171"/>
+      <c r="O37" s="171"/>
+      <c r="P37" s="171"/>
+      <c r="Q37" s="171"/>
+      <c r="R37" s="171"/>
+      <c r="S37" s="214"/>
     </row>
     <row r="38" spans="2:19">
-      <c r="L38" s="172"/>
-      <c r="M38" s="172"/>
-      <c r="N38" s="172"/>
-      <c r="O38" s="172"/>
-      <c r="P38" s="172"/>
-      <c r="Q38" s="172"/>
-      <c r="R38" s="172"/>
-      <c r="S38" s="172"/>
+      <c r="L38" s="171"/>
+      <c r="M38" s="171"/>
+      <c r="N38" s="171"/>
+      <c r="O38" s="171"/>
+      <c r="P38" s="171"/>
+      <c r="Q38" s="171"/>
+      <c r="R38" s="171"/>
+      <c r="S38" s="171"/>
     </row>
     <row r="39" spans="2:19">
-      <c r="L39" s="172"/>
-      <c r="M39" s="172"/>
-      <c r="N39" s="172"/>
-      <c r="O39" s="172"/>
-      <c r="P39" s="172"/>
-      <c r="Q39" s="172"/>
-      <c r="R39" s="172"/>
-      <c r="S39" s="172"/>
+      <c r="L39" s="171"/>
+      <c r="M39" s="171"/>
+      <c r="N39" s="171"/>
+      <c r="O39" s="171"/>
+      <c r="P39" s="171"/>
+      <c r="Q39" s="171"/>
+      <c r="R39" s="171"/>
+      <c r="S39" s="171"/>
     </row>
     <row r="40" spans="2:19" hidden="1">
-      <c r="L40" s="172"/>
-      <c r="M40" s="172"/>
-      <c r="N40" s="172"/>
-      <c r="O40" s="172"/>
-      <c r="P40" s="172"/>
-      <c r="Q40" s="172"/>
-      <c r="R40" s="172"/>
-      <c r="S40" s="172"/>
+      <c r="L40" s="171"/>
+      <c r="M40" s="171"/>
+      <c r="N40" s="171"/>
+      <c r="O40" s="171"/>
+      <c r="P40" s="171"/>
+      <c r="Q40" s="171"/>
+      <c r="R40" s="171"/>
+      <c r="S40" s="171"/>
     </row>
     <row r="41" spans="2:19" hidden="1">
-      <c r="L41" s="172"/>
-      <c r="M41" s="172"/>
-      <c r="N41" s="172"/>
-      <c r="O41" s="172"/>
-      <c r="P41" s="172"/>
-      <c r="Q41" s="172"/>
-      <c r="R41" s="172"/>
-      <c r="S41" s="172"/>
+      <c r="L41" s="171"/>
+      <c r="M41" s="171"/>
+      <c r="N41" s="171"/>
+      <c r="O41" s="171"/>
+      <c r="P41" s="171"/>
+      <c r="Q41" s="171"/>
+      <c r="R41" s="171"/>
+      <c r="S41" s="171"/>
     </row>
     <row r="42" spans="2:19" hidden="1">
-      <c r="L42" s="172"/>
-      <c r="M42" s="172"/>
-      <c r="N42" s="172"/>
-      <c r="O42" s="172"/>
-      <c r="P42" s="172"/>
-      <c r="Q42" s="172"/>
-      <c r="R42" s="172"/>
-      <c r="S42" s="172"/>
+      <c r="L42" s="171"/>
+      <c r="M42" s="171"/>
+      <c r="N42" s="171"/>
+      <c r="O42" s="171"/>
+      <c r="P42" s="171"/>
+      <c r="Q42" s="171"/>
+      <c r="R42" s="171"/>
+      <c r="S42" s="171"/>
     </row>
     <row r="43" spans="2:19" hidden="1">
-      <c r="L43" s="172"/>
-      <c r="M43" s="172"/>
-      <c r="N43" s="172"/>
-      <c r="O43" s="172"/>
-      <c r="P43" s="172"/>
-      <c r="Q43" s="172"/>
-      <c r="R43" s="172"/>
-      <c r="S43" s="172"/>
+      <c r="L43" s="171"/>
+      <c r="M43" s="171"/>
+      <c r="N43" s="171"/>
+      <c r="O43" s="171"/>
+      <c r="P43" s="171"/>
+      <c r="Q43" s="171"/>
+      <c r="R43" s="171"/>
+      <c r="S43" s="171"/>
     </row>
     <row r="44" spans="2:19" hidden="1">
-      <c r="L44" s="172"/>
-      <c r="M44" s="172"/>
-      <c r="N44" s="172"/>
-      <c r="O44" s="172"/>
-      <c r="P44" s="172"/>
-      <c r="Q44" s="172"/>
-      <c r="R44" s="172"/>
-      <c r="S44" s="172"/>
+      <c r="L44" s="171"/>
+      <c r="M44" s="171"/>
+      <c r="N44" s="171"/>
+      <c r="O44" s="171"/>
+      <c r="P44" s="171"/>
+      <c r="Q44" s="171"/>
+      <c r="R44" s="171"/>
+      <c r="S44" s="171"/>
     </row>
     <row r="45" spans="2:19" hidden="1">
-      <c r="L45" s="172"/>
-      <c r="M45" s="172"/>
-      <c r="N45" s="172"/>
-      <c r="O45" s="172"/>
-      <c r="P45" s="172"/>
-      <c r="Q45" s="172"/>
-      <c r="R45" s="172"/>
-      <c r="S45" s="172"/>
+      <c r="L45" s="171"/>
+      <c r="M45" s="171"/>
+      <c r="N45" s="171"/>
+      <c r="O45" s="171"/>
+      <c r="P45" s="171"/>
+      <c r="Q45" s="171"/>
+      <c r="R45" s="171"/>
+      <c r="S45" s="171"/>
     </row>
     <row r="46" spans="2:19" hidden="1">
-      <c r="L46" s="172"/>
-      <c r="M46" s="172"/>
-      <c r="N46" s="172"/>
-      <c r="O46" s="172"/>
-      <c r="P46" s="172"/>
-      <c r="Q46" s="172"/>
-      <c r="R46" s="172"/>
-      <c r="S46" s="172"/>
+      <c r="L46" s="171"/>
+      <c r="M46" s="171"/>
+      <c r="N46" s="171"/>
+      <c r="O46" s="171"/>
+      <c r="P46" s="171"/>
+      <c r="Q46" s="171"/>
+      <c r="R46" s="171"/>
+      <c r="S46" s="171"/>
     </row>
     <row r="47" spans="2:19" hidden="1">
-      <c r="L47" s="172"/>
-      <c r="M47" s="172"/>
-      <c r="N47" s="172"/>
-      <c r="O47" s="172"/>
-      <c r="P47" s="172"/>
-      <c r="Q47" s="172"/>
-      <c r="R47" s="172"/>
-      <c r="S47" s="172"/>
+      <c r="L47" s="171"/>
+      <c r="M47" s="171"/>
+      <c r="N47" s="171"/>
+      <c r="O47" s="171"/>
+      <c r="P47" s="171"/>
+      <c r="Q47" s="171"/>
+      <c r="R47" s="171"/>
+      <c r="S47" s="171"/>
     </row>
     <row r="48" spans="2:19" hidden="1">
-      <c r="L48" s="172"/>
-      <c r="M48" s="172"/>
-      <c r="N48" s="172"/>
-      <c r="O48" s="172"/>
-      <c r="P48" s="172"/>
-      <c r="Q48" s="172"/>
-      <c r="R48" s="172"/>
-      <c r="S48" s="172"/>
+      <c r="L48" s="171"/>
+      <c r="M48" s="171"/>
+      <c r="N48" s="171"/>
+      <c r="O48" s="171"/>
+      <c r="P48" s="171"/>
+      <c r="Q48" s="171"/>
+      <c r="R48" s="171"/>
+      <c r="S48" s="171"/>
     </row>
     <row r="49" spans="12:19" hidden="1">
-      <c r="L49" s="172"/>
-      <c r="M49" s="172"/>
-      <c r="N49" s="172"/>
-      <c r="O49" s="172"/>
-      <c r="P49" s="172"/>
-      <c r="Q49" s="172"/>
-      <c r="R49" s="172"/>
-      <c r="S49" s="172"/>
+      <c r="L49" s="171"/>
+      <c r="M49" s="171"/>
+      <c r="N49" s="171"/>
+      <c r="O49" s="171"/>
+      <c r="P49" s="171"/>
+      <c r="Q49" s="171"/>
+      <c r="R49" s="171"/>
+      <c r="S49" s="171"/>
     </row>
     <row r="50" spans="12:19" hidden="1">
-      <c r="L50" s="172"/>
-      <c r="M50" s="172"/>
-      <c r="N50" s="172"/>
-      <c r="O50" s="172"/>
-      <c r="P50" s="172"/>
-      <c r="Q50" s="172"/>
-      <c r="R50" s="172"/>
-      <c r="S50" s="172"/>
+      <c r="L50" s="171"/>
+      <c r="M50" s="171"/>
+      <c r="N50" s="171"/>
+      <c r="O50" s="171"/>
+      <c r="P50" s="171"/>
+      <c r="Q50" s="171"/>
+      <c r="R50" s="171"/>
+      <c r="S50" s="171"/>
     </row>
     <row r="51" spans="12:19" hidden="1">
-      <c r="L51" s="172"/>
-      <c r="M51" s="172"/>
-      <c r="N51" s="172"/>
-      <c r="O51" s="172"/>
-      <c r="P51" s="172"/>
-      <c r="Q51" s="172"/>
-      <c r="R51" s="172"/>
-      <c r="S51" s="172"/>
+      <c r="L51" s="171"/>
+      <c r="M51" s="171"/>
+      <c r="N51" s="171"/>
+      <c r="O51" s="171"/>
+      <c r="P51" s="171"/>
+      <c r="Q51" s="171"/>
+      <c r="R51" s="171"/>
+      <c r="S51" s="171"/>
     </row>
     <row r="52" spans="12:19" hidden="1">
-      <c r="L52" s="172"/>
-      <c r="M52" s="172"/>
-      <c r="N52" s="172"/>
-      <c r="O52" s="172"/>
-      <c r="P52" s="172"/>
-      <c r="Q52" s="172"/>
-      <c r="R52" s="172"/>
-      <c r="S52" s="172"/>
+      <c r="L52" s="171"/>
+      <c r="M52" s="171"/>
+      <c r="N52" s="171"/>
+      <c r="O52" s="171"/>
+      <c r="P52" s="171"/>
+      <c r="Q52" s="171"/>
+      <c r="R52" s="171"/>
+      <c r="S52" s="171"/>
     </row>
     <row r="53" spans="12:19" hidden="1">
-      <c r="L53" s="172"/>
-      <c r="M53" s="172"/>
-      <c r="N53" s="172"/>
-      <c r="O53" s="172"/>
-      <c r="P53" s="172"/>
-      <c r="Q53" s="172"/>
-      <c r="R53" s="172"/>
-      <c r="S53" s="172"/>
+      <c r="L53" s="171"/>
+      <c r="M53" s="171"/>
+      <c r="N53" s="171"/>
+      <c r="O53" s="171"/>
+      <c r="P53" s="171"/>
+      <c r="Q53" s="171"/>
+      <c r="R53" s="171"/>
+      <c r="S53" s="171"/>
     </row>
     <row r="54" spans="12:19" hidden="1">
-      <c r="L54" s="172"/>
-      <c r="M54" s="172"/>
-      <c r="N54" s="172"/>
-      <c r="O54" s="172"/>
-      <c r="P54" s="172"/>
-      <c r="Q54" s="172"/>
-      <c r="R54" s="172"/>
-      <c r="S54" s="172"/>
+      <c r="L54" s="171"/>
+      <c r="M54" s="171"/>
+      <c r="N54" s="171"/>
+      <c r="O54" s="171"/>
+      <c r="P54" s="171"/>
+      <c r="Q54" s="171"/>
+      <c r="R54" s="171"/>
+      <c r="S54" s="171"/>
     </row>
     <row r="55" spans="12:19" hidden="1">
-      <c r="L55" s="172"/>
-      <c r="M55" s="172"/>
-      <c r="N55" s="172"/>
-      <c r="O55" s="172"/>
-      <c r="P55" s="172"/>
-      <c r="Q55" s="172"/>
-      <c r="R55" s="172"/>
-      <c r="S55" s="172"/>
+      <c r="L55" s="171"/>
+      <c r="M55" s="171"/>
+      <c r="N55" s="171"/>
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
     </row>
     <row r="56" spans="12:19" hidden="1">
-      <c r="L56" s="172"/>
-      <c r="M56" s="172"/>
-      <c r="N56" s="172"/>
-      <c r="O56" s="172"/>
-      <c r="P56" s="172"/>
-      <c r="Q56" s="172"/>
-      <c r="R56" s="172"/>
-      <c r="S56" s="172"/>
+      <c r="L56" s="171"/>
+      <c r="M56" s="171"/>
+      <c r="N56" s="171"/>
+      <c r="O56" s="171"/>
+      <c r="P56" s="171"/>
+      <c r="Q56" s="171"/>
+      <c r="R56" s="171"/>
+      <c r="S56" s="171"/>
     </row>
     <row r="57" spans="12:19" hidden="1">
-      <c r="L57" s="172"/>
-      <c r="M57" s="172"/>
-      <c r="N57" s="172"/>
-      <c r="O57" s="172"/>
-      <c r="P57" s="172"/>
-      <c r="Q57" s="172"/>
-      <c r="R57" s="172"/>
-      <c r="S57" s="172"/>
+      <c r="L57" s="171"/>
+      <c r="M57" s="171"/>
+      <c r="N57" s="171"/>
+      <c r="O57" s="171"/>
+      <c r="P57" s="171"/>
+      <c r="Q57" s="171"/>
+      <c r="R57" s="171"/>
+      <c r="S57" s="171"/>
     </row>
     <row r="58" spans="12:19" hidden="1">
-      <c r="L58" s="172"/>
-      <c r="M58" s="172"/>
-      <c r="N58" s="172"/>
-      <c r="O58" s="172"/>
-      <c r="P58" s="172"/>
-      <c r="Q58" s="172"/>
-      <c r="R58" s="172"/>
-      <c r="S58" s="172"/>
+      <c r="L58" s="171"/>
+      <c r="M58" s="171"/>
+      <c r="N58" s="171"/>
+      <c r="O58" s="171"/>
+      <c r="P58" s="171"/>
+      <c r="Q58" s="171"/>
+      <c r="R58" s="171"/>
+      <c r="S58" s="171"/>
     </row>
     <row r="59" spans="12:19" hidden="1">
-      <c r="L59" s="172"/>
-      <c r="M59" s="172"/>
-      <c r="N59" s="172"/>
-      <c r="O59" s="172"/>
-      <c r="P59" s="172"/>
-      <c r="Q59" s="172"/>
-      <c r="R59" s="172"/>
-      <c r="S59" s="172"/>
+      <c r="L59" s="171"/>
+      <c r="M59" s="171"/>
+      <c r="N59" s="171"/>
+      <c r="O59" s="171"/>
+      <c r="P59" s="171"/>
+      <c r="Q59" s="171"/>
+      <c r="R59" s="171"/>
+      <c r="S59" s="171"/>
     </row>
     <row r="60" spans="12:19" hidden="1">
-      <c r="L60" s="172"/>
-      <c r="M60" s="172"/>
-      <c r="N60" s="172"/>
-      <c r="O60" s="172"/>
-      <c r="P60" s="172"/>
-      <c r="Q60" s="172"/>
-      <c r="R60" s="172"/>
-      <c r="S60" s="172"/>
+      <c r="L60" s="171"/>
+      <c r="M60" s="171"/>
+      <c r="N60" s="171"/>
+      <c r="O60" s="171"/>
+      <c r="P60" s="171"/>
+      <c r="Q60" s="171"/>
+      <c r="R60" s="171"/>
+      <c r="S60" s="171"/>
     </row>
     <row r="61" spans="12:19" hidden="1">
-      <c r="L61" s="172"/>
-      <c r="M61" s="172"/>
-      <c r="N61" s="172"/>
-      <c r="O61" s="172"/>
-      <c r="P61" s="172"/>
-      <c r="Q61" s="172"/>
-      <c r="R61" s="172"/>
-      <c r="S61" s="172"/>
+      <c r="L61" s="171"/>
+      <c r="M61" s="171"/>
+      <c r="N61" s="171"/>
+      <c r="O61" s="171"/>
+      <c r="P61" s="171"/>
+      <c r="Q61" s="171"/>
+      <c r="R61" s="171"/>
+      <c r="S61" s="171"/>
     </row>
     <row r="62" spans="12:19" hidden="1">
-      <c r="L62" s="172"/>
-      <c r="M62" s="172"/>
-      <c r="N62" s="172"/>
-      <c r="O62" s="172"/>
-      <c r="P62" s="172"/>
-      <c r="Q62" s="172"/>
-      <c r="R62" s="172"/>
-      <c r="S62" s="172"/>
+      <c r="L62" s="171"/>
+      <c r="M62" s="171"/>
+      <c r="N62" s="171"/>
+      <c r="O62" s="171"/>
+      <c r="P62" s="171"/>
+      <c r="Q62" s="171"/>
+      <c r="R62" s="171"/>
+      <c r="S62" s="171"/>
     </row>
     <row r="63" spans="12:19" hidden="1">
-      <c r="L63" s="172"/>
-      <c r="M63" s="172"/>
-      <c r="N63" s="172"/>
-      <c r="O63" s="172"/>
-      <c r="P63" s="172"/>
-      <c r="Q63" s="172"/>
-      <c r="R63" s="172"/>
-      <c r="S63" s="172"/>
+      <c r="L63" s="171"/>
+      <c r="M63" s="171"/>
+      <c r="N63" s="171"/>
+      <c r="O63" s="171"/>
+      <c r="P63" s="171"/>
+      <c r="Q63" s="171"/>
+      <c r="R63" s="171"/>
+      <c r="S63" s="171"/>
     </row>
     <row r="64" spans="12:19" hidden="1">
-      <c r="L64" s="172"/>
-      <c r="M64" s="172"/>
-      <c r="N64" s="172"/>
-      <c r="O64" s="172"/>
-      <c r="P64" s="172"/>
-      <c r="Q64" s="172"/>
-      <c r="R64" s="172"/>
-      <c r="S64" s="172"/>
+      <c r="L64" s="171"/>
+      <c r="M64" s="171"/>
+      <c r="N64" s="171"/>
+      <c r="O64" s="171"/>
+      <c r="P64" s="171"/>
+      <c r="Q64" s="171"/>
+      <c r="R64" s="171"/>
+      <c r="S64" s="171"/>
     </row>
     <row r="65" spans="12:19" hidden="1">
-      <c r="L65" s="172"/>
-      <c r="M65" s="172"/>
-      <c r="N65" s="172"/>
-      <c r="O65" s="172"/>
-      <c r="P65" s="172"/>
-      <c r="Q65" s="172"/>
-      <c r="R65" s="172"/>
-      <c r="S65" s="172"/>
+      <c r="L65" s="171"/>
+      <c r="M65" s="171"/>
+      <c r="N65" s="171"/>
+      <c r="O65" s="171"/>
+      <c r="P65" s="171"/>
+      <c r="Q65" s="171"/>
+      <c r="R65" s="171"/>
+      <c r="S65" s="171"/>
     </row>
     <row r="66" spans="12:19" hidden="1">
-      <c r="L66" s="172"/>
-      <c r="M66" s="172"/>
-      <c r="N66" s="172"/>
-      <c r="O66" s="172"/>
-      <c r="P66" s="172"/>
-      <c r="Q66" s="172"/>
-      <c r="R66" s="172"/>
-      <c r="S66" s="172"/>
+      <c r="L66" s="171"/>
+      <c r="M66" s="171"/>
+      <c r="N66" s="171"/>
+      <c r="O66" s="171"/>
+      <c r="P66" s="171"/>
+      <c r="Q66" s="171"/>
+      <c r="R66" s="171"/>
+      <c r="S66" s="171"/>
     </row>
     <row r="67" spans="12:19" hidden="1">
-      <c r="L67" s="172"/>
-      <c r="M67" s="172"/>
-      <c r="N67" s="172"/>
-      <c r="O67" s="172"/>
-      <c r="P67" s="172"/>
-      <c r="Q67" s="172"/>
-      <c r="R67" s="172"/>
-      <c r="S67" s="172"/>
+      <c r="L67" s="171"/>
+      <c r="M67" s="171"/>
+      <c r="N67" s="171"/>
+      <c r="O67" s="171"/>
+      <c r="P67" s="171"/>
+      <c r="Q67" s="171"/>
+      <c r="R67" s="171"/>
+      <c r="S67" s="171"/>
     </row>
     <row r="68" spans="12:19" hidden="1">
-      <c r="L68" s="172"/>
-      <c r="M68" s="172"/>
-      <c r="N68" s="172"/>
-      <c r="O68" s="172"/>
-      <c r="P68" s="172"/>
-      <c r="Q68" s="172"/>
-      <c r="R68" s="172"/>
-      <c r="S68" s="172"/>
+      <c r="L68" s="171"/>
+      <c r="M68" s="171"/>
+      <c r="N68" s="171"/>
+      <c r="O68" s="171"/>
+      <c r="P68" s="171"/>
+      <c r="Q68" s="171"/>
+      <c r="R68" s="171"/>
+      <c r="S68" s="171"/>
     </row>
     <row r="69" spans="12:19" hidden="1">
-      <c r="L69" s="172"/>
-      <c r="M69" s="172"/>
-      <c r="N69" s="172"/>
-      <c r="O69" s="172"/>
-      <c r="P69" s="172"/>
-      <c r="Q69" s="172"/>
-      <c r="R69" s="172"/>
-      <c r="S69" s="172"/>
+      <c r="L69" s="171"/>
+      <c r="M69" s="171"/>
+      <c r="N69" s="171"/>
+      <c r="O69" s="171"/>
+      <c r="P69" s="171"/>
+      <c r="Q69" s="171"/>
+      <c r="R69" s="171"/>
+      <c r="S69" s="171"/>
     </row>
     <row r="70" spans="12:19" hidden="1">
-      <c r="L70" s="172"/>
-      <c r="M70" s="172"/>
-      <c r="N70" s="172"/>
-      <c r="O70" s="172"/>
-      <c r="P70" s="172"/>
-      <c r="Q70" s="172"/>
-      <c r="R70" s="172"/>
-      <c r="S70" s="172"/>
+      <c r="L70" s="171"/>
+      <c r="M70" s="171"/>
+      <c r="N70" s="171"/>
+      <c r="O70" s="171"/>
+      <c r="P70" s="171"/>
+      <c r="Q70" s="171"/>
+      <c r="R70" s="171"/>
+      <c r="S70" s="171"/>
     </row>
     <row r="71" spans="12:19" hidden="1">
-      <c r="L71" s="172"/>
-      <c r="M71" s="172"/>
-      <c r="N71" s="172"/>
-      <c r="O71" s="172"/>
-      <c r="P71" s="172"/>
-      <c r="Q71" s="172"/>
-      <c r="R71" s="172"/>
-      <c r="S71" s="172"/>
+      <c r="L71" s="171"/>
+      <c r="M71" s="171"/>
+      <c r="N71" s="171"/>
+      <c r="O71" s="171"/>
+      <c r="P71" s="171"/>
+      <c r="Q71" s="171"/>
+      <c r="R71" s="171"/>
+      <c r="S71" s="171"/>
     </row>
     <row r="72" spans="12:19" hidden="1">
-      <c r="L72" s="172"/>
-      <c r="M72" s="172"/>
-      <c r="N72" s="172"/>
-      <c r="O72" s="172"/>
-      <c r="P72" s="172"/>
-      <c r="Q72" s="172"/>
-      <c r="R72" s="172"/>
-      <c r="S72" s="172"/>
+      <c r="L72" s="171"/>
+      <c r="M72" s="171"/>
+      <c r="N72" s="171"/>
+      <c r="O72" s="171"/>
+      <c r="P72" s="171"/>
+      <c r="Q72" s="171"/>
+      <c r="R72" s="171"/>
+      <c r="S72" s="171"/>
     </row>
     <row r="73" spans="12:19" hidden="1">
-      <c r="L73" s="172"/>
-      <c r="M73" s="172"/>
-      <c r="N73" s="172"/>
-      <c r="O73" s="172"/>
-      <c r="P73" s="172"/>
-      <c r="Q73" s="172"/>
-      <c r="R73" s="172"/>
-      <c r="S73" s="172"/>
+      <c r="L73" s="171"/>
+      <c r="M73" s="171"/>
+      <c r="N73" s="171"/>
+      <c r="O73" s="171"/>
+      <c r="P73" s="171"/>
+      <c r="Q73" s="171"/>
+      <c r="R73" s="171"/>
+      <c r="S73" s="171"/>
     </row>
     <row r="74" spans="12:19" hidden="1">
-      <c r="L74" s="172"/>
-      <c r="M74" s="172"/>
-      <c r="N74" s="172"/>
-      <c r="O74" s="172"/>
-      <c r="P74" s="172"/>
-      <c r="Q74" s="172"/>
-      <c r="R74" s="172"/>
-      <c r="S74" s="172"/>
+      <c r="L74" s="171"/>
+      <c r="M74" s="171"/>
+      <c r="N74" s="171"/>
+      <c r="O74" s="171"/>
+      <c r="P74" s="171"/>
+      <c r="Q74" s="171"/>
+      <c r="R74" s="171"/>
+      <c r="S74" s="171"/>
     </row>
     <row r="75" spans="12:19" hidden="1">
-      <c r="L75" s="172"/>
-      <c r="M75" s="172"/>
-      <c r="N75" s="172"/>
-      <c r="O75" s="172"/>
-      <c r="P75" s="172"/>
-      <c r="Q75" s="172"/>
-      <c r="R75" s="172"/>
-      <c r="S75" s="172"/>
+      <c r="L75" s="171"/>
+      <c r="M75" s="171"/>
+      <c r="N75" s="171"/>
+      <c r="O75" s="171"/>
+      <c r="P75" s="171"/>
+      <c r="Q75" s="171"/>
+      <c r="R75" s="171"/>
+      <c r="S75" s="171"/>
     </row>
     <row r="76" spans="12:19" hidden="1">
-      <c r="L76" s="172"/>
-      <c r="M76" s="172"/>
-      <c r="N76" s="172"/>
-      <c r="O76" s="172"/>
-      <c r="P76" s="172"/>
-      <c r="Q76" s="172"/>
-      <c r="R76" s="172"/>
-      <c r="S76" s="172"/>
+      <c r="L76" s="171"/>
+      <c r="M76" s="171"/>
+      <c r="N76" s="171"/>
+      <c r="O76" s="171"/>
+      <c r="P76" s="171"/>
+      <c r="Q76" s="171"/>
+      <c r="R76" s="171"/>
+      <c r="S76" s="171"/>
     </row>
     <row r="77" spans="12:19" hidden="1">
-      <c r="L77" s="172"/>
-      <c r="M77" s="172"/>
-      <c r="N77" s="172"/>
-      <c r="O77" s="172"/>
-      <c r="P77" s="172"/>
-      <c r="Q77" s="172"/>
-      <c r="R77" s="172"/>
-      <c r="S77" s="172"/>
+      <c r="L77" s="171"/>
+      <c r="M77" s="171"/>
+      <c r="N77" s="171"/>
+      <c r="O77" s="171"/>
+      <c r="P77" s="171"/>
+      <c r="Q77" s="171"/>
+      <c r="R77" s="171"/>
+      <c r="S77" s="171"/>
     </row>
     <row r="78" spans="12:19" hidden="1">
-      <c r="L78" s="172"/>
-      <c r="M78" s="172"/>
-      <c r="N78" s="172"/>
-      <c r="O78" s="172"/>
-      <c r="P78" s="172"/>
-      <c r="Q78" s="172"/>
-      <c r="R78" s="172"/>
-      <c r="S78" s="172"/>
+      <c r="L78" s="171"/>
+      <c r="M78" s="171"/>
+      <c r="N78" s="171"/>
+      <c r="O78" s="171"/>
+      <c r="P78" s="171"/>
+      <c r="Q78" s="171"/>
+      <c r="R78" s="171"/>
+      <c r="S78" s="171"/>
     </row>
     <row r="79" spans="12:19" hidden="1">
-      <c r="L79" s="172"/>
-      <c r="M79" s="172"/>
-      <c r="N79" s="172"/>
-      <c r="O79" s="172"/>
-      <c r="P79" s="172"/>
-      <c r="Q79" s="172"/>
-      <c r="R79" s="172"/>
-      <c r="S79" s="172"/>
+      <c r="L79" s="171"/>
+      <c r="M79" s="171"/>
+      <c r="N79" s="171"/>
+      <c r="O79" s="171"/>
+      <c r="P79" s="171"/>
+      <c r="Q79" s="171"/>
+      <c r="R79" s="171"/>
+      <c r="S79" s="171"/>
     </row>
     <row r="80" spans="12:19" hidden="1">
-      <c r="L80" s="172"/>
-      <c r="M80" s="172"/>
-      <c r="N80" s="172"/>
-      <c r="O80" s="172"/>
-      <c r="P80" s="172"/>
-      <c r="Q80" s="172"/>
-      <c r="R80" s="172"/>
-      <c r="S80" s="172"/>
+      <c r="L80" s="171"/>
+      <c r="M80" s="171"/>
+      <c r="N80" s="171"/>
+      <c r="O80" s="171"/>
+      <c r="P80" s="171"/>
+      <c r="Q80" s="171"/>
+      <c r="R80" s="171"/>
+      <c r="S80" s="171"/>
     </row>
     <row r="81" spans="12:19" hidden="1">
-      <c r="L81" s="172"/>
-      <c r="M81" s="172"/>
-      <c r="N81" s="172"/>
-      <c r="O81" s="172"/>
-      <c r="P81" s="172"/>
-      <c r="Q81" s="172"/>
-      <c r="R81" s="172"/>
-      <c r="S81" s="172"/>
+      <c r="L81" s="171"/>
+      <c r="M81" s="171"/>
+      <c r="N81" s="171"/>
+      <c r="O81" s="171"/>
+      <c r="P81" s="171"/>
+      <c r="Q81" s="171"/>
+      <c r="R81" s="171"/>
+      <c r="S81" s="171"/>
     </row>
     <row r="82" spans="12:19" hidden="1">
-      <c r="L82" s="172"/>
-      <c r="M82" s="172"/>
-      <c r="N82" s="172"/>
-      <c r="O82" s="172"/>
-      <c r="P82" s="172"/>
-      <c r="Q82" s="172"/>
-      <c r="R82" s="172"/>
-      <c r="S82" s="172"/>
+      <c r="L82" s="171"/>
+      <c r="M82" s="171"/>
+      <c r="N82" s="171"/>
+      <c r="O82" s="171"/>
+      <c r="P82" s="171"/>
+      <c r="Q82" s="171"/>
+      <c r="R82" s="171"/>
+      <c r="S82" s="171"/>
     </row>
     <row r="83" spans="12:19" hidden="1">
-      <c r="L83" s="172"/>
-      <c r="M83" s="172"/>
-      <c r="N83" s="172"/>
-      <c r="O83" s="172"/>
-      <c r="P83" s="172"/>
-      <c r="Q83" s="172"/>
-      <c r="R83" s="172"/>
-      <c r="S83" s="172"/>
+      <c r="L83" s="171"/>
+      <c r="M83" s="171"/>
+      <c r="N83" s="171"/>
+      <c r="O83" s="171"/>
+      <c r="P83" s="171"/>
+      <c r="Q83" s="171"/>
+      <c r="R83" s="171"/>
+      <c r="S83" s="171"/>
     </row>
     <row r="84" spans="12:19" hidden="1">
-      <c r="L84" s="172"/>
-      <c r="M84" s="172"/>
-      <c r="N84" s="172"/>
-      <c r="O84" s="172"/>
-      <c r="P84" s="172"/>
-      <c r="Q84" s="172"/>
-      <c r="R84" s="172"/>
-      <c r="S84" s="172"/>
+      <c r="L84" s="171"/>
+      <c r="M84" s="171"/>
+      <c r="N84" s="171"/>
+      <c r="O84" s="171"/>
+      <c r="P84" s="171"/>
+      <c r="Q84" s="171"/>
+      <c r="R84" s="171"/>
+      <c r="S84" s="171"/>
     </row>
     <row r="85" spans="12:19" hidden="1">
-      <c r="L85" s="172"/>
-      <c r="M85" s="172"/>
-      <c r="N85" s="172"/>
-      <c r="O85" s="172"/>
-      <c r="P85" s="172"/>
-      <c r="Q85" s="172"/>
-      <c r="R85" s="172"/>
-      <c r="S85" s="172"/>
+      <c r="L85" s="171"/>
+      <c r="M85" s="171"/>
+      <c r="N85" s="171"/>
+      <c r="O85" s="171"/>
+      <c r="P85" s="171"/>
+      <c r="Q85" s="171"/>
+      <c r="R85" s="171"/>
+      <c r="S85" s="171"/>
     </row>
     <row r="86" spans="12:19" hidden="1">
-      <c r="L86" s="172"/>
-      <c r="M86" s="172"/>
-      <c r="N86" s="172"/>
-      <c r="O86" s="172"/>
-      <c r="P86" s="172"/>
-      <c r="Q86" s="172"/>
-      <c r="R86" s="172"/>
-      <c r="S86" s="172"/>
+      <c r="L86" s="171"/>
+      <c r="M86" s="171"/>
+      <c r="N86" s="171"/>
+      <c r="O86" s="171"/>
+      <c r="P86" s="171"/>
+      <c r="Q86" s="171"/>
+      <c r="R86" s="171"/>
+      <c r="S86" s="171"/>
     </row>
     <row r="87" spans="12:19" hidden="1">
-      <c r="L87" s="172"/>
-      <c r="M87" s="172"/>
-      <c r="N87" s="172"/>
-      <c r="O87" s="172"/>
-      <c r="P87" s="172"/>
-      <c r="Q87" s="172"/>
-      <c r="R87" s="172"/>
-      <c r="S87" s="172"/>
+      <c r="L87" s="171"/>
+      <c r="M87" s="171"/>
+      <c r="N87" s="171"/>
+      <c r="O87" s="171"/>
+      <c r="P87" s="171"/>
+      <c r="Q87" s="171"/>
+      <c r="R87" s="171"/>
+      <c r="S87" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="U9:AA10"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K2:S4"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B9:I10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="L9:R10"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="Q19:R19"/>
     <mergeCell ref="U21:AA21"/>
     <mergeCell ref="U25:AA25"/>
     <mergeCell ref="U26:AA26"/>
@@ -39315,30 +39415,19 @@
     <mergeCell ref="U17:AA17"/>
     <mergeCell ref="U18:AA18"/>
     <mergeCell ref="U19:AA19"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B9:I10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="L9:R10"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="U9:AA10"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K2:S4"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="U13:AA13"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="U26:AA26" r:id="rId1" display="Project page" xr:uid="{A25CDF13-1A1F-754E-9BF7-02064D5A945A}"/>
+    <hyperlink ref="U15:AA15" r:id="rId2" location="transaction" display="How to add a transaction" xr:uid="{3693E39A-0634-CD40-A3DD-3CDA94B91931}"/>
+    <hyperlink ref="U16:AA16" r:id="rId3" location="investment" display="How to add an investment" xr:uid="{61C8BDCD-7C59-EC4A-8BA8-472A472CB2D6}"/>
+    <hyperlink ref="U17:AA17" r:id="rId4" location="loan" display="How to add a loan" xr:uid="{B2ABCB41-B60A-BF41-9FC3-7AB223C8267B}"/>
+    <hyperlink ref="U18:AA18" r:id="rId5" location="asset" display="How to add an asset" xr:uid="{CDD6BA35-0F08-EC44-A1CB-EC1CCDE3237A}"/>
+    <hyperlink ref="U19:AA19" r:id="rId6" display="Customising the dashboard" xr:uid="{59FE329F-3CCE-BC4A-8AD9-737FEAF01A1A}"/>
+    <hyperlink ref="U21:AA21" r:id="rId7" display="Known issues" xr:uid="{8389BBC1-7F9C-AE4F-8707-9A393DDF149C}"/>
+    <hyperlink ref="U20:AA20" r:id="rId8" display="Error codes" xr:uid="{973BD529-C8C1-DA46-AA12-96C9B4BA0977}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -39379,41 +39468,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="297" t="s">
+      <c r="A1" s="221" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="298" t="s">
+      <c r="B1" s="222" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="299" t="s">
+      <c r="C1" s="223" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="299" t="s">
+      <c r="D1" s="223" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="300" t="s">
+      <c r="E1" s="224" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="126" t="s">
+      <c r="H1" s="125" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="127" t="s">
-        <v>199</v>
+      <c r="I1" s="126" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="H3" s="109" t="s">
+      <c r="H3" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="122" t="s">
+      <c r="I3" s="121" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="H4" s="125" t="s">
+      <c r="H4" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="220" t="e">
+      <c r="I4" s="219" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -39516,132 +39605,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="122" t="s">
+      <c r="D1" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="126" t="s">
+      <c r="G1" s="125" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="127" t="s">
-        <v>199</v>
-      </c>
-      <c r="K1" s="126" t="s">
+      <c r="H1" s="126" t="s">
+        <v>197</v>
+      </c>
+      <c r="K1" s="125" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="127" t="s">
-        <v>199</v>
-      </c>
-      <c r="O1" s="126" t="s">
+      <c r="L1" s="126" t="s">
+        <v>197</v>
+      </c>
+      <c r="O1" s="125" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="127" t="s">
-        <v>199</v>
+      <c r="P1" s="126" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:36">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="AB2" s="126" t="s">
+      <c r="B2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="AB2" s="125" t="s">
         <v>97</v>
       </c>
-      <c r="AC2" s="127" t="s">
+      <c r="AC2" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="AG2" s="126" t="s">
+      <c r="AG2" s="125" t="s">
         <v>97</v>
       </c>
-      <c r="AH2" s="127" t="s">
+      <c r="AH2" s="126" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:36">
-      <c r="G3" s="297" t="s">
+      <c r="G3" s="221" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="127" t="s">
+      <c r="H3" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="109" t="s">
+      <c r="K3" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="122" t="s">
+      <c r="L3" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="109" t="s">
+      <c r="O3" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="P3" s="301" t="s">
+      <c r="P3" s="225" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:36">
-      <c r="K4" s="125" t="s">
+      <c r="K4" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="132">
-        <v>0</v>
-      </c>
-      <c r="O4" s="109" t="s">
+      <c r="L4" s="131">
+        <v>0</v>
+      </c>
+      <c r="O4" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="122" t="s">
+      <c r="P4" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="AB4" s="109" t="s">
+      <c r="AB4" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="AC4" s="110" t="s">
+      <c r="AC4" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="AD4" s="111" t="s">
+      <c r="AD4" s="110" t="s">
         <v>135</v>
       </c>
-      <c r="AE4" s="112" t="s">
+      <c r="AE4" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="AG4" s="109" t="s">
+      <c r="AG4" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="AH4" s="110" t="s">
+      <c r="AH4" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="AI4" s="111" t="s">
+      <c r="AI4" s="110" t="s">
         <v>135</v>
       </c>
-      <c r="AJ4" s="112" t="s">
+      <c r="AJ4" s="111" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:36">
-      <c r="O5" s="125" t="s">
+      <c r="O5" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="P5" s="135">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="128" t="s">
+      <c r="P5" s="134">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="AC5" s="129"/>
-      <c r="AD5" s="130"/>
-      <c r="AE5" s="131">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="128" t="s">
+      <c r="AC5" s="128"/>
+      <c r="AD5" s="129"/>
+      <c r="AE5" s="130">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="AH5" s="129"/>
-      <c r="AI5" s="130"/>
-      <c r="AJ5" s="131">
+      <c r="AH5" s="128"/>
+      <c r="AI5" s="129"/>
+      <c r="AJ5" s="130">
         <v>0</v>
       </c>
     </row>
@@ -39702,737 +39791,737 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="125" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="297" t="s">
+      <c r="F1" s="221" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="127" t="s">
+      <c r="G1" s="126" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="109" t="s">
+      <c r="I1" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="110" t="s">
+      <c r="J1" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="K1" s="111" t="s">
+      <c r="K1" s="110" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="112" t="s">
+      <c r="L1" s="111" t="s">
         <v>163</v>
       </c>
-      <c r="N1" s="126" t="s">
+      <c r="N1" s="125" t="s">
         <v>95</v>
       </c>
-      <c r="O1" s="127" t="s">
+      <c r="O1" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="Z1" s="126" t="s">
+      <c r="Z1" s="125" t="s">
         <v>95</v>
       </c>
-      <c r="AA1" s="127" t="s">
+      <c r="AA1" s="126" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:29">
-      <c r="I2" s="125" t="s">
+      <c r="I2" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="129"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="131">
+      <c r="J2" s="128"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="130">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="N3" s="110"/>
-      <c r="O3" s="109" t="s">
+      <c r="N3" s="109"/>
+      <c r="O3" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="P3" s="134"/>
-      <c r="Z3" s="109" t="s">
+      <c r="P3" s="133"/>
+      <c r="Z3" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="AA3" s="110" t="s">
+      <c r="AA3" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="AB3" s="111" t="s">
+      <c r="AB3" s="110" t="s">
         <v>135</v>
       </c>
-      <c r="AC3" s="112" t="s">
+      <c r="AC3" s="111" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="129"/>
-      <c r="C4" s="141"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="110" t="s">
+      <c r="B4" s="128"/>
+      <c r="C4" s="140"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="109" t="s">
         <v>158</v>
       </c>
-      <c r="P4" s="122" t="s">
+      <c r="P4" s="121" t="s">
         <v>159</v>
       </c>
-      <c r="Z4" s="125" t="s">
+      <c r="Z4" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="AA4" s="129"/>
-      <c r="AB4" s="130"/>
-      <c r="AC4" s="131">
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="129"/>
+      <c r="AC4" s="130">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:29">
-      <c r="N5" s="109" t="s">
+      <c r="N5" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="139"/>
-      <c r="P5" s="140"/>
+      <c r="O5" s="138"/>
+      <c r="P5" s="139"/>
     </row>
     <row r="6" spans="1:29">
-      <c r="N6" s="125" t="s">
+      <c r="N6" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="129"/>
-      <c r="P6" s="138"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="137"/>
     </row>
     <row r="129" spans="8:8">
-      <c r="H129" s="142"/>
+      <c r="H129" s="141"/>
     </row>
     <row r="130" spans="8:8">
-      <c r="H130" s="142"/>
+      <c r="H130" s="141"/>
     </row>
     <row r="131" spans="8:8">
-      <c r="H131" s="142"/>
+      <c r="H131" s="141"/>
     </row>
     <row r="132" spans="8:8">
-      <c r="H132" s="142"/>
+      <c r="H132" s="141"/>
     </row>
     <row r="133" spans="8:8">
-      <c r="H133" s="142"/>
+      <c r="H133" s="141"/>
     </row>
     <row r="134" spans="8:8">
-      <c r="H134" s="142"/>
+      <c r="H134" s="141"/>
     </row>
     <row r="135" spans="8:8">
-      <c r="H135" s="142"/>
+      <c r="H135" s="141"/>
     </row>
     <row r="136" spans="8:8">
-      <c r="H136" s="142"/>
+      <c r="H136" s="141"/>
     </row>
     <row r="137" spans="8:8">
-      <c r="H137" s="142"/>
+      <c r="H137" s="141"/>
     </row>
     <row r="138" spans="8:8">
-      <c r="H138" s="142"/>
+      <c r="H138" s="141"/>
     </row>
     <row r="139" spans="8:8">
-      <c r="H139" s="142"/>
+      <c r="H139" s="141"/>
     </row>
     <row r="140" spans="8:8">
-      <c r="H140" s="142"/>
+      <c r="H140" s="141"/>
     </row>
     <row r="141" spans="8:8">
-      <c r="H141" s="142"/>
+      <c r="H141" s="141"/>
     </row>
     <row r="142" spans="8:8">
-      <c r="H142" s="142"/>
+      <c r="H142" s="141"/>
     </row>
     <row r="143" spans="8:8">
-      <c r="H143" s="142"/>
+      <c r="H143" s="141"/>
     </row>
     <row r="144" spans="8:8">
-      <c r="H144" s="142"/>
+      <c r="H144" s="141"/>
     </row>
     <row r="145" spans="8:8">
-      <c r="H145" s="142"/>
+      <c r="H145" s="141"/>
     </row>
     <row r="146" spans="8:8">
-      <c r="H146" s="142"/>
+      <c r="H146" s="141"/>
     </row>
     <row r="147" spans="8:8">
-      <c r="H147" s="142"/>
+      <c r="H147" s="141"/>
     </row>
     <row r="148" spans="8:8">
-      <c r="H148" s="142"/>
+      <c r="H148" s="141"/>
     </row>
     <row r="149" spans="8:8">
-      <c r="H149" s="142"/>
+      <c r="H149" s="141"/>
     </row>
     <row r="150" spans="8:8">
-      <c r="H150" s="142"/>
+      <c r="H150" s="141"/>
     </row>
     <row r="151" spans="8:8">
-      <c r="H151" s="142"/>
+      <c r="H151" s="141"/>
     </row>
     <row r="152" spans="8:8">
-      <c r="H152" s="142"/>
+      <c r="H152" s="141"/>
     </row>
     <row r="153" spans="8:8">
-      <c r="H153" s="142"/>
+      <c r="H153" s="141"/>
     </row>
     <row r="154" spans="8:8">
-      <c r="H154" s="142"/>
+      <c r="H154" s="141"/>
     </row>
     <row r="155" spans="8:8">
-      <c r="H155" s="142"/>
+      <c r="H155" s="141"/>
     </row>
     <row r="156" spans="8:8">
-      <c r="H156" s="142"/>
+      <c r="H156" s="141"/>
     </row>
     <row r="157" spans="8:8">
-      <c r="H157" s="142"/>
+      <c r="H157" s="141"/>
     </row>
     <row r="158" spans="8:8">
-      <c r="H158" s="142"/>
+      <c r="H158" s="141"/>
     </row>
     <row r="159" spans="8:8">
-      <c r="H159" s="142"/>
+      <c r="H159" s="141"/>
     </row>
     <row r="160" spans="8:8">
-      <c r="H160" s="142"/>
+      <c r="H160" s="141"/>
     </row>
     <row r="161" spans="8:8">
-      <c r="H161" s="142"/>
+      <c r="H161" s="141"/>
     </row>
     <row r="162" spans="8:8">
-      <c r="H162" s="142"/>
+      <c r="H162" s="141"/>
     </row>
     <row r="163" spans="8:8">
-      <c r="H163" s="142"/>
+      <c r="H163" s="141"/>
     </row>
     <row r="164" spans="8:8">
-      <c r="H164" s="142"/>
+      <c r="H164" s="141"/>
     </row>
     <row r="165" spans="8:8">
-      <c r="H165" s="142"/>
+      <c r="H165" s="141"/>
     </row>
     <row r="166" spans="8:8">
-      <c r="H166" s="142"/>
+      <c r="H166" s="141"/>
     </row>
     <row r="167" spans="8:8">
-      <c r="H167" s="142"/>
+      <c r="H167" s="141"/>
     </row>
     <row r="168" spans="8:8">
-      <c r="H168" s="142"/>
+      <c r="H168" s="141"/>
     </row>
     <row r="169" spans="8:8">
-      <c r="H169" s="142"/>
+      <c r="H169" s="141"/>
     </row>
     <row r="170" spans="8:8">
-      <c r="H170" s="142"/>
+      <c r="H170" s="141"/>
     </row>
     <row r="171" spans="8:8">
-      <c r="H171" s="142"/>
+      <c r="H171" s="141"/>
     </row>
     <row r="172" spans="8:8">
-      <c r="H172" s="142"/>
+      <c r="H172" s="141"/>
     </row>
     <row r="173" spans="8:8">
-      <c r="H173" s="142"/>
+      <c r="H173" s="141"/>
     </row>
     <row r="174" spans="8:8">
-      <c r="H174" s="142"/>
+      <c r="H174" s="141"/>
     </row>
     <row r="175" spans="8:8">
-      <c r="H175" s="142"/>
+      <c r="H175" s="141"/>
     </row>
     <row r="176" spans="8:8">
-      <c r="H176" s="142"/>
+      <c r="H176" s="141"/>
     </row>
     <row r="177" spans="8:8">
-      <c r="H177" s="142"/>
+      <c r="H177" s="141"/>
     </row>
     <row r="178" spans="8:8">
-      <c r="H178" s="142"/>
+      <c r="H178" s="141"/>
     </row>
     <row r="179" spans="8:8">
-      <c r="H179" s="142"/>
+      <c r="H179" s="141"/>
     </row>
     <row r="180" spans="8:8">
-      <c r="H180" s="142"/>
+      <c r="H180" s="141"/>
     </row>
     <row r="181" spans="8:8">
-      <c r="H181" s="142"/>
+      <c r="H181" s="141"/>
     </row>
     <row r="182" spans="8:8">
-      <c r="H182" s="142"/>
+      <c r="H182" s="141"/>
     </row>
     <row r="183" spans="8:8">
-      <c r="H183" s="142"/>
+      <c r="H183" s="141"/>
     </row>
     <row r="184" spans="8:8">
-      <c r="H184" s="142"/>
+      <c r="H184" s="141"/>
     </row>
     <row r="185" spans="8:8">
-      <c r="H185" s="142"/>
+      <c r="H185" s="141"/>
     </row>
     <row r="186" spans="8:8">
-      <c r="H186" s="142"/>
+      <c r="H186" s="141"/>
     </row>
     <row r="187" spans="8:8">
-      <c r="H187" s="142"/>
+      <c r="H187" s="141"/>
     </row>
     <row r="188" spans="8:8">
-      <c r="H188" s="142"/>
+      <c r="H188" s="141"/>
     </row>
     <row r="189" spans="8:8">
-      <c r="H189" s="142"/>
+      <c r="H189" s="141"/>
     </row>
     <row r="190" spans="8:8">
-      <c r="H190" s="142"/>
+      <c r="H190" s="141"/>
     </row>
     <row r="191" spans="8:8">
-      <c r="H191" s="142"/>
+      <c r="H191" s="141"/>
     </row>
     <row r="192" spans="8:8">
-      <c r="H192" s="142"/>
+      <c r="H192" s="141"/>
     </row>
     <row r="193" spans="8:8">
-      <c r="H193" s="142"/>
+      <c r="H193" s="141"/>
     </row>
     <row r="194" spans="8:8">
-      <c r="H194" s="142"/>
+      <c r="H194" s="141"/>
     </row>
     <row r="195" spans="8:8">
-      <c r="H195" s="142"/>
+      <c r="H195" s="141"/>
     </row>
     <row r="196" spans="8:8">
-      <c r="H196" s="142"/>
+      <c r="H196" s="141"/>
     </row>
     <row r="197" spans="8:8">
-      <c r="H197" s="142"/>
+      <c r="H197" s="141"/>
     </row>
     <row r="198" spans="8:8">
-      <c r="H198" s="142"/>
+      <c r="H198" s="141"/>
     </row>
     <row r="199" spans="8:8">
-      <c r="H199" s="142"/>
+      <c r="H199" s="141"/>
     </row>
     <row r="200" spans="8:8">
-      <c r="H200" s="142"/>
+      <c r="H200" s="141"/>
     </row>
     <row r="201" spans="8:8">
-      <c r="H201" s="142"/>
+      <c r="H201" s="141"/>
     </row>
     <row r="202" spans="8:8">
-      <c r="H202" s="142"/>
+      <c r="H202" s="141"/>
     </row>
     <row r="203" spans="8:8">
-      <c r="H203" s="142"/>
+      <c r="H203" s="141"/>
     </row>
     <row r="204" spans="8:8">
-      <c r="H204" s="142"/>
+      <c r="H204" s="141"/>
     </row>
     <row r="205" spans="8:8">
-      <c r="H205" s="142"/>
+      <c r="H205" s="141"/>
     </row>
     <row r="206" spans="8:8">
-      <c r="H206" s="142"/>
+      <c r="H206" s="141"/>
     </row>
     <row r="207" spans="8:8">
-      <c r="H207" s="142"/>
+      <c r="H207" s="141"/>
     </row>
     <row r="208" spans="8:8">
-      <c r="H208" s="142"/>
+      <c r="H208" s="141"/>
     </row>
     <row r="209" spans="8:8">
-      <c r="H209" s="142"/>
+      <c r="H209" s="141"/>
     </row>
     <row r="210" spans="8:8">
-      <c r="H210" s="142"/>
+      <c r="H210" s="141"/>
     </row>
     <row r="211" spans="8:8">
-      <c r="H211" s="142"/>
+      <c r="H211" s="141"/>
     </row>
     <row r="212" spans="8:8">
-      <c r="H212" s="142"/>
+      <c r="H212" s="141"/>
     </row>
     <row r="213" spans="8:8">
-      <c r="H213" s="142"/>
+      <c r="H213" s="141"/>
     </row>
     <row r="214" spans="8:8">
-      <c r="H214" s="142"/>
+      <c r="H214" s="141"/>
     </row>
     <row r="215" spans="8:8">
-      <c r="H215" s="142"/>
+      <c r="H215" s="141"/>
     </row>
     <row r="216" spans="8:8">
-      <c r="H216" s="142"/>
+      <c r="H216" s="141"/>
     </row>
     <row r="217" spans="8:8">
-      <c r="H217" s="142"/>
+      <c r="H217" s="141"/>
     </row>
     <row r="218" spans="8:8">
-      <c r="H218" s="142"/>
+      <c r="H218" s="141"/>
     </row>
     <row r="219" spans="8:8">
-      <c r="H219" s="142"/>
+      <c r="H219" s="141"/>
     </row>
     <row r="220" spans="8:8">
-      <c r="H220" s="142"/>
+      <c r="H220" s="141"/>
     </row>
     <row r="221" spans="8:8">
-      <c r="H221" s="142"/>
+      <c r="H221" s="141"/>
     </row>
     <row r="222" spans="8:8">
-      <c r="H222" s="142"/>
+      <c r="H222" s="141"/>
     </row>
     <row r="223" spans="8:8">
-      <c r="H223" s="142"/>
+      <c r="H223" s="141"/>
     </row>
     <row r="224" spans="8:8">
-      <c r="H224" s="142"/>
+      <c r="H224" s="141"/>
     </row>
     <row r="225" spans="8:8">
-      <c r="H225" s="142"/>
+      <c r="H225" s="141"/>
     </row>
     <row r="226" spans="8:8">
-      <c r="H226" s="142"/>
+      <c r="H226" s="141"/>
     </row>
     <row r="227" spans="8:8">
-      <c r="H227" s="142"/>
+      <c r="H227" s="141"/>
     </row>
     <row r="228" spans="8:8">
-      <c r="H228" s="142"/>
+      <c r="H228" s="141"/>
     </row>
     <row r="229" spans="8:8">
-      <c r="H229" s="142"/>
+      <c r="H229" s="141"/>
     </row>
     <row r="230" spans="8:8">
-      <c r="H230" s="142"/>
+      <c r="H230" s="141"/>
     </row>
     <row r="231" spans="8:8">
-      <c r="H231" s="142"/>
+      <c r="H231" s="141"/>
     </row>
     <row r="232" spans="8:8">
-      <c r="H232" s="142"/>
+      <c r="H232" s="141"/>
     </row>
     <row r="233" spans="8:8">
-      <c r="H233" s="142"/>
+      <c r="H233" s="141"/>
     </row>
     <row r="234" spans="8:8">
-      <c r="H234" s="142"/>
+      <c r="H234" s="141"/>
     </row>
     <row r="235" spans="8:8">
-      <c r="H235" s="142"/>
+      <c r="H235" s="141"/>
     </row>
     <row r="236" spans="8:8">
-      <c r="H236" s="142"/>
+      <c r="H236" s="141"/>
     </row>
     <row r="237" spans="8:8">
-      <c r="H237" s="142"/>
+      <c r="H237" s="141"/>
     </row>
     <row r="238" spans="8:8">
-      <c r="H238" s="142"/>
+      <c r="H238" s="141"/>
     </row>
     <row r="239" spans="8:8">
-      <c r="H239" s="142"/>
+      <c r="H239" s="141"/>
     </row>
     <row r="240" spans="8:8">
-      <c r="H240" s="142"/>
+      <c r="H240" s="141"/>
     </row>
     <row r="241" spans="8:8">
-      <c r="H241" s="142"/>
+      <c r="H241" s="141"/>
     </row>
     <row r="242" spans="8:8">
-      <c r="H242" s="142"/>
+      <c r="H242" s="141"/>
     </row>
     <row r="243" spans="8:8">
-      <c r="H243" s="142"/>
+      <c r="H243" s="141"/>
     </row>
     <row r="244" spans="8:8">
-      <c r="H244" s="142"/>
+      <c r="H244" s="141"/>
     </row>
     <row r="245" spans="8:8">
-      <c r="H245" s="142"/>
+      <c r="H245" s="141"/>
     </row>
     <row r="246" spans="8:8">
-      <c r="H246" s="142"/>
+      <c r="H246" s="141"/>
     </row>
     <row r="247" spans="8:8">
-      <c r="H247" s="142"/>
+      <c r="H247" s="141"/>
     </row>
     <row r="248" spans="8:8">
-      <c r="H248" s="142"/>
+      <c r="H248" s="141"/>
     </row>
     <row r="249" spans="8:8">
-      <c r="H249" s="142"/>
+      <c r="H249" s="141"/>
     </row>
     <row r="250" spans="8:8">
-      <c r="H250" s="142"/>
+      <c r="H250" s="141"/>
     </row>
     <row r="251" spans="8:8">
-      <c r="H251" s="142"/>
+      <c r="H251" s="141"/>
     </row>
     <row r="252" spans="8:8">
-      <c r="H252" s="142"/>
+      <c r="H252" s="141"/>
     </row>
     <row r="253" spans="8:8">
-      <c r="H253" s="142"/>
+      <c r="H253" s="141"/>
     </row>
     <row r="254" spans="8:8">
-      <c r="H254" s="142"/>
+      <c r="H254" s="141"/>
     </row>
     <row r="255" spans="8:8">
-      <c r="H255" s="142"/>
+      <c r="H255" s="141"/>
     </row>
     <row r="256" spans="8:8">
-      <c r="H256" s="142"/>
+      <c r="H256" s="141"/>
     </row>
     <row r="257" spans="8:8">
-      <c r="H257" s="142"/>
+      <c r="H257" s="141"/>
     </row>
     <row r="258" spans="8:8">
-      <c r="H258" s="142"/>
+      <c r="H258" s="141"/>
     </row>
     <row r="259" spans="8:8">
-      <c r="H259" s="142"/>
+      <c r="H259" s="141"/>
     </row>
     <row r="260" spans="8:8">
-      <c r="H260" s="142"/>
+      <c r="H260" s="141"/>
     </row>
     <row r="261" spans="8:8">
-      <c r="H261" s="142"/>
+      <c r="H261" s="141"/>
     </row>
     <row r="262" spans="8:8">
-      <c r="H262" s="142"/>
+      <c r="H262" s="141"/>
     </row>
     <row r="263" spans="8:8">
-      <c r="H263" s="142"/>
+      <c r="H263" s="141"/>
     </row>
     <row r="264" spans="8:8">
-      <c r="H264" s="142"/>
+      <c r="H264" s="141"/>
     </row>
     <row r="265" spans="8:8">
-      <c r="H265" s="142"/>
+      <c r="H265" s="141"/>
     </row>
     <row r="266" spans="8:8">
-      <c r="H266" s="142"/>
+      <c r="H266" s="141"/>
     </row>
     <row r="267" spans="8:8">
-      <c r="H267" s="142"/>
+      <c r="H267" s="141"/>
     </row>
     <row r="268" spans="8:8">
-      <c r="H268" s="142"/>
+      <c r="H268" s="141"/>
     </row>
     <row r="269" spans="8:8">
-      <c r="H269" s="142"/>
+      <c r="H269" s="141"/>
     </row>
     <row r="270" spans="8:8">
-      <c r="H270" s="142"/>
+      <c r="H270" s="141"/>
     </row>
     <row r="271" spans="8:8">
-      <c r="H271" s="142"/>
+      <c r="H271" s="141"/>
     </row>
     <row r="272" spans="8:8">
-      <c r="H272" s="142"/>
+      <c r="H272" s="141"/>
     </row>
     <row r="273" spans="8:8">
-      <c r="H273" s="142"/>
+      <c r="H273" s="141"/>
     </row>
     <row r="274" spans="8:8">
-      <c r="H274" s="142"/>
+      <c r="H274" s="141"/>
     </row>
     <row r="275" spans="8:8">
-      <c r="H275" s="142"/>
+      <c r="H275" s="141"/>
     </row>
     <row r="276" spans="8:8">
-      <c r="H276" s="142"/>
+      <c r="H276" s="141"/>
     </row>
     <row r="277" spans="8:8">
-      <c r="H277" s="142"/>
+      <c r="H277" s="141"/>
     </row>
     <row r="278" spans="8:8">
-      <c r="H278" s="142"/>
+      <c r="H278" s="141"/>
     </row>
     <row r="279" spans="8:8">
-      <c r="H279" s="142"/>
+      <c r="H279" s="141"/>
     </row>
     <row r="280" spans="8:8">
-      <c r="H280" s="142"/>
+      <c r="H280" s="141"/>
     </row>
     <row r="281" spans="8:8">
-      <c r="H281" s="142"/>
+      <c r="H281" s="141"/>
     </row>
     <row r="282" spans="8:8">
-      <c r="H282" s="142"/>
+      <c r="H282" s="141"/>
     </row>
     <row r="283" spans="8:8">
-      <c r="H283" s="142"/>
+      <c r="H283" s="141"/>
     </row>
     <row r="284" spans="8:8">
-      <c r="H284" s="142"/>
+      <c r="H284" s="141"/>
     </row>
     <row r="285" spans="8:8">
-      <c r="H285" s="142"/>
+      <c r="H285" s="141"/>
     </row>
     <row r="286" spans="8:8">
-      <c r="H286" s="142"/>
+      <c r="H286" s="141"/>
     </row>
     <row r="287" spans="8:8">
-      <c r="H287" s="142"/>
+      <c r="H287" s="141"/>
     </row>
     <row r="288" spans="8:8">
-      <c r="H288" s="142"/>
+      <c r="H288" s="141"/>
     </row>
     <row r="289" spans="8:8">
-      <c r="H289" s="142"/>
+      <c r="H289" s="141"/>
     </row>
     <row r="290" spans="8:8">
-      <c r="H290" s="142"/>
+      <c r="H290" s="141"/>
     </row>
     <row r="291" spans="8:8">
-      <c r="H291" s="142"/>
+      <c r="H291" s="141"/>
     </row>
     <row r="292" spans="8:8">
-      <c r="H292" s="142"/>
+      <c r="H292" s="141"/>
     </row>
     <row r="293" spans="8:8">
-      <c r="H293" s="142"/>
+      <c r="H293" s="141"/>
     </row>
     <row r="294" spans="8:8">
-      <c r="H294" s="142"/>
+      <c r="H294" s="141"/>
     </row>
     <row r="295" spans="8:8">
-      <c r="H295" s="142"/>
+      <c r="H295" s="141"/>
     </row>
     <row r="296" spans="8:8">
-      <c r="H296" s="142"/>
+      <c r="H296" s="141"/>
     </row>
     <row r="297" spans="8:8">
-      <c r="H297" s="142"/>
+      <c r="H297" s="141"/>
     </row>
     <row r="298" spans="8:8">
-      <c r="H298" s="142"/>
+      <c r="H298" s="141"/>
     </row>
     <row r="299" spans="8:8">
-      <c r="H299" s="142"/>
+      <c r="H299" s="141"/>
     </row>
     <row r="300" spans="8:8">
-      <c r="H300" s="142"/>
+      <c r="H300" s="141"/>
     </row>
     <row r="301" spans="8:8">
-      <c r="H301" s="142"/>
+      <c r="H301" s="141"/>
     </row>
     <row r="302" spans="8:8">
-      <c r="H302" s="142"/>
+      <c r="H302" s="141"/>
     </row>
     <row r="303" spans="8:8">
-      <c r="H303" s="142"/>
+      <c r="H303" s="141"/>
     </row>
     <row r="304" spans="8:8">
-      <c r="H304" s="142"/>
+      <c r="H304" s="141"/>
     </row>
     <row r="305" spans="8:8">
-      <c r="H305" s="142"/>
+      <c r="H305" s="141"/>
     </row>
     <row r="306" spans="8:8">
-      <c r="H306" s="142"/>
+      <c r="H306" s="141"/>
     </row>
     <row r="307" spans="8:8">
-      <c r="H307" s="142"/>
+      <c r="H307" s="141"/>
     </row>
     <row r="308" spans="8:8">
-      <c r="H308" s="142"/>
+      <c r="H308" s="141"/>
     </row>
     <row r="309" spans="8:8">
-      <c r="H309" s="142"/>
+      <c r="H309" s="141"/>
     </row>
     <row r="310" spans="8:8">
-      <c r="H310" s="142"/>
+      <c r="H310" s="141"/>
     </row>
     <row r="311" spans="8:8">
-      <c r="H311" s="142"/>
+      <c r="H311" s="141"/>
     </row>
     <row r="312" spans="8:8">
-      <c r="H312" s="142"/>
+      <c r="H312" s="141"/>
     </row>
     <row r="313" spans="8:8">
-      <c r="H313" s="142"/>
+      <c r="H313" s="141"/>
     </row>
     <row r="314" spans="8:8">
-      <c r="H314" s="142"/>
+      <c r="H314" s="141"/>
     </row>
     <row r="315" spans="8:8">
-      <c r="H315" s="142"/>
+      <c r="H315" s="141"/>
     </row>
     <row r="316" spans="8:8">
-      <c r="H316" s="142"/>
+      <c r="H316" s="141"/>
     </row>
     <row r="317" spans="8:8">
-      <c r="H317" s="142"/>
+      <c r="H317" s="141"/>
     </row>
     <row r="318" spans="8:8">
-      <c r="H318" s="142"/>
+      <c r="H318" s="141"/>
     </row>
     <row r="319" spans="8:8">
-      <c r="H319" s="142"/>
+      <c r="H319" s="141"/>
     </row>
     <row r="320" spans="8:8">
-      <c r="H320" s="142"/>
+      <c r="H320" s="141"/>
     </row>
     <row r="321" spans="8:8">
-      <c r="H321" s="142"/>
+      <c r="H321" s="141"/>
     </row>
     <row r="322" spans="8:8">
-      <c r="H322" s="142"/>
+      <c r="H322" s="141"/>
     </row>
     <row r="323" spans="8:8">
-      <c r="H323" s="142"/>
+      <c r="H323" s="141"/>
     </row>
     <row r="324" spans="8:8">
-      <c r="H324" s="142"/>
+      <c r="H324" s="141"/>
     </row>
     <row r="325" spans="8:8">
-      <c r="H325" s="142"/>
+      <c r="H325" s="141"/>
     </row>
     <row r="326" spans="8:8">
-      <c r="H326" s="142"/>
+      <c r="H326" s="141"/>
     </row>
     <row r="327" spans="8:8">
-      <c r="H327" s="142"/>
+      <c r="H327" s="141"/>
     </row>
     <row r="328" spans="8:8">
-      <c r="H328" s="142"/>
+      <c r="H328" s="141"/>
     </row>
     <row r="329" spans="8:8">
-      <c r="H329" s="142"/>
+      <c r="H329" s="141"/>
     </row>
     <row r="330" spans="8:8">
-      <c r="H330" s="142"/>
+      <c r="H330" s="141"/>
     </row>
     <row r="331" spans="8:8">
-      <c r="H331" s="142"/>
+      <c r="H331" s="141"/>
     </row>
     <row r="332" spans="8:8">
-      <c r="H332" s="142"/>
+      <c r="H332" s="141"/>
     </row>
     <row r="333" spans="8:8">
-      <c r="H333" s="142"/>
+      <c r="H333" s="141"/>
     </row>
     <row r="334" spans="8:8">
-      <c r="H334" s="142"/>
+      <c r="H334" s="141"/>
     </row>
     <row r="335" spans="8:8">
-      <c r="H335" s="142"/>
+      <c r="H335" s="141"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
